--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8845A06-7592-493F-A2A4-7E8E2E57399A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DE4A2-FD47-4ED6-B0E5-0092633EA0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,23 +34,355 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KimSangMin</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{72371B77-57FD-4BAA-AA68-F9A707CEDB5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다른</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동작을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요
+중</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> + </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>독립적</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기능
+하</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택적</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> / </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추후</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류_2</t>
-  </si>
-  <si>
-    <t>분류_3</t>
-  </si>
-  <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +396,256 @@
   </si>
   <si>
     <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능Lv.2_상세메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능Lv.1_메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능Lv.3_기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 초기화
+프로필 사진 관리
+주소입력 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터를 이용한 글 쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터를 이용한 글 쓰기
+첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID/PW 형식 검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+주소입력 API</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 조회</t>
+  </si>
+  <si>
+    <t>접속 로그 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동 로그 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예방접종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예방 접종 정보 API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+엑셀 다운로드
+엑셀 업로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접종 정보 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업
+첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그리드를 이용한 목록 조회(페이지 네이션, 필터)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우상단 소메뉴로 분류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">그리드를 이용한 목록 조회(페이지 네이션, 필터)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자유게시판, 질문게시판 같은 DB, 페이지 사용 =&gt; 파라미터로 구분</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 IP 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러를 이용해 매일 수행할 동작 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +666,69 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -110,9 +755,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -129,6 +816,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,45 +1118,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="59.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.799999999999997">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="52.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.799999999999997">
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.799999999999997">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="B15" s="3"/>
+      <c r="D15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="3"/>
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3"/>
+      <c r="D17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="52.2">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="34.799999999999997">
+      <c r="B19" s="3"/>
+      <c r="D19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3"/>
+      <c r="D23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DE4A2-FD47-4ED6-B0E5-0092633EA0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE7904E-6045-44BC-81CD-69D82C0917C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -506,32 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID/PW 형식 검증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-주소입력 API</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,12 +622,51 @@
     <t>스케줄러를 이용해 매일 수행할 동작 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID/PW 형식 검증
+필수입력 값 검증
+패스워드 해시 값 저장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해시 패스워드 자동 생성 및 사용자에게 추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+주소입력 API</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,9 +779,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -801,6 +811,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -816,10 +829,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1122,19 +1131,19 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="59.5" style="4" customWidth="1"/>
+    <col min="7" max="8" width="59.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1160,11 +1169,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1177,9 +1186,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,9 +1199,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1203,12 +1212,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1217,13 +1226,13 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="H5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1234,8 +1243,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="52.2">
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1248,16 +1257,16 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.799999999999997">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
+      <c r="C8" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1268,13 +1277,13 @@
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1284,13 +1293,13 @@
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1300,14 +1309,14 @@
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1318,13 +1327,13 @@
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,13 +1343,13 @@
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,15 +1359,15 @@
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.799999999999997">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1367,13 +1376,13 @@
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="B15" s="3"/>
-      <c r="D15" s="11" t="s">
+      <c r="H14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+      <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1382,13 +1391,13 @@
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="3"/>
-      <c r="D16" s="11" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+      <c r="D16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1397,13 +1406,13 @@
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="3"/>
-      <c r="D17" s="11" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="14"/>
+      <c r="D17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1412,81 +1421,81 @@
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="52.2">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="8" t="s">
+    </row>
+    <row r="19" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="14"/>
+      <c r="D19" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="34.799999999999997">
-      <c r="B19" s="3"/>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1495,37 +1504,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="3"/>
-      <c r="D23" s="10" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="14"/>
+      <c r="D23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>47</v>
+      <c r="H23" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE7904E-6045-44BC-81CD-69D82C0917C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5705832-9AE5-45D0-BC5C-E18B49609A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,6 +658,48 @@
       </rPr>
       <t xml:space="preserve">
 주소입력 API</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">로그인 상태 유지 기능
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID 저장 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID/PW 형식 검증
+필수입력 값 검증</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1132,7 +1174,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1169,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1184,6 +1226,9 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1524,17 +1569,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5705832-9AE5-45D0-BC5C-E18B49609A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ABECEC-FEA7-4EAE-B8F1-6942FDF2F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -701,6 +701,29 @@
       <t>ID/PW 형식 검증
 필수입력 값 검증</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +731,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,7 +1200,7 @@
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
@@ -1185,7 +1208,7 @@
     <col min="7" max="8" width="59.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="87">
       <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
@@ -1244,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
@@ -1257,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="87">
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
         <v>8</v>
@@ -1275,7 +1298,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
@@ -1288,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="52.2">
       <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1306,7 +1329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="34.799999999999997">
       <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
@@ -1326,7 +1349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
@@ -1342,7 +1365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
@@ -1358,7 +1381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
         <v>42</v>
@@ -1376,7 +1399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
@@ -1392,7 +1415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
@@ -1408,7 +1431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="34.799999999999997">
       <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="B15" s="14"/>
       <c r="D15" s="10" t="s">
         <v>22</v>
@@ -1440,7 +1463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="B16" s="14"/>
       <c r="D16" s="10" t="s">
         <v>23</v>
@@ -1455,7 +1478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8">
       <c r="B17" s="14"/>
       <c r="D17" s="10" t="s">
         <v>29</v>
@@ -1470,7 +1493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" ht="52.2">
       <c r="B18" s="14" t="s">
         <v>37</v>
       </c>
@@ -1487,7 +1510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" ht="34.799999999999997">
       <c r="B19" s="14"/>
       <c r="D19" s="11" t="s">
         <v>39</v>
@@ -1502,7 +1525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8">
       <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
@@ -1522,7 +1545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="10" t="s">
@@ -1535,7 +1558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8">
       <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
@@ -1549,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8">
       <c r="B23" s="14"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
@@ -1569,17 +1592,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ABECEC-FEA7-4EAE-B8F1-6942FDF2F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF42B68-5A0C-4E05-9E3A-EA8E4D1D7802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,45 +620,6 @@
   </si>
   <si>
     <t>스케줄러를 이용해 매일 수행할 동작 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ID/PW 형식 검증
-필수입력 값 검증
-패스워드 해시 값 저장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해시 패스워드 자동 생성 및 사용자에게 추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-주소입력 API</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,8 +659,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ID/PW 형식 검증
-필수입력 값 검증</t>
+      <t>ID/PW 형식 검증</t>
     </r>
     <r>
       <rPr>
@@ -726,12 +686,98 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>유틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID/PW 형식 검증
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>패스워드 해시 값 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해시 패스워드 자동 생성 및 사용자에게 추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+주소입력 API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이메일 인증
+휴대전화 인증</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수입력 값 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,16 +856,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -827,13 +888,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,38 +922,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,14 +1284,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
@@ -1208,401 +1299,454 @@
     <col min="7" max="8" width="59.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="87">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="1" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="1" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="87">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="1" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="52.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="1" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.799999999999997">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.799999999999997">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="B15" s="14"/>
-      <c r="D15" s="10" t="s">
+    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="14"/>
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="14"/>
-      <c r="D17" s="10" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="52.2">
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="34.799999999999997">
-      <c r="B19" s="14"/>
-      <c r="D19" s="11" t="s">
+    <row r="19" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="14" t="s">
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="14"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="18"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="14" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF42B68-5A0C-4E05-9E3A-EA8E4D1D7802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F352D4AD-89E0-4D08-BE21-3E69C20D48C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,12 +452,6 @@
   </si>
   <si>
     <t>상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드 초기화
-프로필 사진 관리
-주소입력 API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -772,12 +766,42 @@
     <t>필수입력 값 검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>로그인을 통한 사용자 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 인증을 통한 ID찾기 및 사용자 이메일로 임의 생성된 PW발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 입력 및 본인인증을 통한 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버, 카카오톡 등의 계정을 이용한 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버, 카카오톡 등의 계정을 이용한 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 본인의 정보를 조회 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 변경
+프로필 사진 관리
+주소입력 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,9 +953,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -964,11 +985,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,11 +1311,11 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
@@ -1299,7 +1323,7 @@
     <col min="7" max="8" width="59.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1325,413 +1349,425 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:8" ht="70.2" customHeight="1">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="104.4">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="52.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.799999999999997">
+      <c r="B8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34.799999999999997">
+      <c r="B14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="B15" s="18"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="18"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="18"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="52.2">
+      <c r="B18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="34.799999999999997">
+      <c r="B19" s="18"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="19"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="17" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F352D4AD-89E0-4D08-BE21-3E69C20D48C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745A10D-041F-48B0-A33F-F311195A69DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,11 +484,6 @@
   </si>
   <si>
     <t>공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에디터를 이용한 글 쓰기
-첨부파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -577,65 +572,85 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>우상단 소메뉴로 분류</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">그리드를 이용한 목록 조회(페이지 네이션, 필터)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
+      <t>자유게시판, 질문게시판 같은 DB, 페이지 사용 =&gt; 파라미터로 구분</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 IP 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케줄러를 이용해 매일 수행할 동작 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수입력 값 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인을 통한 사용자 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 인증을 통한 ID찾기 및 사용자 이메일로 임의 생성된 PW발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 입력 및 본인인증을 통한 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버, 카카오톡 등의 계정을 이용한 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버, 카카오톡 등의 계정을 이용한 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 본인의 정보를 조회 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 변경
+프로필 사진 관리
+주소입력 API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>자유게시판, 질문게시판 같은 DB, 페이지 사용 =&gt; 파라미터로 구분</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속 IP 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케줄러를 이용해 매일 수행할 동작 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">로그인 상태 유지 기능
-</t>
+      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID 저장 기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
@@ -647,20 +662,32 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우상단 소메뉴로 분류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에디터를 이용한 글 쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID/PW 형식 검증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,6 +696,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
@@ -676,21 +704,60 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>첨부파일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 권한 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url 요청 내역 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID 저장 기능
+로그인 정보 세션 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유틸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>값 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
@@ -698,7 +765,41 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ID/PW 형식 검증
+      <t>PW 형식 검증(숫자, 영어, 특수문자를 포함하여 8글자 이상 50글자 이하)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID 형식 검증(영문과 숫자만으로 20글자 이하)
+서버에서 ID/PW 형식 재검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -763,37 +864,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필수입력 값 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인을 통한 사용자 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 인증을 통한 ID찾기 및 사용자 이메일로 임의 생성된 PW발송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 입력 및 본인인증을 통한 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버, 카카오톡 등의 계정을 이용한 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버, 카카오톡 등의 계정을 이용한 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 본인의 정보를 조회 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드 변경
-프로필 사진 관리
-주소입력 API</t>
+    <t>로딩바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 연결할 때 로딩바 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘솔 창에 실행 쿼리를 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +972,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -933,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,9 +1054,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,13 +1072,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,22 +1404,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="59.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="64.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="62" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1349,11 +1446,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="70.2" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1366,15 +1463,15 @@
         <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1385,13 +1482,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1402,16 +1499,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="104.4">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1421,15 +1518,15 @@
         <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1440,12 +1537,12 @@
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="52.2">
-      <c r="B7" s="18"/>
+    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1459,18 +1556,18 @@
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997">
-      <c r="B8" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>40</v>
+      <c r="C8" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -1483,12 +1580,12 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1503,9 +1600,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1520,10 +1617,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18" t="s">
-        <v>41</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
@@ -1539,9 +1636,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1556,9 +1653,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1573,12 +1670,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.799999999999997">
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1588,140 +1685,142 @@
         <v>13</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="16"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="16"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="B15" s="18"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="18"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="18"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="52.2">
-      <c r="B18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="34.799999999999997">
-      <c r="B19" s="18"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>13</v>
@@ -1730,13 +1829,15 @@
         <v>18</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="19"/>
+      <c r="H22" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="17"/>
       <c r="C23" s="5"/>
       <c r="D23" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>12</v>
@@ -1745,36 +1846,73 @@
         <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="17"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>49</v>
+      <c r="D24" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="17" t="s">
-        <v>51</v>
+      <c r="G24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="17"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B13"/>
@@ -1786,6 +1924,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745A10D-041F-48B0-A33F-F311195A69DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D91BD-83D0-4F6B-8F60-45065BD1EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>접속 IP 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스케줄러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,44 +715,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID 저장 기능
-로그인 정보 세션 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
@@ -877,6 +835,64 @@
   </si>
   <si>
     <t>콘솔 창에 실행 쿼리를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접속 IP 조회
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>접속 정보 DB 저장</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID 저장 기능
+로그인 정보 세션 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +900,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +995,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1023,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,26 +1103,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,12 +1443,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
@@ -1420,7 +1457,7 @@
     <col min="8" max="8" width="62" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1446,11 +1483,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:8" ht="70.2" customHeight="1">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1463,15 +1500,15 @@
         <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1482,13 +1519,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+    <row r="4" spans="1:8">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1499,16 +1536,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:8" ht="139.19999999999999">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1518,15 +1555,15 @@
         <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1537,12 +1574,12 @@
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="16"/>
+    <row r="7" spans="1:8" ht="52.2">
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1556,17 +1593,17 @@
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="34.799999999999997">
+      <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1583,9 +1620,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+    <row r="9" spans="1:8">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1600,9 +1637,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+    <row r="10" spans="1:8">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1617,9 +1654,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16" t="s">
+    <row r="11" spans="1:8">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1636,9 +1673,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+    <row r="12" spans="1:8">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1653,9 +1690,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+    <row r="13" spans="1:8">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1670,8 +1707,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="1:8" ht="34.799999999999997">
+      <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5"/>
@@ -1686,11 +1723,11 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="13" t="s">
         <v>21</v>
@@ -1703,11 +1740,11 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="13" t="s">
         <v>22</v>
@@ -1718,13 +1755,13 @@
       <c r="F16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
+    <row r="17" spans="2:8">
+      <c r="B17" s="20"/>
       <c r="C17" s="5"/>
       <c r="D17" s="13" t="s">
         <v>27</v>
@@ -1735,13 +1772,13 @@
       <c r="F17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="2:8" ht="52.2">
+      <c r="B18" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="5"/>
@@ -1759,8 +1796,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B19" s="16"/>
+    <row r="19" spans="2:8" ht="34.799999999999997">
+      <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="13" t="s">
         <v>37</v>
@@ -1776,14 +1813,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="2:8" ht="34.799999999999997">
+      <c r="B20" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1793,13 +1830,13 @@
         <v>13</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="H20" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
@@ -1811,11 +1848,11 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="5"/>
@@ -1830,14 +1867,14 @@
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="17"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="19"/>
       <c r="C23" s="5"/>
       <c r="D23" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>12</v>
@@ -1846,17 +1883,17 @@
         <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="17"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="19"/>
       <c r="C24" s="5"/>
       <c r="D24" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -1865,19 +1902,19 @@
         <v>18</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>12</v>
@@ -1886,15 +1923,15 @@
         <v>18</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="17"/>
+      <c r="H25" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="19"/>
       <c r="C26" s="5"/>
       <c r="D26" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -1904,23 +1941,23 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D91BD-83D0-4F6B-8F60-45065BD1EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20B019-574C-49C7-A74C-6E4FB95AA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
+    <sheet name="명세서" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
     <author>KimSangMin</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{72371B77-57FD-4BAA-AA68-F9A707CEDB5C}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{72371B77-57FD-4BAA-AA68-F9A707CEDB5C}">
       <text>
         <r>
           <rPr>
@@ -377,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="99">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,14 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능Lv.1_메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능Lv.3_기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글 상세조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,9 +486,6 @@
   <si>
     <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 조회</t>
   </si>
   <si>
     <t>접속 로그 조회</t>
@@ -630,41 +616,6 @@
     <t>패스워드 변경
 프로필 사진 관리
 주소입력 API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>우상단 소메뉴로 분류</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,10 +657,6 @@
   </si>
   <si>
     <t>계정 권한 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url 요청 내역 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,36 +769,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로딩바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 연결할 때 로딩바 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿼리 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>콘솔 창에 실행 쿼리를 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">접속 IP 조회
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>접속 정보 DB 저장</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,12 +817,223 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>log4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4j 설정을 통해 로그를 파일로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 파일로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 요청한 URL 내역을 DB에 저장하고 관리자가 조회할 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 연결할 때 로딩패널 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 글씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부통제시스템에서 배워 올 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크 관련 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능Lv.1_대메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능Lv.3_화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능Lv.4_기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 맵(모든 메뉴 및 관련 설명을 한 눈에 조회 및 각 메뉴로 이동 가능하도록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중고 장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 관리(등록, 수정)</t>
+  </si>
+  <si>
+    <t>기업 장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이비시터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌봐주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌봐줄게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그에 대한 상세 내용 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접속 IP 조회
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>접속 정보 DB 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url 요청 내역 조회(인터셉터)
+접속 정보 DB 저장
+엑셀 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현황 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,8 +1146,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,8 +1169,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1051,13 +1199,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,17 +1300,50 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1441,527 +1659,1086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.59765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="62" style="3" customWidth="1"/>
+    <col min="2" max="5" width="16.69921875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="64.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="70.2" customHeight="1">
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="70.2" customHeight="1">
-      <c r="B2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="139.19999999999999">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="52.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34.799999999999997">
+      <c r="B8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="5" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="33"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="33"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="33"/>
+      <c r="C11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="33"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="33"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="33"/>
+      <c r="C14" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="33"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="33"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="34.799999999999997">
+      <c r="B18" s="33"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="139.19999999999999">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="33"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="33"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="33"/>
+      <c r="C21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="33"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="33"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="33"/>
+      <c r="C24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="33"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="52.2">
+      <c r="B26" s="33"/>
+      <c r="C26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="34.799999999999997">
+      <c r="B27" s="33"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="33"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="33"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="33"/>
+      <c r="C31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="33"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="33"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="33"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="33"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="33"/>
+      <c r="C37" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="33"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="33"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="33"/>
+      <c r="C40" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="33"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="33"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="33"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="33"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="33"/>
+      <c r="C46" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="33"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="33"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" spans="2:9" ht="52.2">
+      <c r="B50" s="28"/>
+      <c r="C50" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="28"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="2:9" ht="52.2">
+      <c r="B52" s="28"/>
+      <c r="C52" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="28"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="29"/>
+      <c r="C54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="22"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="22"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="52.2">
-      <c r="B7" s="20"/>
-      <c r="C7" s="5" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="22"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.799999999999997">
-      <c r="B8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7" t="s">
+      <c r="G58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34.799999999999997">
-      <c r="B14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="B15" s="20"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="20"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="20"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="52.2">
-      <c r="B18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="34.799999999999997">
-      <c r="B19" s="20"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="34.799999999999997">
-      <c r="B20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="19"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="8" t="s">
+      <c r="E59" s="18"/>
+      <c r="F59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="19"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="8" t="s">
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="22"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="19"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="12" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B8:B13"/>
+  <mergeCells count="27">
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B28:B33"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B05674A-9CEC-45EA-B682-DB182F096B77}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20B019-574C-49C7-A74C-6E4FB95AA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A6653-8D66-415F-AD3B-5ACF981808B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -38,339 +38,17 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>KimSangMin</author>
+    <author>tc={268D8250-1342-44A7-BAAC-E75199A4C36C}</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{72371B77-57FD-4BAA-AA68-F9A707CEDB5C}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> + </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>다른</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>동작을</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>위해</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필요
-중</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> + </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>독립적</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기능
-하</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택적</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> / </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>추후</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구현</t>
-        </r>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    상: 필수 + 타기능 상호작용O
+중: 필수 + 타기능 상호작용X
+하: 선택</t>
       </text>
     </comment>
   </commentList>
@@ -378,11 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="99">
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능Lv.2_상세메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,32 +175,6 @@
   </si>
   <si>
     <t>예방접종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>예방 접종 정보 API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-엑셀 다운로드
-엑셀 업로드</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -878,18 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능Lv.1_대메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능Lv.3_화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능Lv.4_기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -970,6 +602,32 @@
   </si>
   <si>
     <t>상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현황 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">url 요청 내역 조회(인터셉터)
+요청 정보 DB 저장
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1012,20 +670,102 @@
       </rPr>
       <t>엑셀 다운로드</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url 요청 내역 조회(인터셉터)
-접속 정보 DB 저장
-엑셀 다운로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현황 조회</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 업로드 테스트(테스트)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예방 접종 정보 API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드
+엑셀 업로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 사항 발생 시 exception을 통해 사용자에게 오류 메시지 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 정보 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 정보 처리 시 속도 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.1_대메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.2_상세메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.3_화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.4_기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,21 +805,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1154,6 +879,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1242,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,8 +1001,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,67 +1022,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,6 +1109,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="김 상민" id="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" userId="cfdb37a1b0aada02" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,322 +1412,317 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2023-01-12T02:15:01.80" personId="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" id="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
+    <text>상: 필수 + 타기능 상호작용O
+중: 필수 + 타기능 상호작용X
+하: 선택</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="B2:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="5" width="16.69921875" style="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="64.59765625" style="3" customWidth="1"/>
     <col min="9" max="9" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="I2" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1">
+      <c r="B3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="2:9" ht="70.2" customHeight="1">
+      <c r="B4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="70.2" customHeight="1">
-      <c r="B2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" ht="139.19999999999999">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="139.19999999999999">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="52.2">
-      <c r="B7" s="21"/>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="34.799999999999997">
-      <c r="B8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="33"/>
-      <c r="C9" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" ht="52.2">
+      <c r="B9" s="30"/>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="33"/>
-      <c r="C10" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="34.799999999999997">
+      <c r="B10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="33"/>
-      <c r="C11" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="I10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="31"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="33"/>
-      <c r="C12" s="21"/>
+      <c r="I11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="31"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="33"/>
-      <c r="C13" s="21"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="31"/>
+      <c r="C13" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="33"/>
-      <c r="C14" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="I13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="31"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="33"/>
-      <c r="C15" s="21"/>
+      <c r="I14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="31"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="5" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="33"/>
-      <c r="C16" s="21"/>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="31"/>
+      <c r="C16" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1981,112 +1731,112 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="34.799999999999997">
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="31"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="34.799999999999997">
-      <c r="B18" s="33"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="33"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="33"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="33"/>
-      <c r="C21" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="33"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="33"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="D23" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -2095,12 +1845,10 @@
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="33"/>
-      <c r="C24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>77</v>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2109,90 +1857,92 @@
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="33"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="5" t="s">
-        <v>78</v>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="52.2">
-      <c r="B26" s="33"/>
-      <c r="C26" s="21" t="s">
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="31"/>
+      <c r="C26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="52.2">
+      <c r="B28" s="31"/>
+      <c r="C28" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="34.799999999999997">
+      <c r="B29" s="31"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="34.799999999999997">
-      <c r="B27" s="33"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="33"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="33"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="D30" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="5"/>
@@ -2201,12 +1951,10 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="33"/>
-      <c r="C31" s="21" t="s">
-        <v>83</v>
-      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="5"/>
@@ -2215,10 +1963,10 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="33"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="5"/>
@@ -2227,10 +1975,12 @@
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="33"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="30" t="s">
+        <v>77</v>
+      </c>
       <c r="D33" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="5"/>
@@ -2239,14 +1989,10 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>85</v>
-      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="5"/>
@@ -2255,10 +2001,10 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="33"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="5"/>
@@ -2267,10 +2013,14 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="33"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="D36" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="5"/>
@@ -2279,12 +2029,10 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="33"/>
-      <c r="C37" s="21" t="s">
-        <v>86</v>
-      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="5"/>
@@ -2293,10 +2041,10 @@
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="33"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="5"/>
@@ -2305,10 +2053,12 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="33"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="30" t="s">
+        <v>80</v>
+      </c>
       <c r="D39" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="5"/>
@@ -2317,12 +2067,10 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="33"/>
-      <c r="C40" s="21" t="s">
-        <v>87</v>
-      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="5"/>
@@ -2331,10 +2079,10 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="33"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="5"/>
@@ -2343,10 +2091,12 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="33"/>
-      <c r="C42" s="21"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="30" t="s">
+        <v>81</v>
+      </c>
       <c r="D42" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="5"/>
@@ -2355,14 +2105,10 @@
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="5"/>
@@ -2371,10 +2117,10 @@
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="33"/>
-      <c r="C44" s="21"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="5"/>
@@ -2383,10 +2129,14 @@
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="33"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="D45" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="5"/>
@@ -2395,12 +2145,10 @@
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="33"/>
-      <c r="C46" s="21" t="s">
-        <v>90</v>
-      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="13" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="5"/>
@@ -2409,10 +2157,10 @@
       <c r="I46" s="14"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="33"/>
-      <c r="C47" s="21"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="5"/>
@@ -2421,10 +2169,12 @@
       <c r="I47" s="14"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="33"/>
-      <c r="C48" s="21"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="D48" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="5"/>
@@ -2433,14 +2183,10 @@
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="13" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="5"/>
@@ -2448,233 +2194,306 @@
       <c r="H49" s="6"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="2:9" ht="52.2">
-      <c r="B50" s="28"/>
-      <c r="C50" s="32" t="s">
-        <v>27</v>
-      </c>
+    <row r="50" spans="2:9">
+      <c r="B50" s="31"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="28"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="D51" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="E51" s="13"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="2:9" ht="52.2">
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="2:9" ht="69.599999999999994">
       <c r="B52" s="28"/>
-      <c r="C52" s="31" t="s">
-        <v>28</v>
+      <c r="C52" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>96</v>
+        <v>9</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="28"/>
-      <c r="C53" s="31"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="E53" s="10"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="29"/>
-      <c r="C54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="10"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="2:9" ht="52.2">
+      <c r="B54" s="28"/>
+      <c r="C54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="12"/>
+      <c r="F54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="12" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="29"/>
+      <c r="C56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="32"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="32"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="32"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="32"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="32"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="22"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="18" t="s">
+      <c r="I62" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="6" t="s">
+      <c r="F63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="22"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="6" t="s">
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="32"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="F64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="22"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="22"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C54:C55"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2699,42 +2518,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="30" t="s">
-        <v>91</v>
+      <c r="A5" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A6653-8D66-415F-AD3B-5ACF981808B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF3A51-15AA-4617-B703-FDFC002FFCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,24 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">그리드를 이용한 목록 조회(페이지 네이션, 필터)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>자유게시판, 질문게시판 같은 DB, 페이지 사용 =&gt; 파라미터로 구분</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스케줄러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,12 +235,6 @@
   </si>
   <si>
     <t>사용자가 본인의 정보를 조회 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드 변경
-프로필 사진 관리
-주소입력 API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -593,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그에 대한 상세 내용 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,11 +603,166 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예방 접종 정보 API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드
+엑셀 업로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 사항 발생 시 exception을 통해 사용자에게 오류 메시지 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 정보 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 정보 처리 시 속도 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.1_대메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.2_상세메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.3_화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.4_기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 사이드바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 사이드바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리모컨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명 표시
+메뉴 접근 경로 표시(ex. Hello Papang &gt; 회원가입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 이동(맨 위로, 맨 아래로, 자동 스크롤)
+페이지 툴팁(켜기/끄기) -&gt; 화면 구성요소에 마우스 올리면 툴팁 표시
+페이지 개요 보이기 -&gt; 페이지 작성 의도 및 사용 방법 등을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속자 수 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연/월/일 별 접속자 수를 그래프 및 표로 조회하고 엑셀로 다운로드 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>패스워드 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+프로필 사진 관리
+주소입력 API</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">접속 IP 조회
 </t>
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
@@ -661,6 +787,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
@@ -694,18 +821,18 @@
       </rPr>
       <t>엑셀 업로드 테스트(테스트)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>예방 접종 정보 API</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -716,56 +843,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드
-엑셀 업로드</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외 사항 발생 시 exception을 통해 사용자에게 오류 메시지 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대용량 정보 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대용량 정보 처리 시 속도 향상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.1_대메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.2_상세메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.3_화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.4_기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
+      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +852,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,14 +909,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -881,10 +952,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -973,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,61 +1095,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1085,13 +1128,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,11 +1506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I64"/>
+  <dimension ref="B2:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1441,173 +1523,161 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="B2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="2" customFormat="1">
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="2:9" ht="70.2" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:9" ht="139.19999999999999">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="34"/>
+      <c r="C7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" ht="52.2">
-      <c r="B9" s="30"/>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="34"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="34.799999999999997">
-      <c r="B10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="34"/>
+      <c r="C10" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
@@ -1617,34 +1687,30 @@
         <v>8</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="31"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="31"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1653,293 +1719,295 @@
         <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="34.799999999999997">
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="31"/>
-      <c r="C13" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="34"/>
+      <c r="C17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="31"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="31"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="5" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="34"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="34"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="31"/>
-      <c r="C16" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="31"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="34.799999999999997">
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="13" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="34"/>
+      <c r="C20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="31"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="13" t="s">
-        <v>17</v>
+      <c r="B21" s="34"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="31"/>
-      <c r="C23" s="30" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="52.2">
+      <c r="B22" s="34"/>
+      <c r="C22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="34.799999999999997">
+      <c r="B23" s="34"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="31"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="13" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="34"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="34"/>
+      <c r="C27" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="34"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="34"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="31"/>
-      <c r="C26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="31"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="52.2">
-      <c r="B28" s="31"/>
-      <c r="C28" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="34.799999999999997">
-      <c r="B29" s="31"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>75</v>
+      <c r="C30" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>16</v>
@@ -1951,10 +2019,10 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="31"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="5"/>
@@ -1963,8 +2031,8 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="31"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="13" t="s">
         <v>17</v>
       </c>
@@ -1975,9 +2043,9 @@
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="31"/>
-      <c r="C33" s="30" t="s">
-        <v>77</v>
+      <c r="B33" s="34"/>
+      <c r="C33" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>16</v>
@@ -1989,10 +2057,10 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="31"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="5"/>
@@ -2001,8 +2069,8 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="31"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="13" t="s">
         <v>17</v>
       </c>
@@ -2013,10 +2081,8 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="30" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="32" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -2029,10 +2095,10 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="31"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="5"/>
@@ -2041,8 +2107,8 @@
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="31"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="13" t="s">
         <v>17</v>
       </c>
@@ -2053,9 +2119,11 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="31"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="34" t="s">
         <v>80</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>16</v>
@@ -2067,10 +2135,10 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="31"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="5"/>
@@ -2079,8 +2147,8 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="31"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="13" t="s">
         <v>17</v>
       </c>
@@ -2091,9 +2159,9 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="31"/>
-      <c r="C42" s="30" t="s">
-        <v>81</v>
+      <c r="B42" s="34"/>
+      <c r="C42" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>16</v>
@@ -2105,10 +2173,10 @@
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="31"/>
-      <c r="C43" s="30"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="5"/>
@@ -2117,8 +2185,8 @@
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="31"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="13" t="s">
         <v>17</v>
       </c>
@@ -2129,371 +2197,500 @@
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>83</v>
+      <c r="B45" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="31"/>
-      <c r="C46" s="30"/>
+    <row r="46" spans="2:9" ht="87">
+      <c r="B46" s="39"/>
+      <c r="C46" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="D46" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H46" s="6"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="19" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="31"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="31"/>
-      <c r="C48" s="30" t="s">
-        <v>84</v>
+      <c r="I47" s="19"/>
+    </row>
+    <row r="48" spans="2:9" ht="52.2">
+      <c r="B48" s="39"/>
+      <c r="C48" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="14"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="31"/>
-      <c r="C49" s="30"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="31"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="13"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="2:9" ht="69.599999999999994">
-      <c r="B52" s="28"/>
-      <c r="C52" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="10"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="2:9" ht="70.2" customHeight="1">
+      <c r="B51" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="19" t="s">
-        <v>92</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="28"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="2:9" ht="52.2">
-      <c r="B54" s="28"/>
-      <c r="C54" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="10"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" ht="139.19999999999999">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="16"/>
       <c r="F54" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="28"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="13" t="s">
-        <v>88</v>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H55" s="6" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="29"/>
+    <row r="56" spans="2:9" ht="52.2">
+      <c r="B56" s="32"/>
       <c r="C56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="42"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="2:9" ht="52.2">
+      <c r="B59" s="42"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="42"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="2:9" ht="34.799999999999997">
+      <c r="B61" s="42"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="32"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="32"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="32"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="32"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="32"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="18" t="s">
-        <v>50</v>
+      <c r="E62" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>51</v>
+      <c r="H62" s="6"/>
+      <c r="I62" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="B63" s="35"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="17" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="32"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="18" t="s">
-        <v>57</v>
+      <c r="E64" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="35"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="20" t="s">
-        <v>58</v>
+      <c r="G65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="35"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="35"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="35"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,7 +2704,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2518,42 +2715,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF3A51-15AA-4617-B703-FDFC002FFCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBFAED-2453-4A35-B1FC-97F19A5BD83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,43 +235,6 @@
   </si>
   <si>
     <t>사용자가 본인의 정보를 조회 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에디터를 이용한 글 쓰기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>첨부파일</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -585,24 +548,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">url 요청 내역 조회(인터셉터)
-요청 정보 DB 저장
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <rFont val="맑은 고딕"/>
@@ -729,10 +674,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
+    <t>파란 글씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르게 구현 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에디터를 이용한 글 쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>첨부파일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -756,6 +746,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>서비스 트렌잭션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 서비스 트렌잭션 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">접속 IP 조회
 </t>
@@ -812,6 +810,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
@@ -837,13 +836,72 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
+      <t>요청 정보 DB 저장(인터셉터)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url 요청 내역 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,7 +910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,9 +1011,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1046,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,6 +1200,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,37 +1239,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,62 +1581,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I69"/>
+  <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="5" width="16.69921875" style="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="64.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="73.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1">
+    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="34" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -1582,11 +1657,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="34"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -1600,8 +1675,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="34"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="5" t="s">
         <v>17</v>
@@ -1618,8 +1693,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="34"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
         <v>33</v>
       </c>
@@ -1638,11 +1713,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="34"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -1656,8 +1731,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="34"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="31"/>
       <c r="C9" s="32"/>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -1674,10 +1749,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="34"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="31"/>
       <c r="C10" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
@@ -1692,11 +1767,11 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="34"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="31"/>
       <c r="C11" s="32"/>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -1708,8 +1783,8 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="34"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="31"/>
       <c r="C12" s="32"/>
       <c r="D12" s="5" t="s">
         <v>17</v>
@@ -1724,9 +1799,9 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="34" t="s">
-        <v>67</v>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>21</v>
@@ -1746,11 +1821,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="34.799999999999997">
-      <c r="B14" s="34"/>
+    <row r="14" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="5" t="s">
@@ -1761,11 +1836,11 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="34"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="13" t="s">
         <v>17</v>
@@ -1782,8 +1857,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="34"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="13" t="s">
         <v>22</v>
@@ -1800,10 +1875,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="34"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="31"/>
       <c r="C17" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>16</v>
@@ -1818,11 +1893,11 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="34"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="31"/>
       <c r="C18" s="32"/>
       <c r="D18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="5" t="s">
@@ -1834,8 +1909,8 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="34"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="31"/>
       <c r="C19" s="32"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
@@ -1850,13 +1925,13 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="34"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="31"/>
       <c r="C20" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="5" t="s">
@@ -1868,11 +1943,11 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="34"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="5" t="s">
@@ -1883,15 +1958,15 @@
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="52.2">
-      <c r="B22" s="34"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B22" s="31"/>
       <c r="C22" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="10"/>
@@ -1903,11 +1978,11 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="34.799999999999997">
-      <c r="B23" s="34"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="D23" s="13" t="s">
         <v>30</v>
@@ -1924,12 +1999,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="34" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>73</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>16</v>
@@ -1940,11 +2015,11 @@
       <c r="H24" s="6"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="34"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="5"/>
@@ -1952,8 +2027,8 @@
       <c r="H25" s="6"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="34"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="31"/>
       <c r="C26" s="32"/>
       <c r="D26" s="13" t="s">
         <v>17</v>
@@ -1964,10 +2039,10 @@
       <c r="H26" s="6"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="34"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="31"/>
       <c r="C27" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>16</v>
@@ -1978,11 +2053,11 @@
       <c r="H27" s="6"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="34"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="5"/>
@@ -1990,8 +2065,8 @@
       <c r="H28" s="6"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="34"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="13" t="s">
         <v>17</v>
@@ -2002,12 +2077,12 @@
       <c r="H29" s="6"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="34" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>16</v>
@@ -2018,11 +2093,11 @@
       <c r="H30" s="6"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="34"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="5"/>
@@ -2030,8 +2105,8 @@
       <c r="H31" s="6"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="34"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="31"/>
       <c r="C32" s="32"/>
       <c r="D32" s="13" t="s">
         <v>17</v>
@@ -2042,10 +2117,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="34"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="31"/>
       <c r="C33" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>16</v>
@@ -2056,11 +2131,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="34"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="31"/>
       <c r="C34" s="32"/>
       <c r="D34" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="5"/>
@@ -2068,8 +2143,8 @@
       <c r="H34" s="6"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="34"/>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="31"/>
       <c r="C35" s="32"/>
       <c r="D35" s="13" t="s">
         <v>17</v>
@@ -2080,10 +2155,10 @@
       <c r="H35" s="6"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="34"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="31"/>
       <c r="C36" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>16</v>
@@ -2094,11 +2169,11 @@
       <c r="H36" s="6"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="34"/>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="5"/>
@@ -2106,8 +2181,8 @@
       <c r="H37" s="6"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="34"/>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="13" t="s">
         <v>17</v>
@@ -2118,12 +2193,12 @@
       <c r="H38" s="6"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>16</v>
@@ -2134,11 +2209,11 @@
       <c r="H39" s="6"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="34"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="31"/>
       <c r="C40" s="32"/>
       <c r="D40" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="5"/>
@@ -2146,8 +2221,8 @@
       <c r="H40" s="6"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="34"/>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="31"/>
       <c r="C41" s="32"/>
       <c r="D41" s="13" t="s">
         <v>17</v>
@@ -2158,10 +2233,10 @@
       <c r="H41" s="6"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="34"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="31"/>
       <c r="C42" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>16</v>
@@ -2172,11 +2247,11 @@
       <c r="H42" s="6"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="34"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="5"/>
@@ -2184,8 +2259,8 @@
       <c r="H43" s="6"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="34"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="31"/>
       <c r="C44" s="32"/>
       <c r="D44" s="13" t="s">
         <v>17</v>
@@ -2196,29 +2271,29 @@
       <c r="H44" s="6"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="38" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="E45" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" spans="2:9" ht="87">
-      <c r="B46" s="39"/>
-      <c r="C46" s="37" t="s">
+    <row r="46" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B46" s="36"/>
+      <c r="C46" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -2233,14 +2308,14 @@
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="39"/>
-      <c r="C47" s="37"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="36"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="5" t="s">
@@ -2252,9 +2327,9 @@
       <c r="H47" s="6"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="2:9" ht="52.2">
-      <c r="B48" s="39"/>
-      <c r="C48" s="36" t="s">
+    <row r="48" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B48" s="36"/>
+      <c r="C48" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -2268,17 +2343,17 @@
         <v>9</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="39"/>
-      <c r="C49" s="36"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="36"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
@@ -2288,14 +2363,14 @@
         <v>8</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="40"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="37"/>
       <c r="C50" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -2304,11 +2379,11 @@
       <c r="H50" s="6"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B51" s="33" t="s">
+    <row r="51" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="38" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="25"/>
@@ -2325,10 +2400,10 @@
         <v>39</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="5"/>
@@ -2346,7 +2421,7 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="5" t="s">
@@ -2366,7 +2441,7 @@
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9" ht="139.19999999999999">
+    <row r="54" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B54" s="32"/>
       <c r="C54" s="32" t="s">
         <v>4</v>
@@ -2385,10 +2460,10 @@
         <v>41</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
       <c r="D55" s="5" t="s">
@@ -2406,7 +2481,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9" ht="52.2">
+    <row r="56" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B56" s="32"/>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -2425,16 +2500,16 @@
         <v>44</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="41" t="s">
-        <v>100</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2442,11 +2517,11 @@
       <c r="H57" s="6"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="42"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="30"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2454,27 +2529,27 @@
       <c r="H58" s="6"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="2:9" ht="52.2">
-      <c r="B59" s="42"/>
+    <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B59" s="30"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="42"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="30"/>
       <c r="C60" s="5"/>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2482,24 +2557,24 @@
       <c r="H60" s="6"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="2:9" ht="34.799999999999997">
-      <c r="B61" s="42"/>
+    <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B61" s="30"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
       <c r="I61" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="5"/>
@@ -2515,11 +2590,11 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="35"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="33"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="18" t="s">
@@ -2538,12 +2613,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="35"/>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="33"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>9</v>
@@ -2552,98 +2627,98 @@
         <v>8</v>
       </c>
       <c r="H64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="35"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="33"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="35"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B66" s="33"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="13" t="s">
-        <v>92</v>
+      <c r="E66" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="33"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="18" t="s">
-        <v>48</v>
+      <c r="E67" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="35" t="s">
-        <v>36</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="33"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="35"/>
+      <c r="H68" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="18" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>8</v>
@@ -2652,19 +2727,44 @@
         <v>14</v>
       </c>
       <c r="H69" s="6"/>
-      <c r="I69" s="20" t="s">
-        <v>56</v>
+      <c r="I69" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B70" s="33"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B62:B68"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="B13:B23"/>
@@ -2679,18 +2779,11 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2701,56 +2794,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B05674A-9CEC-45EA-B682-DB182F096B77}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBFAED-2453-4A35-B1FC-97F19A5BD83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A0DCD-52E6-479E-97F9-3B6DFE9159E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>커뮤니티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,47 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID 저장 기능
-로그인 정보 세션 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>log4j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -903,6 +858,75 @@
       </rPr>
       <t>엑셀 다운로드</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID 저장 기능
+로그인 정보 세션 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게스트 계정 생성 및 로그인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,55 +1224,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,8 +1608,8 @@
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1598,72 +1622,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
+      <c r="B2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B5" s="42"/>
+      <c r="C5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1671,145 +1695,145 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>19</v>
+      <c r="I5" s="19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="42"/>
+      <c r="C7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7" t="s">
-        <v>18</v>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="5" t="s">
-        <v>73</v>
+      <c r="B8" s="42"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
-        <v>65</v>
+      <c r="B10" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1817,17 +1841,17 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="I13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1835,177 +1859,147 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="11" t="s">
-        <v>112</v>
+      <c r="I14" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>20</v>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="36"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="D19" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>68</v>
+      <c r="B20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="5" t="s">
-        <v>69</v>
+      <c r="B21" s="36"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
-        <v>29</v>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="36"/>
+      <c r="C22" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="36"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="13" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>72</v>
-      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2016,10 +2010,14 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="B25" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="D25" s="13" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="5"/>
@@ -2028,10 +2026,10 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="5"/>
@@ -2040,10 +2038,8 @@
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32" t="s">
-        <v>74</v>
-      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2054,10 +2050,12 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="34" t="s">
+        <v>75</v>
+      </c>
       <c r="D28" s="13" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="5"/>
@@ -2066,10 +2064,10 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
@@ -2078,12 +2076,8 @@
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2094,10 +2088,12 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="34" t="s">
+        <v>76</v>
+      </c>
       <c r="D31" s="13" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="5"/>
@@ -2106,10 +2102,10 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="5"/>
@@ -2118,10 +2114,8 @@
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2132,10 +2126,14 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
+      <c r="B34" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="D34" s="13" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="5"/>
@@ -2144,10 +2142,10 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="5"/>
@@ -2156,10 +2154,8 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2170,10 +2166,12 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="D37" s="13" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="5"/>
@@ -2182,10 +2180,10 @@
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="5"/>
@@ -2194,12 +2192,8 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2210,180 +2204,210 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="D40" s="13" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
+      <c r="I40" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B41" s="36"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="14"/>
+      <c r="I41" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="13"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="14"/>
+      <c r="F42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="13" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E43" s="13"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="14"/>
+      <c r="F43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="D44" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44" s="13"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="14"/>
+      <c r="F44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="36"/>
-      <c r="C46" s="44" t="s">
-        <v>25</v>
-      </c>
+      <c r="C46" s="34"/>
       <c r="D46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="19" t="s">
-        <v>116</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="36"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="10"/>
+      <c r="C47" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="13"/>
       <c r="F47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="36"/>
-      <c r="C48" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="10"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="13"/>
       <c r="F48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B49" s="36"/>
-      <c r="C49" s="34"/>
+      <c r="C49" s="34" t="s">
+        <v>28</v>
+      </c>
       <c r="D49" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="E49" s="10"/>
       <c r="F49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
-      <c r="C50" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B50" s="36"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="12"/>
+      <c r="I50" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="51" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="25"/>
@@ -2397,15 +2421,15 @@
         <v>14</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
         <v>7</v>
@@ -2417,13 +2441,13 @@
         <v>8</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2437,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B54" s="32"/>
-      <c r="C54" s="32" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -2457,15 +2481,15 @@
         <v>14</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="5" t="s">
         <v>10</v>
       </c>
@@ -2477,12 +2501,12 @@
         <v>8</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B56" s="32"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="5" t="s">
         <v>12</v>
       </c>
@@ -2497,19 +2521,19 @@
         <v>8</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="29" t="s">
-        <v>98</v>
+      <c r="B57" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2518,10 +2542,10 @@
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="30"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2530,26 +2554,26 @@
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="30"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="30"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="5"/>
       <c r="D60" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2558,29 +2582,29 @@
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B61" s="30"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
       <c r="I61" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="33" t="s">
-        <v>27</v>
+      <c r="B62" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>9</v>
@@ -2590,35 +2614,35 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="33"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="I63" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="33"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>9</v>
@@ -2627,18 +2651,18 @@
         <v>8</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="33"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>14</v>
@@ -2647,18 +2671,18 @@
         <v>14</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="33"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>14</v>
@@ -2668,15 +2692,15 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B67" s="33"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>14</v>
@@ -2685,18 +2709,18 @@
         <v>8</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I67" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="33"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>14</v>
@@ -2705,20 +2729,20 @@
         <v>14</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="33" t="s">
-        <v>36</v>
+      <c r="B69" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>8</v>
@@ -2728,15 +2752,15 @@
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="33"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>8</v>
@@ -2746,44 +2770,44 @@
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2808,50 +2832,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
-        <v>110</v>
+      <c r="A3" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069A0DCD-52E6-479E-97F9-3B6DFE9159E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8CC6EA-FB6C-410E-B70E-D61B8D521F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
   </si>
   <si>
     <t>사용자가 본인의 정보를 조회 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 권한 검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,11 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴명 표시
-메뉴 접근 경로 표시(ex. Hello Papang &gt; 회원가입)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지 이동(맨 위로, 맨 아래로, 자동 스크롤)
 페이지 툴팁(켜기/끄기) -&gt; 화면 구성요소에 마우스 올리면 툴팁 표시
 페이지 개요 보이기 -&gt; 페이지 작성 의도 및 사용 방법 등을 표시</t>
@@ -927,6 +918,59 @@
   </si>
   <si>
     <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한그룹 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션을 통한 메뉴 이동할 때 로그인이 필요할 경우 로그인 모달 띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 권한 검증(조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 권한 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 발생하는 요청에 대해 필요한 권한 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 발생할 때 커스텀된 오류 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명 표시
+메뉴 접근 경로 표시(ex. Hello Papang &gt; 회원 &gt; 회원가입 - 회원 관련 메뉴입니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서버에 발생하는 요청에 대해 필요한 권한 검증
+- String url, String[] 권한코드배열, inData 인수로 받아서 세션에 있는 사용자 권한과 필요 권한을 비교하는 메서드를 통해 권한 검증
+- 특수권한(03 이상)은 권한 범위가 큰 권함그룹에게 큰 수의 특수권한을 준다
+ex) 권한 05, 04, 03이 쓰기 권한을 가지는 페이지에서 05권한이 가장 범위에 쓰기 가능
+- 권한코드배열에 [02, 05]와 같이 입력하여 권한 검증(사용자 권한 조회 시 가장 높은 권한을 조회하기 때문에) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +978,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1093,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1191,9 +1243,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,44 +1291,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1605,11 +1679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I70"/>
+  <dimension ref="B2:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1622,66 +1696,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="B2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1695,15 +1769,15 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="19" t="s">
-        <v>114</v>
+      <c r="I5" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="42"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="5" t="s">
@@ -1713,11 +1787,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="42"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1731,17 +1805,17 @@
         <v>9</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="42"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -1751,14 +1825,14 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="43"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1768,67 +1842,49 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="39"/>
+      <c r="C11" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="40"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="36"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="36"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="36"/>
-      <c r="C13" s="34" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
@@ -1846,10 +1902,10 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -1864,8 +1920,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="36"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1882,9 +1938,9 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="36"/>
-      <c r="C16" s="34" t="s">
-        <v>63</v>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
@@ -1894,30 +1950,34 @@
         <v>8</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="36"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="36"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1926,55 +1986,69 @@
         <v>8</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="34"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="36"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="36"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="36"/>
-      <c r="C22" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -1986,10 +2060,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="36"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="5"/>
@@ -1998,8 +2072,8 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="36"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2010,11 +2084,9 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>74</v>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>15</v>
@@ -2026,10 +2098,10 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="36"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="5"/>
@@ -2038,8 +2110,8 @@
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="36"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2050,9 +2122,11 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="36"/>
-      <c r="C28" s="34" t="s">
-        <v>75</v>
+      <c r="B28" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>15</v>
@@ -2064,10 +2138,10 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="36"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
@@ -2076,8 +2150,8 @@
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="36"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2088,9 +2162,9 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="36"/>
-      <c r="C31" s="34" t="s">
-        <v>76</v>
+      <c r="B31" s="34"/>
+      <c r="C31" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>15</v>
@@ -2102,10 +2176,10 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="36"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="5"/>
@@ -2114,8 +2188,8 @@
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="36"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2126,11 +2200,9 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>78</v>
+      <c r="B34" s="34"/>
+      <c r="C34" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>15</v>
@@ -2142,10 +2214,10 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="36"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="5"/>
@@ -2154,8 +2226,8 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="36"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2166,9 +2238,11 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="36"/>
-      <c r="C37" s="34" t="s">
-        <v>79</v>
+      <c r="B37" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>15</v>
@@ -2180,10 +2254,10 @@
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="36"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="5"/>
@@ -2192,8 +2266,8 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="36"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2204,296 +2278,274 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>20</v>
+      <c r="B40" s="34"/>
+      <c r="C40" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B41" s="36"/>
-      <c r="C41" s="34"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="34"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="36"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="13" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="36"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="36"/>
-      <c r="C44" s="34" t="s">
-        <v>65</v>
-      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B44" s="34"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="13" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="36"/>
-      <c r="C45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="13" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E45" s="13"/>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="I45" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="36"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E46" s="13"/>
-      <c r="F46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>8</v>
+      <c r="F46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="I46" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="36"/>
-      <c r="C47" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>66</v>
+      <c r="B47" s="34"/>
+      <c r="C47" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="36"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="5" t="s">
-        <v>67</v>
+      <c r="B48" s="34"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="I48" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B49" s="36"/>
-      <c r="C49" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="34"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="E49" s="13"/>
       <c r="F49" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B50" s="36"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="13" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="34"/>
+      <c r="C50" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="34"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C52" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="13"/>
       <c r="F53" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>45</v>
+      <c r="H54" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F55" s="5" t="s">
         <v>9</v>
       </c>
@@ -2501,308 +2553,419 @@
         <v>8</v>
       </c>
       <c r="H55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B56" s="34"/>
-      <c r="C56" s="5" t="s">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B59" s="33"/>
+      <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="6" t="s">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="45"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="45"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="7" t="s">
-        <v>105</v>
+      <c r="I59" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="45"/>
+      <c r="B60" s="41" t="s">
+        <v>95</v>
+      </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="44"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B61" s="45"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="37" t="s">
-        <v>26</v>
-      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B62" s="44"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="D62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="12" t="s">
-        <v>44</v>
+      <c r="I62" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="37"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="37"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="13" t="s">
-        <v>48</v>
+      <c r="D63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B64" s="44"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="30" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="37"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="B65" s="44"/>
+      <c r="C65" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>86</v>
+        <v>8</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="37"/>
+      <c r="B66" s="43" t="s">
+        <v>26</v>
+      </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="10" t="s">
-        <v>112</v>
+      <c r="E66" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H66" s="6"/>
-      <c r="I66" s="12" t="s">
-        <v>113</v>
+      <c r="I66" s="19" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B67" s="37"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="13" t="s">
-        <v>88</v>
+      <c r="E67" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="37"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="18" t="s">
-        <v>46</v>
+      <c r="E68" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="B69" s="43"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="18" t="s">
-        <v>36</v>
+      <c r="E69" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="17" t="s">
-        <v>37</v>
+      <c r="H69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="37"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="18" t="s">
-        <v>52</v>
+      <c r="E70" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="20" t="s">
-        <v>53</v>
+      <c r="I70" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B71" s="43"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B72" s="43"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="43"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B74" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B75" s="43"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B34:B39"/>
+  <mergeCells count="34">
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B22:B27"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
@@ -2810,6 +2973,11 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"상"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2832,50 +3000,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
-        <v>80</v>
+      <c r="A6" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8CC6EA-FB6C-410E-B70E-D61B8D521F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624DF8C-BBDB-4190-BFE1-2E3974C09902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -1279,6 +1279,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1286,66 +1325,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1661,7 +1647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1683,7 +1669,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1696,22 +1682,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="43" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1728,13 +1714,13 @@
       <c r="E3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1754,8 +1740,8 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1774,8 +1760,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="13" t="s">
         <v>81</v>
       </c>
@@ -1790,8 +1776,8 @@
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1812,8 +1798,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="13" t="s">
         <v>81</v>
       </c>
@@ -1830,7 +1816,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1842,7 +1828,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="5" t="s">
         <v>116</v>
       </c>
@@ -1854,8 +1840,8 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="35" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1868,8 +1854,8 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="40"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="13" t="s">
         <v>117</v>
       </c>
@@ -1880,10 +1866,10 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1902,8 +1888,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="5" t="s">
         <v>70</v>
       </c>
@@ -1920,8 +1906,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1938,8 +1924,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="34"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1958,8 +1944,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="34"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="5" t="s">
         <v>70</v>
       </c>
@@ -1976,8 +1962,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1994,8 +1980,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2012,8 +1998,8 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2028,8 +2014,8 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2044,10 +2030,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2060,8 +2046,8 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="13" t="s">
         <v>70</v>
       </c>
@@ -2072,8 +2058,8 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2084,8 +2070,8 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="34"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2098,8 +2084,8 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="13" t="s">
         <v>70</v>
       </c>
@@ -2110,8 +2096,8 @@
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2122,10 +2108,10 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2138,8 +2124,8 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="13" t="s">
         <v>70</v>
       </c>
@@ -2150,8 +2136,8 @@
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2162,8 +2148,8 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="34"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2176,8 +2162,8 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="13" t="s">
         <v>70</v>
       </c>
@@ -2188,8 +2174,8 @@
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2200,8 +2186,8 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="34"/>
-      <c r="C34" s="33" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2214,8 +2200,8 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="34"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="13" t="s">
         <v>70</v>
       </c>
@@ -2226,8 +2212,8 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="34"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2238,10 +2224,10 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="32" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -2254,8 +2240,8 @@
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="34"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="13" t="s">
         <v>70</v>
       </c>
@@ -2266,8 +2252,8 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="34"/>
-      <c r="C39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2278,8 +2264,8 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="34"/>
-      <c r="C40" s="33" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="32" t="s">
         <v>78</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -2292,8 +2278,8 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="34"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="13" t="s">
         <v>70</v>
       </c>
@@ -2304,8 +2290,8 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="34"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2316,10 +2302,10 @@
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2338,8 +2324,8 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="34"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="13" t="s">
         <v>70</v>
       </c>
@@ -2356,8 +2342,8 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="34"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2374,8 +2360,8 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="34"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2392,8 +2378,8 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="34"/>
-      <c r="C47" s="33" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -2410,8 +2396,8 @@
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="34"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="13" t="s">
         <v>70</v>
       </c>
@@ -2426,8 +2412,8 @@
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="34"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2442,8 +2428,8 @@
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="34"/>
-      <c r="C50" s="33" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2460,8 +2446,8 @@
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="34"/>
-      <c r="C51" s="33"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="5" t="s">
         <v>66</v>
       </c>
@@ -2478,8 +2464,8 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="34"/>
-      <c r="C52" s="33" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2498,8 +2484,8 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="34"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="13" t="s">
         <v>29</v>
       </c>
@@ -2516,10 +2502,10 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2540,8 +2526,8 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2558,8 +2544,8 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2578,8 +2564,8 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2600,8 +2586,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +2604,7 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="33"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2626,7 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="35" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="5"/>
@@ -2662,7 +2648,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="44"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>99</v>
@@ -2674,7 +2660,7 @@
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="44"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
         <v>100</v>
@@ -2690,7 +2676,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="44"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
         <v>98</v>
@@ -2702,12 +2688,12 @@
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="44"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="30" t="s">
         <v>101</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -2717,12 +2703,12 @@
         <v>14</v>
       </c>
       <c r="H64" s="6"/>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="44"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="27" t="s">
         <v>124</v>
       </c>
@@ -2740,12 +2726,12 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -2760,10 +2746,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B67" s="43"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="30" t="s">
         <v>33</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -2780,7 +2766,7 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="43"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="13" t="s">
@@ -2800,7 +2786,7 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="43"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="10" t="s">
@@ -2820,10 +2806,10 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="43"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="30" t="s">
         <v>110</v>
       </c>
       <c r="F70" s="5" t="s">
@@ -2833,12 +2819,12 @@
         <v>14</v>
       </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="12" t="s">
+      <c r="I70" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="43"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
@@ -2858,10 +2844,10 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B72" s="43"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="30" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -2878,7 +2864,7 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="43"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
@@ -2898,12 +2884,12 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="45" t="s">
+      <c r="E74" s="30" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -2918,10 +2904,10 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="43"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="30" t="s">
         <v>51</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -2937,13 +2923,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B66:B73"/>
     <mergeCell ref="C43:C46"/>
@@ -2955,22 +2950,13 @@
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624DF8C-BBDB-4190-BFE1-2E3974C09902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B45F5-C956-43FB-9F15-65851C01D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -1282,49 +1282,49 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1668,8 +1668,8 @@
   <dimension ref="B2:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1682,22 +1682,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1714,13 +1714,13 @@
       <c r="E3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1740,8 +1740,8 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1760,8 +1760,8 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="13" t="s">
         <v>81</v>
       </c>
@@ -1776,8 +1776,8 @@
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="13" t="s">
         <v>81</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="41"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
         <v>116</v>
       </c>
@@ -1840,8 +1840,8 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="42" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1854,8 +1854,8 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="42"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="13" t="s">
         <v>117</v>
       </c>
@@ -1866,10 +1866,10 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1888,8 +1888,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>70</v>
       </c>
@@ -1906,8 +1906,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1924,8 +1924,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1944,8 +1944,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>70</v>
       </c>
@@ -1962,8 +1962,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1980,8 +1980,8 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1998,8 +1998,8 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
@@ -2014,8 +2014,8 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2030,10 +2030,10 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2046,8 +2046,8 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="13" t="s">
         <v>70</v>
       </c>
@@ -2058,8 +2058,8 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2070,8 +2070,8 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2084,8 +2084,8 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="13" t="s">
         <v>70</v>
       </c>
@@ -2096,8 +2096,8 @@
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2108,10 +2108,10 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2124,8 +2124,8 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="13" t="s">
         <v>70</v>
       </c>
@@ -2136,8 +2136,8 @@
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2148,8 +2148,8 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="34" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2162,8 +2162,8 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="13" t="s">
         <v>70</v>
       </c>
@@ -2174,8 +2174,8 @@
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2186,8 +2186,8 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2200,8 +2200,8 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="13" t="s">
         <v>70</v>
       </c>
@@ -2212,8 +2212,8 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2224,10 +2224,10 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -2240,8 +2240,8 @@
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="13" t="s">
         <v>70</v>
       </c>
@@ -2252,8 +2252,8 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2264,8 +2264,8 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="34" t="s">
         <v>78</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -2278,8 +2278,8 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="13" t="s">
         <v>70</v>
       </c>
@@ -2290,8 +2290,8 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2302,10 +2302,10 @@
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2324,8 +2324,8 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="13" t="s">
         <v>70</v>
       </c>
@@ -2342,8 +2342,8 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2360,8 +2360,8 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2378,8 +2378,8 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="31"/>
-      <c r="C47" s="32" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="34" t="s">
         <v>64</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -2396,8 +2396,8 @@
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="13" t="s">
         <v>70</v>
       </c>
@@ -2412,8 +2412,8 @@
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2428,8 +2428,8 @@
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32" t="s">
+      <c r="B50" s="35"/>
+      <c r="C50" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2446,8 +2446,8 @@
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="5" t="s">
         <v>66</v>
       </c>
@@ -2464,8 +2464,8 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="31"/>
-      <c r="C52" s="32" t="s">
+      <c r="B52" s="35"/>
+      <c r="C52" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2484,8 +2484,8 @@
       </c>
     </row>
     <row r="53" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="13" t="s">
         <v>29</v>
       </c>
@@ -2502,10 +2502,10 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2526,8 +2526,8 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2544,8 +2544,8 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2564,8 +2564,8 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B57" s="32"/>
-      <c r="C57" s="32" t="s">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2586,8 +2586,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="32"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2626,7 +2626,7 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="42" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="5"/>
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="36"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>99</v>
@@ -2660,7 +2660,7 @@
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="36"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
         <v>100</v>
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="36"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
         <v>98</v>
@@ -2688,7 +2688,7 @@
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="36"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
         <v>96</v>
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="36"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="27" t="s">
         <v>124</v>
       </c>
@@ -2721,12 +2721,12 @@
         <v>8</v>
       </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="5"/>
@@ -2746,7 +2746,7 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B67" s="33"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="30" t="s">
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="33"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="13" t="s">
@@ -2786,10 +2786,10 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="33"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F69" s="5" t="s">
@@ -2801,12 +2801,12 @@
       <c r="H69" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="I69" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="33"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="30" t="s">
@@ -2824,7 +2824,7 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="33"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
@@ -2844,7 +2844,7 @@
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B72" s="33"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="30" t="s">
@@ -2864,7 +2864,7 @@
       </c>
     </row>
     <row r="73" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="33"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
@@ -2884,7 +2884,7 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="5"/>
@@ -2904,7 +2904,7 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="33"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="30" t="s">
@@ -2923,11 +2923,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B22:B27"/>
@@ -2939,24 +2952,11 @@
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B45F5-C956-43FB-9F15-65851C01D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D8884D-B2DE-45C7-9E02-A92F544BF5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -234,17 +234,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>쿼리 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘솔 창에 실행 쿼리를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4j 설정을 통해 로그를 파일로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 파일로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 요청한 URL 내역을 DB에 저장하고 관리자가 조회할 수 있도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩패널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 연결할 때 로딩패널 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 글씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부통제시스템에서 배워 올 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크 관련 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 맵(모든 메뉴 및 관련 설명을 한 눈에 조회 및 각 메뉴로 이동 가능하도록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중고 장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 관리(등록, 수정)</t>
+  </si>
+  <si>
+    <t>기업 장터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이비시터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌봐주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌봐줄게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그에 대한 상세 내용 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 현황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현황 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PW 형식 검증(숫자, 영어, 특수문자를 포함하여 8글자 이상 50글자 이하)</t>
+      <t>예방 접종 정보 API</t>
     </r>
     <r>
       <rPr>
@@ -266,8 +415,116 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ID 형식 검증(영문과 숫자만으로 20글자 이하)
-서버에서 ID/PW 형식 재검증</t>
+      <t>엑셀 다운로드
+엑셀 업로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 사항 발생 시 exception을 통해 사용자에게 오류 메시지 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 정보 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대용량 정보 처리 시 속도 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.1_대메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.2_상세메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.3_화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.4_기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 사이드바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 사이드바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리모컨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 이동(맨 위로, 맨 아래로, 자동 스크롤)
+페이지 툴팁(켜기/끄기) -&gt; 화면 구성요소에 마우스 올리면 툴팁 표시
+페이지 개요 보이기 -&gt; 페이지 작성 의도 및 사용 방법 등을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속자 수 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연/월/일 별 접속자 수를 그래프 및 표로 조회하고 엑셀로 다운로드 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 글씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르게 구현 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에디터를 이용한 글 쓰기</t>
     </r>
     <r>
       <rPr>
@@ -279,6 +536,358 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>첨부파일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>패스워드 변경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+프로필 사진 관리
+주소입력 API</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 트렌잭션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 서비스 트렌잭션 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접속 IP 조회
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>접속 정보 DB 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 업로드 테스트(테스트)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청 정보 DB 저장(인터셉터)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url 요청 내역 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID 저장 기능
+로그인 정보 세션 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게스트 계정 생성 및 로그인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한그룹 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션을 통한 메뉴 이동할 때 로그인이 필요할 경우 로그인 모달 띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 권한 검증(조회)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 권한 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 발생하는 요청에 대해 필요한 권한 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 발생할 때 커스텀된 오류 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명 표시
+메뉴 접근 경로 표시(ex. Hello Papang &gt; 회원 &gt; 회원가입 - 회원 관련 메뉴입니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PW 형식 검증(숫자, 영어, 특수문자를 포함하여 8글자 이상 50글자 이하)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID 형식 검증(영문과 숫자만으로 20글자 이하)
+서버에서 ID/PW 형식 재검증
 </t>
     </r>
     <r>
@@ -343,634 +952,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿼리 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콘솔 창에 실행 쿼리를 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log4j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log4j 설정을 통해 로그를 파일로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 파일로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 요청한 URL 내역을 DB에 저장하고 관리자가 조회할 수 있도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로딩패널</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 연결할 때 로딩패널 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 글씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내부통제시스템에서 배워 올 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취소선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레임워크 관련 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주 묻는 질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 맵(모든 메뉴 및 관련 설명을 한 눈에 조회 및 각 메뉴로 이동 가능하도록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중고 장터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 관리(등록, 수정)</t>
-  </si>
-  <si>
-    <t>기업 장터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관광</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이비시터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌봐주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌봐줄게요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그에 대한 상세 내용 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현황 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>log4j2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>예방 접종 정보 API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>서버에 발생하는 요청에 대해 필요한 권한 검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드
-엑셀 업로드</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외 사항 발생 시 exception을 통해 사용자에게 오류 메시지 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대용량 정보 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대용량 정보 처리 시 속도 향상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.1_대메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.2_상세메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.3_화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.4_기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네비게이션 메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌측 사이드바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 사이드바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴명 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리모컨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 이동(맨 위로, 맨 아래로, 자동 스크롤)
-페이지 툴팁(켜기/끄기) -&gt; 화면 구성요소에 마우스 올리면 툴팁 표시
-페이지 개요 보이기 -&gt; 페이지 작성 의도 및 사용 방법 등을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속자 수 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연/월/일 별 접속자 수를 그래프 및 표로 조회하고 엑셀로 다운로드 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란 글씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠르게 구현 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에디터를 이용한 글 쓰기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>첨부파일</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>패스워드 변경</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-프로필 사진 관리
-주소입력 API</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 트렌잭션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 서비스 트렌잭션 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">접속 IP 조회
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>접속 정보 DB 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 업로드 테스트(테스트)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청 정보 DB 저장(인터셉터)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>url 요청 내역 조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID 저장 기능
-로그인 정보 세션 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그인 후 특정시간 동작 없을 경우 자동 로그아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>게스트 계정 생성 및 로그인</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한그룹 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네비게이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네비게이션을 통한 메뉴 이동할 때 로그인이 필요할 경우 로그인 모달 띄우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 권한 검증(조회)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청 권한 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버에 발생하는 요청에 대해 필요한 권한 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 발생할 때 커스텀된 오류 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴명 표시
-메뉴 접근 경로 표시(ex. Hello Papang &gt; 회원 &gt; 회원가입 - 회원 관련 메뉴입니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">서버에 발생하는 요청에 대해 필요한 권한 검증
 - String url, String[] 권한코드배열, inData 인수로 받아서 세션에 있는 사용자 권한과 필요 권한을 비교하는 메서드를 통해 권한 검증
 - 특수권한(03 이상)은 권한 범위가 큰 권함그룹에게 큰 수의 특수권한을 준다
 ex) 권한 05, 04, 03이 쓰기 권한을 가지는 페이지에서 05권한이 가장 범위에 쓰기 가능
 - 권한코드배열에 [02, 05]와 같이 입력하여 권한 검증(사용자 권한 조회 시 가장 높은 권한을 조회하기 때문에) </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,7 +1198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,12 +1286,45 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,41 +1334,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,8 +1681,8 @@
   <dimension ref="B2:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1682,60 +1695,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="B2" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I4" s="14"/>
     </row>
@@ -1756,14 +1769,14 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="40"/>
       <c r="C6" s="38"/>
       <c r="D6" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="5" t="s">
@@ -1791,17 +1804,17 @@
         <v>9</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="40"/>
       <c r="C8" s="36"/>
       <c r="D8" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -1811,14 +1824,14 @@
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="40"/>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1830,7 +1843,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -1841,11 +1854,11 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="40"/>
-      <c r="C11" s="42" t="s">
-        <v>118</v>
+      <c r="C11" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="5"/>
@@ -1855,9 +1868,9 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="5"/>
@@ -1866,10 +1879,10 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1888,10 +1901,10 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="35"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -1906,8 +1919,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="35"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1924,8 +1937,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="35"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1944,10 +1957,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="35"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -1962,8 +1975,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="35"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1980,9 +1993,9 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="35"/>
-      <c r="C19" s="34" t="s">
-        <v>62</v>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>15</v>
@@ -1998,10 +2011,10 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="35"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -2014,8 +2027,8 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="35"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2030,11 +2043,11 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>69</v>
+      <c r="B22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -2046,10 +2059,10 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="35"/>
-      <c r="C23" s="34"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="5"/>
@@ -2058,8 +2071,8 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="35"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2070,9 +2083,9 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="35"/>
-      <c r="C25" s="34" t="s">
-        <v>71</v>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>15</v>
@@ -2084,10 +2097,10 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="35"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="5"/>
@@ -2096,8 +2109,8 @@
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="35"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2108,11 +2121,11 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>73</v>
+      <c r="B28" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>15</v>
@@ -2124,10 +2137,10 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="35"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="5"/>
@@ -2136,8 +2149,8 @@
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="35"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2148,9 +2161,9 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="35"/>
-      <c r="C31" s="34" t="s">
-        <v>74</v>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>15</v>
@@ -2162,10 +2175,10 @@
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="35"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="5"/>
@@ -2174,8 +2187,8 @@
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="35"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2186,9 +2199,9 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="35"/>
-      <c r="C34" s="34" t="s">
-        <v>75</v>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>15</v>
@@ -2200,10 +2213,10 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="35"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="5"/>
@@ -2212,8 +2225,8 @@
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="35"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2224,11 +2237,11 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>77</v>
+      <c r="B37" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>15</v>
@@ -2240,10 +2253,10 @@
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="35"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="5"/>
@@ -2252,8 +2265,8 @@
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="35"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2264,9 +2277,9 @@
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="35"/>
-      <c r="C40" s="34" t="s">
-        <v>78</v>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>15</v>
@@ -2278,10 +2291,10 @@
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="35"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="5"/>
@@ -2290,8 +2303,8 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="35"/>
-      <c r="C42" s="34"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2302,10 +2315,10 @@
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="34" t="s">
+      <c r="B43" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2319,15 +2332,15 @@
         <v>9</v>
       </c>
       <c r="H43" s="6"/>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="35"/>
-      <c r="C44" s="34"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="5" t="s">
@@ -2338,12 +2351,12 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="35"/>
-      <c r="C45" s="34"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2360,8 +2373,8 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="35"/>
-      <c r="C46" s="34"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2378,9 +2391,9 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="35"/>
-      <c r="C47" s="34" t="s">
-        <v>64</v>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>15</v>
@@ -2396,10 +2409,10 @@
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="35"/>
-      <c r="C48" s="34"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="5" t="s">
@@ -2412,8 +2425,8 @@
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="35"/>
-      <c r="C49" s="34"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2428,12 +2441,12 @@
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="35"/>
-      <c r="C50" s="34" t="s">
-        <v>65</v>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="5" t="s">
@@ -2446,10 +2459,10 @@
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="35"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="5" t="s">
@@ -2460,12 +2473,12 @@
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="35"/>
-      <c r="C52" s="34" t="s">
+      <c r="B52" s="30"/>
+      <c r="C52" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2480,12 +2493,12 @@
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="35"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="13" t="s">
         <v>29</v>
       </c>
@@ -2502,10 +2515,10 @@
       </c>
     </row>
     <row r="54" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2522,12 +2535,12 @@
         <v>38</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2544,8 +2557,8 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2564,8 +2577,8 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2582,12 +2595,12 @@
         <v>40</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2604,7 +2617,7 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="34"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2622,19 +2635,19 @@
         <v>43</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="42" t="s">
-        <v>95</v>
+      <c r="B60" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>8</v>
@@ -2644,14 +2657,14 @@
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="45"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2660,26 +2673,26 @@
       <c r="I61" s="7"/>
     </row>
     <row r="62" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="45"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
       <c r="I62" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="45"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -2688,13 +2701,13 @@
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="45"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>9</v>
@@ -2704,13 +2717,13 @@
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="45"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="8"/>
@@ -2722,16 +2735,16 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="29" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="5" t="s">
@@ -2742,14 +2755,14 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B67" s="44"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F67" s="5" t="s">
@@ -2766,11 +2779,11 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="44"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="13" t="s">
-        <v>47</v>
+      <c r="E68" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>9</v>
@@ -2779,18 +2792,18 @@
         <v>8</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="I68" s="45" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="44"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="30" t="s">
-        <v>85</v>
+      <c r="E69" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>14</v>
@@ -2799,18 +2812,18 @@
         <v>14</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="44"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="30" t="s">
-        <v>110</v>
+      <c r="E70" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>14</v>
@@ -2820,15 +2833,15 @@
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="44"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>14</v>
@@ -2837,18 +2850,18 @@
         <v>8</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B72" s="44"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="30" t="s">
-        <v>45</v>
+      <c r="E72" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>14</v>
@@ -2857,18 +2870,18 @@
         <v>14</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="44"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>9</v>
@@ -2877,19 +2890,19 @@
         <v>14</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="30" t="s">
+      <c r="E74" s="29" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -2904,11 +2917,11 @@
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="44"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="30" t="s">
-        <v>51</v>
+      <c r="E75" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>8</v>
@@ -2918,18 +2931,27 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B66:B73"/>
     <mergeCell ref="C43:C46"/>
@@ -2941,22 +2963,13 @@
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
@@ -2986,50 +2999,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D8884D-B2DE-45C7-9E02-A92F544BF5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135306BD-3D26-40C4-B0CC-E011FF274611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -38,9 +38,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={268D8250-1342-44A7-BAAC-E75199A4C36C}</author>
+    <author>tc={01AF0AAE-C3D1-4CC5-9413-4DCC06AA3D66}</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -50,12 +51,20 @@
 하: 선택</t>
       </text>
     </comment>
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{01AF0AAE-C3D1-4CC5-9413-4DCC06AA3D66}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    테스트 단계에서 확인해야할 최소 동작 단위</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,44 +527,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에디터를 이용한 글 쓰기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>첨부파일</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -850,105 +821,6 @@
   <si>
     <t>메뉴명 표시
 메뉴 접근 경로 표시(ex. Hello Papang &gt; 회원 &gt; 회원가입 - 회원 관련 메뉴입니다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PW 형식 검증(숫자, 영어, 특수문자를 포함하여 8글자 이상 50글자 이하)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ID 형식 검증(영문과 숫자만으로 20글자 이하)
-서버에서 ID/PW 형식 재검증
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>패스워드 해시 값 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해시 패스워드 자동 생성 및 사용자에게 추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-주소입력 API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-이메일 인증
-휴대전화 인증</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -983,12 +855,165 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에디터를 이용한 글 쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>첨부파일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSS방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 입력되는 내용 중 XSS 발생 위험이 있는 태그 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSS 발생 위험이 있는 태그 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PW 형식 검증(숫자, 영어, 특수문자를 포함하여 8글자 이상 50글자 이하)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID 형식 검증(영문과 숫자만으로 20글자 이하)
+서버에서 ID/PW 형식 재검증
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>패스워드 해시 값 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해시 패스워드 자동 생성 및 사용자에게 추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+주소입력 API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이메일 인증
+휴대전화 인증</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.5_기능상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,6 +1136,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1132,7 +1172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1192,13 +1232,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,55 +1366,67 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,53 +1757,57 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G2" dT="2023-01-12T02:15:01.80" personId="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" id="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
+  <threadedComment ref="H2" dT="2023-01-12T02:15:01.80" personId="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" id="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
     <text>상: 필수 + 타기능 상호작용O
 중: 필수 + 타기능 상호작용X
 하: 선택</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2023-01-27T07:20:16.59" personId="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" id="{01AF0AAE-C3D1-4CC5-9413-4DCC06AA3D66}">
+    <text>테스트 단계에서 확인해야할 최소 동작 단위</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I75"/>
+  <dimension ref="B2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="5" width="16.69921875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="73.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.69921875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="I2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="J2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>87</v>
       </c>
@@ -1727,12 +1820,15 @@
       <c r="E3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
@@ -1745,14 +1841,15 @@
       <c r="E4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="2:10" ht="87" x14ac:dyDescent="0.4">
       <c r="B5" s="40"/>
       <c r="C5" s="37" t="s">
         <v>24</v>
@@ -1761,34 +1858,36 @@
         <v>15</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="40"/>
       <c r="C6" s="38"/>
       <c r="D6" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="H6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="40"/>
       <c r="C7" s="36" t="s">
         <v>25</v>
@@ -1797,827 +1896,879 @@
         <v>15</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="40"/>
       <c r="C8" s="36"/>
       <c r="D8" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="40"/>
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="40"/>
       <c r="C10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="40"/>
-      <c r="C11" s="34" t="s">
-        <v>116</v>
+      <c r="C11" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="41"/>
-      <c r="C12" s="33"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="35"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="35"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="35"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="35"/>
+      <c r="C19" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="35"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="35"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="30" t="s">
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="35"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="35"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="30"/>
-      <c r="C25" s="31" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="35"/>
+      <c r="C25" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="35"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="35"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="30" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="35"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="35"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="30"/>
-      <c r="C31" s="31" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="35"/>
+      <c r="C31" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="35"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="30"/>
-      <c r="C34" s="31" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="35"/>
+      <c r="C34" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="35"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="35"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="30" t="s">
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="35"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="35"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31" t="s">
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="35"/>
+      <c r="C40" s="34" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="35"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="35"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="13"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="30" t="s">
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="13"/>
-      <c r="F43" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F43" s="13"/>
       <c r="G43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="46" t="s">
+      <c r="I43" s="6"/>
+      <c r="J43" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
+    <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B44" s="35"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E44" s="13"/>
-      <c r="F44" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F44" s="13"/>
       <c r="G44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
+      <c r="H44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="F45" s="13"/>
       <c r="G45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="15"/>
+      <c r="J45" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="35"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="15"/>
+      <c r="J46" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="35"/>
+      <c r="C47" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="13"/>
-      <c r="F47" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F47" s="13"/>
       <c r="G47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="13"/>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="13"/>
+      <c r="G48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="13"/>
-      <c r="F49" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F49" s="13"/>
       <c r="G49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="15"/>
+      <c r="H49" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31" t="s">
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="35"/>
+      <c r="C50" s="34" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E50" s="13"/>
-      <c r="F50" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F50" s="13"/>
       <c r="G50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="35"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="13"/>
-      <c r="F51" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F51" s="13"/>
       <c r="G51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="30"/>
-      <c r="C52" s="31" t="s">
+    <row r="52" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B52" s="35"/>
+      <c r="C52" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F52" s="10"/>
       <c r="G52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
+    <row r="53" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B53" s="35"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E53" s="13"/>
-      <c r="F53" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F53" s="13"/>
       <c r="G53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="14" t="s">
+      <c r="H53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="33" t="s">
+    <row r="54" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="F54" s="24"/>
       <c r="G54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="I54" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I54" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
+      <c r="J54" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B57" s="31"/>
-      <c r="C57" s="31" t="s">
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F57" s="16"/>
       <c r="G57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
+      <c r="J57" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="31"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B59" s="34"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2625,21 +2776,22 @@
         <v>13</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="34" t="s">
+      <c r="J59" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C60" s="5"/>
@@ -2647,21 +2799,22 @@
         <v>95</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="35"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B61" s="45"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>97</v>
@@ -2669,11 +2822,12 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="35"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B62" s="45"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
         <v>98</v>
@@ -2683,13 +2837,14 @@
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="7" t="s">
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="35"/>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B63" s="45"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
         <v>96</v>
@@ -2697,11 +2852,12 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="35"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B64" s="45"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
         <v>94</v>
@@ -2709,37 +2865,39 @@
       <c r="E64" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="29"/>
+      <c r="G64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="35"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="45"/>
       <c r="C65" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F65" s="8"/>
       <c r="G65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="32" t="s">
+      <c r="H65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="44" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="5"/>
@@ -2747,200 +2905,244 @@
       <c r="E66" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="29"/>
+      <c r="G66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B67" s="32"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B67" s="44"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F67" s="29"/>
       <c r="G67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="J67" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="32"/>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B68" s="44"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="29"/>
+      <c r="G68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I68" s="45" t="s">
+      <c r="J68" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="32"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B69" s="44"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F69" s="29"/>
       <c r="G69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I69" s="19" t="s">
+      <c r="J69" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="32"/>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B70" s="44"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F70" s="29"/>
       <c r="G70" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="32"/>
+      <c r="H70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B71" s="44"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="13"/>
+      <c r="G71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="J71" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B72" s="32"/>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B72" s="44"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F72" s="29"/>
       <c r="G72" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="J72" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="32"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B73" s="44"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F73" s="13"/>
       <c r="G73" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I73" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="32" t="s">
-        <v>35</v>
-      </c>
+      <c r="H73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J73" s="46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="44"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E74" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="13"/>
       <c r="G74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="32"/>
+      <c r="I74" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B75" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="29"/>
+      <c r="G75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B76" s="44"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="F76" s="29"/>
+      <c r="G76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="19" t="s">
+      <c r="I76" s="6"/>
+      <c r="J76" s="19" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B22:B27"/>
@@ -2952,27 +3154,14 @@
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135306BD-3D26-40C4-B0CC-E011FF274611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEA7C15-B392-49E0-B7F6-2F587932DF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>활동 로그 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,158 +551,6 @@
   </si>
   <si>
     <t>모든 서비스 트렌잭션 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">접속 IP 조회
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>접속 정보 DB 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 업로드 테스트(테스트)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그리드를 이용한 목록 조회(페이지 네이션, 필터)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요청 정보 DB 저장(인터셉터)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>url 요청 내역 조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1008,12 +852,204 @@
     <t>Lv.5_기능상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접속 IP 조회
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>접속 정보 DB 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 업로드 테스트(테스트)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그리드를 이용한 목록 조회(페이지 네이션)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 로그 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">요청 정보 DB 저장(인터셉터)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url 요청 내역 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,12 +1181,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1369,65 +1399,65 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1774,7 +1804,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1787,71 +1817,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="31" t="s">
+      <c r="B2" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+        <v>128</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="B5" s="40"/>
-      <c r="C5" s="37" t="s">
+    <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B5" s="43"/>
+      <c r="C5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1867,14 +1897,14 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="18" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1887,10 +1917,10 @@
       <c r="I6" s="6"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B7" s="40"/>
-      <c r="C7" s="36" t="s">
-        <v>25</v>
+    <row r="7" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B7" s="43"/>
+      <c r="C7" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>15</v>
@@ -1904,17 +1934,17 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="40"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1925,14 +1955,14 @@
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1943,9 +1973,9 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -1956,12 +1986,12 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="40"/>
-      <c r="C11" s="42" t="s">
-        <v>115</v>
+      <c r="B11" s="43"/>
+      <c r="C11" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1971,10 +2001,10 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1984,11 +2014,11 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="35" t="s">
-        <v>112</v>
+      <c r="B13" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
@@ -2007,10 +2037,10 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="35"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2026,7 +2056,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="35"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
@@ -2045,9 +2075,9 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>15</v>
@@ -2066,10 +2096,10 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="35"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2085,7 +2115,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="35"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
@@ -2104,9 +2134,9 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="35"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>15</v>
@@ -2123,10 +2153,10 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="35"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2140,7 +2170,7 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="35"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="34"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
@@ -2157,11 +2187,11 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -2174,10 +2204,10 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="35"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="34"/>
       <c r="D23" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -2187,7 +2217,7 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="35"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="34"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
@@ -2200,9 +2230,9 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="35"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>15</v>
@@ -2215,10 +2245,10 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="35"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="34"/>
       <c r="D26" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -2228,7 +2258,7 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="35"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="34"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
@@ -2241,11 +2271,11 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>71</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>15</v>
@@ -2258,10 +2288,10 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="34"/>
       <c r="D29" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2271,7 +2301,7 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="35"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="34"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
@@ -2284,9 +2314,9 @@
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="35"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>15</v>
@@ -2299,10 +2329,10 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="35"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="34"/>
       <c r="D32" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2312,7 +2342,7 @@
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="35"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="34"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
@@ -2325,9 +2355,9 @@
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="35"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>15</v>
@@ -2340,10 +2370,10 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="35"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="34"/>
       <c r="D35" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -2353,7 +2383,7 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="35"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="34"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
@@ -2366,11 +2396,11 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>15</v>
@@ -2383,10 +2413,10 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="35"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="34"/>
       <c r="D38" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2396,7 +2426,7 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="35"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="34"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
@@ -2409,9 +2439,9 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="35"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>15</v>
@@ -2424,10 +2454,10 @@
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="35"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="34"/>
       <c r="D41" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -2437,7 +2467,7 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="35"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="34"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
@@ -2450,8 +2480,8 @@
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="35" t="s">
-        <v>61</v>
+      <c r="B43" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>20</v>
@@ -2473,10 +2503,10 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="35"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="34"/>
       <c r="D44" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -2488,11 +2518,11 @@
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="35"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="34"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
@@ -2511,7 +2541,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="35"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="34"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
@@ -2530,9 +2560,9 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="35"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>15</v>
@@ -2549,10 +2579,10 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="35"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="34"/>
       <c r="D48" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -2566,7 +2596,7 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="35"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="34"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
@@ -2583,12 +2613,12 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="35"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -2602,10 +2632,10 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="35"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="34"/>
       <c r="D51" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -2617,13 +2647,13 @@
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="35"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>15</v>
@@ -2638,14 +2668,14 @@
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="35"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="34"/>
       <c r="D53" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2679,10 +2709,10 @@
         <v>14</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
@@ -2700,7 +2730,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J55" s="6"/>
     </row>
@@ -2721,7 +2751,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56" s="6"/>
     </row>
@@ -2742,10 +2772,10 @@
         <v>14</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.4">
@@ -2763,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J58" s="6"/>
     </row>
@@ -2784,22 +2814,22 @@
         <v>8</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="42" t="s">
-        <v>93</v>
+      <c r="B60" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
@@ -2809,15 +2839,15 @@
         <v>8</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="50" t="s">
-        <v>117</v>
+      <c r="J60" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="45"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2827,27 +2857,27 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="45"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
       <c r="J62" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="45"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -2857,13 +2887,13 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="45"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="5" t="s">
@@ -2874,13 +2904,13 @@
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="45"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="8"/>
@@ -2893,17 +2923,17 @@
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="44" t="s">
-        <v>26</v>
+      <c r="B66" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="5" t="s">
@@ -2914,15 +2944,15 @@
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="44"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="5" t="s">
@@ -2932,18 +2962,18 @@
         <v>8</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="44"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="5" t="s">
@@ -2953,18 +2983,18 @@
         <v>8</v>
       </c>
       <c r="I68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J68" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J68" s="30" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="44"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="5" t="s">
@@ -2974,18 +3004,18 @@
         <v>14</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="44"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="5" t="s">
@@ -2996,15 +3026,15 @@
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="44"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="5" t="s">
@@ -3014,18 +3044,18 @@
         <v>8</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="44"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="5" t="s">
@@ -3035,18 +3065,18 @@
         <v>14</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B73" s="44"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="5" t="s">
@@ -3056,18 +3086,18 @@
         <v>14</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J73" s="46" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="44"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="5" t="s">
@@ -3077,20 +3107,20 @@
         <v>14</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="44" t="s">
-        <v>35</v>
+      <c r="B75" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="5" t="s">
@@ -3101,15 +3131,15 @@
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="44"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="5" t="s">
@@ -3120,18 +3150,27 @@
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B66:B74"/>
     <mergeCell ref="C43:C46"/>
@@ -3143,22 +3182,13 @@
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
@@ -3188,50 +3218,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEA7C15-B392-49E0-B7F6-2F587932DF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA624C-588E-42B1-917C-60710D14C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -1034,6 +1034,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -1049,7 +1050,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,7 +1306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,65 +1400,62 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,12 +1800,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
   <dimension ref="B2:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="6" width="16.69921875" style="1" customWidth="1"/>
@@ -1816,28 +1816,28 @@
     <col min="10" max="10" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="45" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" s="2" customFormat="1">
       <c r="B3" s="4" t="s">
         <v>86</v>
       </c>
@@ -1853,12 +1853,12 @@
       <c r="F3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G3" s="32"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="104.4">
       <c r="B5" s="43"/>
       <c r="C5" s="40" t="s">
         <v>24</v>
@@ -1900,7 +1900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10">
       <c r="B6" s="43"/>
       <c r="C6" s="41"/>
       <c r="D6" s="13" t="s">
@@ -1917,9 +1917,9 @@
       <c r="I6" s="6"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="69.599999999999994">
       <c r="B7" s="43"/>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="41" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1940,9 +1940,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10">
       <c r="B8" s="43"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="13" t="s">
         <v>78</v>
       </c>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10">
       <c r="B9" s="43"/>
       <c r="C9" s="5" t="s">
         <v>58</v>
@@ -1972,7 +1972,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10">
       <c r="B10" s="43"/>
       <c r="C10" s="5" t="s">
         <v>110</v>
@@ -1985,9 +1985,9 @@
       <c r="I10" s="6"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10">
       <c r="B11" s="43"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="45" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2000,9 +2000,9 @@
       <c r="I11" s="6"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10">
       <c r="B12" s="44"/>
-      <c r="C12" s="36"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="13" t="s">
         <v>111</v>
       </c>
@@ -2013,11 +2013,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:10">
+      <c r="B13" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2036,9 +2036,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+    <row r="14" spans="2:10">
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2055,9 +2055,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+    <row r="15" spans="2:10">
+      <c r="B15" s="39"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2074,9 +2074,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+    <row r="16" spans="2:10">
+      <c r="B16" s="39"/>
+      <c r="C16" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2095,9 +2095,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="39"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
@@ -2114,9 +2114,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="2:10">
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2133,9 +2133,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
+    <row r="19" spans="2:10">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2152,9 +2152,9 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="2:10">
+      <c r="B20" s="39"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="5" t="s">
         <v>67</v>
       </c>
@@ -2169,9 +2169,9 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="2:10">
+      <c r="B21" s="39"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2186,11 +2186,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:10">
+      <c r="B22" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2203,9 +2203,9 @@
       <c r="I22" s="6"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="2:10">
+      <c r="B23" s="39"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="13" t="s">
         <v>67</v>
       </c>
@@ -2216,9 +2216,9 @@
       <c r="I23" s="6"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="2:10">
+      <c r="B24" s="39"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2229,9 +2229,9 @@
       <c r="I24" s="6"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2244,9 +2244,9 @@
       <c r="I25" s="6"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="2:10">
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="13" t="s">
         <v>67</v>
       </c>
@@ -2257,9 +2257,9 @@
       <c r="I26" s="6"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="2:10">
+      <c r="B27" s="39"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2270,11 +2270,11 @@
       <c r="I27" s="6"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2287,9 +2287,9 @@
       <c r="I28" s="6"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="2:10">
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="13" t="s">
         <v>67</v>
       </c>
@@ -2300,9 +2300,9 @@
       <c r="I29" s="6"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="2:10">
+      <c r="B30" s="39"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2313,9 +2313,9 @@
       <c r="I30" s="6"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="33"/>
-      <c r="C31" s="34" t="s">
+    <row r="31" spans="2:10">
+      <c r="B31" s="39"/>
+      <c r="C31" s="38" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2328,9 +2328,9 @@
       <c r="I31" s="6"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+    <row r="32" spans="2:10">
+      <c r="B32" s="39"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="13" t="s">
         <v>67</v>
       </c>
@@ -2341,9 +2341,9 @@
       <c r="I32" s="6"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
+    <row r="33" spans="2:10">
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2354,9 +2354,9 @@
       <c r="I33" s="6"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34" t="s">
+    <row r="34" spans="2:10">
+      <c r="B34" s="39"/>
+      <c r="C34" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2369,9 +2369,9 @@
       <c r="I34" s="6"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
+    <row r="35" spans="2:10">
+      <c r="B35" s="39"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="13" t="s">
         <v>67</v>
       </c>
@@ -2382,9 +2382,9 @@
       <c r="I35" s="6"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
+    <row r="36" spans="2:10">
+      <c r="B36" s="39"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2395,11 +2395,11 @@
       <c r="I36" s="6"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="33" t="s">
+    <row r="37" spans="2:10">
+      <c r="B37" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -2412,9 +2412,9 @@
       <c r="I37" s="6"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+    <row r="38" spans="2:10">
+      <c r="B38" s="39"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="13" t="s">
         <v>67</v>
       </c>
@@ -2425,9 +2425,9 @@
       <c r="I38" s="6"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+    <row r="39" spans="2:10">
+      <c r="B39" s="39"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2438,9 +2438,9 @@
       <c r="I39" s="6"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="33"/>
-      <c r="C40" s="34" t="s">
+    <row r="40" spans="2:10">
+      <c r="B40" s="39"/>
+      <c r="C40" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -2453,9 +2453,9 @@
       <c r="I40" s="6"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
+    <row r="41" spans="2:10">
+      <c r="B41" s="39"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="13" t="s">
         <v>67</v>
       </c>
@@ -2466,9 +2466,9 @@
       <c r="I41" s="6"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
+    <row r="42" spans="2:10">
+      <c r="B42" s="39"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2479,11 +2479,11 @@
       <c r="I42" s="6"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="33" t="s">
+    <row r="43" spans="2:10">
+      <c r="B43" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2502,9 +2502,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
+    <row r="44" spans="2:10" ht="34.799999999999997">
+      <c r="B44" s="39"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="13" t="s">
         <v>67</v>
       </c>
@@ -2521,9 +2521,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
+    <row r="45" spans="2:10">
+      <c r="B45" s="39"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2540,9 +2540,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
+    <row r="46" spans="2:10">
+      <c r="B46" s="39"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2559,9 +2559,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="33"/>
-      <c r="C47" s="34" t="s">
+    <row r="47" spans="2:10">
+      <c r="B47" s="39"/>
+      <c r="C47" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -2578,9 +2578,9 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+    <row r="48" spans="2:10">
+      <c r="B48" s="39"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="13" t="s">
         <v>67</v>
       </c>
@@ -2595,9 +2595,9 @@
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
+    <row r="49" spans="2:10">
+      <c r="B49" s="39"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2612,9 +2612,9 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34" t="s">
+    <row r="50" spans="2:10">
+      <c r="B50" s="39"/>
+      <c r="C50" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2631,9 +2631,9 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
+    <row r="51" spans="2:10">
+      <c r="B51" s="39"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="5" t="s">
         <v>63</v>
       </c>
@@ -2650,9 +2650,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34" t="s">
+    <row r="52" spans="2:10" ht="52.2">
+      <c r="B52" s="39"/>
+      <c r="C52" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2671,9 +2671,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
+    <row r="53" spans="2:10" ht="34.799999999999997">
+      <c r="B53" s="39"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="13" t="s">
         <v>28</v>
       </c>
@@ -2690,11 +2690,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="36" t="s">
+    <row r="54" spans="2:10" ht="70.2" customHeight="1">
+      <c r="B54" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="46" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2715,9 +2715,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+    <row r="55" spans="2:10">
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2734,9 +2734,9 @@
       </c>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+    <row r="56" spans="2:10">
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2755,9 +2755,9 @@
       </c>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34" t="s">
+    <row r="57" spans="2:10" ht="139.19999999999999">
+      <c r="B57" s="38"/>
+      <c r="C57" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2778,9 +2778,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
+    <row r="58" spans="2:10">
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2797,8 +2797,8 @@
       </c>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="34"/>
+    <row r="59" spans="2:10" ht="52.2">
+      <c r="B59" s="38"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2820,8 +2820,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="37" t="s">
+    <row r="60" spans="2:10">
+      <c r="B60" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="5"/>
@@ -2839,12 +2839,12 @@
         <v>8</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="32" t="s">
+      <c r="J60" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="38"/>
+    <row r="61" spans="2:10">
+      <c r="B61" s="48"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>96</v>
@@ -2856,8 +2856,8 @@
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="38"/>
+    <row r="62" spans="2:10" ht="52.2">
+      <c r="B62" s="48"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
         <v>97</v>
@@ -2873,8 +2873,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="38"/>
+    <row r="63" spans="2:10">
+      <c r="B63" s="48"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
         <v>95</v>
@@ -2886,8 +2886,8 @@
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="38"/>
+    <row r="64" spans="2:10" ht="34.799999999999997">
+      <c r="B64" s="48"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
         <v>93</v>
@@ -2907,8 +2907,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="38"/>
+    <row r="65" spans="2:10">
+      <c r="B65" s="48"/>
       <c r="C65" s="27" t="s">
         <v>118</v>
       </c>
@@ -2926,8 +2926,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="35" t="s">
+    <row r="66" spans="2:10">
+      <c r="B66" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="5"/>
@@ -2947,8 +2947,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="35"/>
+    <row r="67" spans="2:10">
+      <c r="B67" s="47"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29" t="s">
@@ -2968,8 +2968,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="35"/>
+    <row r="68" spans="2:10">
+      <c r="B68" s="47"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="29" t="s">
@@ -2989,8 +2989,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="35"/>
+    <row r="69" spans="2:10">
+      <c r="B69" s="47"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="29" t="s">
@@ -3010,8 +3010,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="35"/>
+    <row r="70" spans="2:10">
+      <c r="B70" s="47"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="29" t="s">
@@ -3029,8 +3029,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="35"/>
+    <row r="71" spans="2:10">
+      <c r="B71" s="47"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
@@ -3050,8 +3050,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="35"/>
+    <row r="72" spans="2:10">
+      <c r="B72" s="47"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="29" t="s">
@@ -3071,8 +3071,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B73" s="35"/>
+    <row r="73" spans="2:10">
+      <c r="B73" s="47"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
@@ -3088,12 +3088,12 @@
       <c r="I73" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J73" s="31" t="s">
+      <c r="J73" s="49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="35"/>
+    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1">
+      <c r="B74" s="47"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="13" t="s">
@@ -3113,8 +3113,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="35" t="s">
+    <row r="75" spans="2:10">
+      <c r="B75" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="5"/>
@@ -3134,8 +3134,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="35"/>
+    <row r="76" spans="2:10">
+      <c r="B76" s="47"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="29" t="s">
@@ -3155,11 +3155,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B22:B27"/>
@@ -3171,24 +3184,11 @@
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
@@ -3210,13 +3210,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="20" t="s">
         <v>52</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
         <v>103</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="21" t="s">
         <v>54</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="22" t="s">
         <v>56</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="23" t="s">
         <v>76</v>
       </c>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA624C-588E-42B1-917C-60710D14C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40804690-DDDD-4336-90B1-893C9BC5DA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -674,6 +674,353 @@
   <si>
     <r>
       <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에디터를 이용한 글 쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>첨부파일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSS방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 입력되는 내용 중 XSS 발생 위험이 있는 태그 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSS 발생 위험이 있는 태그 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PW 형식 검증(숫자, 영어, 특수문자를 포함하여 8글자 이상 50글자 이하)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID 형식 검증(영문과 숫자만으로 20글자 이하)
+서버에서 ID/PW 형식 재검증
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>패스워드 해시 값 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해시 패스워드 자동 생성 및 사용자에게 추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+주소입력 API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이메일 인증
+휴대전화 인증</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.5_기능상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접속 IP 조회
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>접속 정보 DB 저장</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 업로드 테스트(테스트)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그리드를 이용한 목록 조회(페이지 네이션)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 로그 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">요청 정보 DB 저장(인터셉터)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url 요청 내역 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="맑은 고딕"/>
@@ -699,358 +1046,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에디터를 이용한 글 쓰기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>첨부파일</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XSS방어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버에 입력되는 내용 중 XSS 발생 위험이 있는 태그 필터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XSS 발생 위험이 있는 태그 필터링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PW 형식 검증(숫자, 영어, 특수문자를 포함하여 8글자 이상 50글자 이하)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ID 형식 검증(영문과 숫자만으로 20글자 이하)
-서버에서 ID/PW 형식 재검증
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>패스워드 해시 값 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해시 패스워드 자동 생성 및 사용자에게 추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-주소입력 API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-이메일 인증
-휴대전화 인증</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.5_기능상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">접속 IP 조회
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>접속 정보 DB 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 업로드 테스트(테스트)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그리드를 이용한 목록 조회(페이지 네이션)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청 로그 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">요청 정보 DB 저장(인터셉터)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>url 요청 내역 조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,14 +1147,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1391,17 +1384,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,42 +1449,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,7 +1794,7 @@
   <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
@@ -1817,23 +1810,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="32" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="44" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1851,15 +1844,15 @@
         <v>89</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+        <v>127</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1880,7 +1873,7 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="104.4">
-      <c r="B5" s="43"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="40" t="s">
         <v>24</v>
       </c>
@@ -1897,12 +1890,12 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="13" t="s">
         <v>78</v>
       </c>
@@ -1918,9 +1911,9 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:10" ht="69.599999999999994">
-      <c r="B7" s="43"/>
-      <c r="C7" s="41" t="s">
-        <v>130</v>
+      <c r="B7" s="42"/>
+      <c r="C7" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>15</v>
@@ -1937,12 +1930,12 @@
         <v>47</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="43"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="13" t="s">
         <v>78</v>
       </c>
@@ -1960,7 +1953,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="43"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
@@ -1973,7 +1966,7 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="43"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="5" t="s">
         <v>110</v>
       </c>
@@ -1986,8 +1979,8 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="43"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2001,8 +1994,8 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="44"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="13" t="s">
         <v>111</v>
       </c>
@@ -2014,10 +2007,10 @@
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2037,8 +2030,8 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2056,8 +2049,8 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="39"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2075,8 +2068,8 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2096,8 +2089,8 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="39"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
@@ -2115,8 +2108,8 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="39"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2134,8 +2127,8 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="39"/>
-      <c r="C19" s="38" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2153,8 +2146,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="39"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
         <v>67</v>
       </c>
@@ -2170,8 +2163,8 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="39"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2187,10 +2180,10 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="34" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2204,8 +2197,8 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="39"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="13" t="s">
         <v>67</v>
       </c>
@@ -2217,8 +2210,8 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="39"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2230,8 +2223,8 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="39"/>
-      <c r="C25" s="38" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2245,8 +2238,8 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="39"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="13" t="s">
         <v>67</v>
       </c>
@@ -2258,8 +2251,8 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="39"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2271,10 +2264,10 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2288,8 +2281,8 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="39"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="13" t="s">
         <v>67</v>
       </c>
@@ -2301,8 +2294,8 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="39"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2314,8 +2307,8 @@
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="39"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2329,8 +2322,8 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="39"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="13" t="s">
         <v>67</v>
       </c>
@@ -2342,8 +2335,8 @@
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="39"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2355,8 +2348,8 @@
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="39"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2370,8 +2363,8 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="39"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="13" t="s">
         <v>67</v>
       </c>
@@ -2383,8 +2376,8 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="39"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2396,10 +2389,10 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="34" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -2413,8 +2406,8 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="39"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="13" t="s">
         <v>67</v>
       </c>
@@ -2426,8 +2419,8 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="39"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2439,8 +2432,8 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="39"/>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -2454,8 +2447,8 @@
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="39"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="13" t="s">
         <v>67</v>
       </c>
@@ -2467,8 +2460,8 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="39"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2480,10 +2473,10 @@
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2503,8 +2496,8 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="34.799999999999997">
-      <c r="B44" s="39"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="13" t="s">
         <v>67</v>
       </c>
@@ -2518,12 +2511,12 @@
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="39"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2541,8 +2534,8 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="39"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2560,8 +2553,8 @@
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="39"/>
-      <c r="C47" s="38" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -2579,8 +2572,8 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="39"/>
-      <c r="C48" s="38"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="13" t="s">
         <v>67</v>
       </c>
@@ -2596,8 +2589,8 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="39"/>
-      <c r="C49" s="38"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2613,8 +2606,8 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="39"/>
-      <c r="C50" s="38" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2632,8 +2625,8 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="39"/>
-      <c r="C51" s="38"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="5" t="s">
         <v>63</v>
       </c>
@@ -2651,8 +2644,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="52.2">
-      <c r="B52" s="39"/>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2672,8 +2665,8 @@
       </c>
     </row>
     <row r="53" spans="2:10" ht="34.799999999999997">
-      <c r="B53" s="39"/>
-      <c r="C53" s="38"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="13" t="s">
         <v>28</v>
       </c>
@@ -2691,10 +2684,10 @@
       </c>
     </row>
     <row r="54" spans="2:10" ht="70.2" customHeight="1">
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2716,8 +2709,8 @@
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2735,8 +2728,8 @@
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2756,8 +2749,8 @@
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10" ht="139.19999999999999">
-      <c r="B57" s="38"/>
-      <c r="C57" s="38" t="s">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2775,12 +2768,12 @@
         <v>39</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2798,7 +2791,7 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="2:10" ht="52.2">
-      <c r="B59" s="38"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2821,7 +2814,7 @@
       </c>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="37" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="5"/>
@@ -2844,7 +2837,7 @@
       </c>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="48"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>96</v>
@@ -2857,7 +2850,7 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="2:10" ht="52.2">
-      <c r="B62" s="48"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
         <v>97</v>
@@ -2874,7 +2867,7 @@
       </c>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="48"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
         <v>95</v>
@@ -2887,7 +2880,7 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="2:10" ht="34.799999999999997">
-      <c r="B64" s="48"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
         <v>93</v>
@@ -2908,7 +2901,7 @@
       </c>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="48"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="27" t="s">
         <v>118</v>
       </c>
@@ -2927,7 +2920,7 @@
       </c>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="5"/>
@@ -2948,7 +2941,7 @@
       </c>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="47"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29" t="s">
@@ -2969,7 +2962,7 @@
       </c>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="47"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="29" t="s">
@@ -2990,7 +2983,7 @@
       </c>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="47"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="29" t="s">
@@ -3011,7 +3004,7 @@
       </c>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="47"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="29" t="s">
@@ -3030,7 +3023,7 @@
       </c>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="47"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
@@ -3051,7 +3044,7 @@
       </c>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="47"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="29" t="s">
@@ -3072,11 +3065,11 @@
       </c>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="47"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="5" t="s">
@@ -3086,14 +3079,14 @@
         <v>14</v>
       </c>
       <c r="I73" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J73" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="J73" s="49" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1">
-      <c r="B74" s="47"/>
+      <c r="B74" s="35"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="13" t="s">
@@ -3110,11 +3103,11 @@
         <v>117</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="5"/>
@@ -3135,7 +3128,7 @@
       </c>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="47"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="29" t="s">
@@ -3155,13 +3148,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B66:B74"/>
     <mergeCell ref="C43:C46"/>
@@ -3173,22 +3175,13 @@
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40804690-DDDD-4336-90B1-893C9BC5DA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6E94D1-D2C8-46BA-B95E-A6EC136E4497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="134">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
   </si>
   <si>
     <t>로그 파일로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 요청한 URL 내역을 DB에 저장하고 관리자가 조회할 수 있도록 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1046,12 +1042,24 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>사용자가 요청한 URL 내역을 관리자가 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 접속 내역을 관리자가 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1399,62 +1407,76 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1770,7 +1792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1794,13 +1816,13 @@
   <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="6" width="16.69921875" style="1" customWidth="1"/>
@@ -1809,72 +1831,72 @@
     <col min="10" max="10" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="44" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1">
+    <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:10" ht="104.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40" t="s">
+    <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B5" s="44"/>
+      <c r="C5" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1888,16 +1910,18 @@
       <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="J5" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1910,10 +1934,10 @@
       <c r="I6" s="6"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="2:10" ht="69.599999999999994">
-      <c r="B7" s="42"/>
-      <c r="C7" s="39" t="s">
-        <v>129</v>
+    <row r="7" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B7" s="44"/>
+      <c r="C7" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>15</v>
@@ -1927,17 +1951,17 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="42"/>
-      <c r="C8" s="39"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="44"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1948,14 +1972,14 @@
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="42"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="44"/>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1965,10 +1989,10 @@
       <c r="I9" s="6"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="42"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="44"/>
       <c r="C10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -1978,13 +2002,13 @@
       <c r="I10" s="6"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="42"/>
-      <c r="C11" s="37" t="s">
-        <v>112</v>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="44"/>
+      <c r="C11" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1993,11 +2017,11 @@
       <c r="I11" s="6"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="43"/>
-      <c r="C12" s="36"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="45"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2006,11 +2030,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="34" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2029,11 +2053,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2048,9 +2072,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2067,9 +2091,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="40"/>
+      <c r="C16" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2088,11 +2112,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2107,9 +2131,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2126,10 +2150,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
-        <v>59</v>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="40"/>
+      <c r="C19" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>15</v>
@@ -2145,11 +2169,11 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2162,9 +2186,9 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2179,12 +2203,12 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
@@ -2196,11 +2220,11 @@
       <c r="I22" s="6"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -2209,9 +2233,9 @@
       <c r="I23" s="6"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2222,10 +2246,10 @@
       <c r="I24" s="6"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="s">
-        <v>68</v>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="40"/>
+      <c r="C25" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>15</v>
@@ -2237,11 +2261,11 @@
       <c r="I25" s="6"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -2250,9 +2274,9 @@
       <c r="I26" s="6"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2263,12 +2287,12 @@
       <c r="I27" s="6"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>15</v>
@@ -2280,11 +2304,11 @@
       <c r="I28" s="6"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2293,9 +2317,9 @@
       <c r="I29" s="6"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="40"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2306,10 +2330,10 @@
       <c r="I30" s="6"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="33"/>
-      <c r="C31" s="34" t="s">
-        <v>71</v>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="40"/>
+      <c r="C31" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>15</v>
@@ -2321,11 +2345,11 @@
       <c r="I31" s="6"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2334,9 +2358,9 @@
       <c r="I32" s="6"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2347,10 +2371,10 @@
       <c r="I33" s="6"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34" t="s">
-        <v>72</v>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>15</v>
@@ -2362,11 +2386,11 @@
       <c r="I34" s="6"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -2375,9 +2399,9 @@
       <c r="I35" s="6"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2388,12 +2412,12 @@
       <c r="I36" s="6"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="33" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="39" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>74</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>15</v>
@@ -2405,11 +2429,11 @@
       <c r="I37" s="6"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2418,9 +2442,9 @@
       <c r="I38" s="6"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2431,10 +2455,10 @@
       <c r="I39" s="6"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="33"/>
-      <c r="C40" s="34" t="s">
-        <v>75</v>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="40"/>
+      <c r="C40" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>15</v>
@@ -2446,11 +2470,11 @@
       <c r="I40" s="6"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -2459,9 +2483,9 @@
       <c r="I41" s="6"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2472,11 +2496,11 @@
       <c r="I42" s="6"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="34" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2495,11 +2519,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="34.799999999999997">
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
+    <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -2511,12 +2535,12 @@
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2533,9 +2557,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="40"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2552,10 +2576,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="33"/>
-      <c r="C47" s="34" t="s">
-        <v>61</v>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="40"/>
+      <c r="C47" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>15</v>
@@ -2571,11 +2595,11 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -2588,9 +2612,9 @@
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="40"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2605,13 +2629,13 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34" t="s">
-        <v>62</v>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="40"/>
+      <c r="C50" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -2624,11 +2648,11 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -2640,12 +2664,12 @@
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="52.2">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B52" s="40"/>
+      <c r="C52" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2661,12 +2685,12 @@
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="34.799999999999997">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="13" t="s">
         <v>28</v>
       </c>
@@ -2683,11 +2707,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="70.2" customHeight="1">
-      <c r="B54" s="36" t="s">
+    <row r="54" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2705,12 +2729,12 @@
         <v>37</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2727,9 +2751,9 @@
       </c>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2748,9 +2772,9 @@
       </c>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="2:10" ht="139.19999999999999">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34" t="s">
+    <row r="57" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2768,12 +2792,12 @@
         <v>39</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2790,8 +2814,8 @@
       </c>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="2:10" ht="52.2">
-      <c r="B59" s="34"/>
+    <row r="59" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B59" s="39"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2810,19 +2834,19 @@
         <v>42</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="37" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
@@ -2833,14 +2857,14 @@
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="38"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B61" s="49"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2849,44 +2873,54 @@
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="2:10" ht="52.2">
-      <c r="B62" s="38"/>
+    <row r="62" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B62" s="49"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="G62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I62" s="6"/>
       <c r="J62" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="38"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B63" s="49"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="G63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="2:10" ht="34.799999999999997">
-      <c r="B64" s="38"/>
+    <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B64" s="49"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="5" t="s">
@@ -2897,13 +2931,13 @@
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="38"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="49"/>
       <c r="C65" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="8"/>
@@ -2916,11 +2950,11 @@
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="5"/>
@@ -2937,11 +2971,11 @@
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="35"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B67" s="48"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29" t="s">
@@ -2961,12 +2995,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="35"/>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B68" s="48"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="5" t="s">
@@ -2982,12 +3016,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="35"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B69" s="48"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="5" t="s">
@@ -2997,18 +3031,18 @@
         <v>14</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="35"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B70" s="48"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="5" t="s">
@@ -3019,15 +3053,15 @@
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="35"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B71" s="48"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="5" t="s">
@@ -3037,14 +3071,14 @@
         <v>8</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="35"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B72" s="48"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="29" t="s">
@@ -3064,12 +3098,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="35"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B73" s="48"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="5" t="s">
@@ -3079,18 +3113,18 @@
         <v>14</v>
       </c>
       <c r="I73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="J73" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1">
-      <c r="B74" s="35"/>
+    </row>
+    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="48"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="5" t="s">
@@ -3100,14 +3134,14 @@
         <v>14</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B75" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="5"/>
@@ -3127,12 +3161,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="35"/>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B76" s="48"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="5" t="s">
@@ -3143,16 +3177,29 @@
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B22:B27"/>
@@ -3164,27 +3211,24 @@
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H1:H62 H64:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"상"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:G63">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"상"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>
@@ -3203,58 +3247,58 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="22" t="s">
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6E94D1-D2C8-46BA-B95E-A6EC136E4497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75721F91-06BF-448A-A87F-DCB3BA475AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,10 +367,6 @@
   </si>
   <si>
     <t>노란칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그에 대한 상세 내용 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -939,78 +935,6 @@
   </si>
   <si>
     <t>요청 로그 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">요청 정보 DB 저장(인터셉터)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>url 요청 내역 조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1043,15 +967,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자가 요청한 URL 내역을 관리자가 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자의 접속 내역을 관리자가 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">요청 정보 DB 저장(인터셉터)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url 요청 내역 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 요청한 URL 내역을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패한 로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1064,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,6 +1412,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1423,39 +1461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1816,13 +1821,13 @@
   <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="6" width="16.69921875" style="1" customWidth="1"/>
@@ -1831,72 +1836,72 @@
     <col min="10" max="10" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="33" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" s="2" customFormat="1">
       <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
-      <c r="C5" s="42" t="s">
+    <row r="5" spans="2:10" ht="104.4">
+      <c r="B5" s="42"/>
+      <c r="C5" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1911,17 +1916,17 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="42"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1931,13 +1936,15 @@
       <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B7" s="44"/>
-      <c r="C7" s="41" t="s">
-        <v>128</v>
+    <row r="7" spans="2:10" ht="69.599999999999994">
+      <c r="B7" s="42"/>
+      <c r="C7" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>15</v>
@@ -1951,17 +1958,17 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1972,12 +1979,12 @@
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="44"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="42"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
@@ -1989,10 +1996,10 @@
       <c r="I9" s="6"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="44"/>
+    <row r="10" spans="2:10">
+      <c r="B10" s="42"/>
       <c r="C10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -2002,13 +2009,13 @@
       <c r="I10" s="6"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="44"/>
-      <c r="C11" s="46" t="s">
-        <v>111</v>
+    <row r="11" spans="2:10">
+      <c r="B11" s="42"/>
+      <c r="C11" s="37" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -2017,11 +2024,11 @@
       <c r="I11" s="6"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
-      <c r="C12" s="47"/>
+    <row r="12" spans="2:10">
+      <c r="B12" s="43"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2030,11 +2037,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="39" t="s">
+    <row r="13" spans="2:10">
+      <c r="B13" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2053,9 +2060,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
+    <row r="14" spans="2:10">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
@@ -2072,9 +2079,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
+    <row r="15" spans="2:10">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2091,9 +2098,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
+    <row r="16" spans="2:10">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2112,9 +2119,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
         <v>66</v>
       </c>
@@ -2131,9 +2138,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
+    <row r="18" spans="2:10">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2150,9 +2157,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="40"/>
-      <c r="C19" s="39" t="s">
+    <row r="19" spans="2:10">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2169,9 +2176,9 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+    <row r="20" spans="2:10">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
         <v>66</v>
       </c>
@@ -2186,9 +2193,9 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
+    <row r="21" spans="2:10">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2203,11 +2210,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="40" t="s">
+    <row r="22" spans="2:10">
+      <c r="B22" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2220,9 +2227,9 @@
       <c r="I22" s="6"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="2:10">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="13" t="s">
         <v>66</v>
       </c>
@@ -2233,9 +2240,9 @@
       <c r="I23" s="6"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
+    <row r="24" spans="2:10">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2246,9 +2253,9 @@
       <c r="I24" s="6"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="40"/>
-      <c r="C25" s="39" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2261,9 +2268,9 @@
       <c r="I25" s="6"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+    <row r="26" spans="2:10">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="13" t="s">
         <v>66</v>
       </c>
@@ -2274,9 +2281,9 @@
       <c r="I26" s="6"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
+    <row r="27" spans="2:10">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2287,11 +2294,11 @@
       <c r="I27" s="6"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="40" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2304,9 +2311,9 @@
       <c r="I28" s="6"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="40"/>
-      <c r="C29" s="39"/>
+    <row r="29" spans="2:10">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="13" t="s">
         <v>66</v>
       </c>
@@ -2317,9 +2324,9 @@
       <c r="I29" s="6"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
+    <row r="30" spans="2:10">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2330,9 +2337,9 @@
       <c r="I30" s="6"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="40"/>
-      <c r="C31" s="39" t="s">
+    <row r="31" spans="2:10">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2345,9 +2352,9 @@
       <c r="I31" s="6"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+    <row r="32" spans="2:10">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="13" t="s">
         <v>66</v>
       </c>
@@ -2358,9 +2365,9 @@
       <c r="I32" s="6"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
+    <row r="33" spans="2:10">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2371,9 +2378,9 @@
       <c r="I33" s="6"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="40"/>
-      <c r="C34" s="39" t="s">
+    <row r="34" spans="2:10">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2386,9 +2393,9 @@
       <c r="I34" s="6"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
+    <row r="35" spans="2:10">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="13" t="s">
         <v>66</v>
       </c>
@@ -2399,9 +2406,9 @@
       <c r="I35" s="6"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
+    <row r="36" spans="2:10">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2412,11 +2419,11 @@
       <c r="I36" s="6"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="40" t="s">
+    <row r="37" spans="2:10">
+      <c r="B37" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -2429,9 +2436,9 @@
       <c r="I37" s="6"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
+    <row r="38" spans="2:10">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="13" t="s">
         <v>66</v>
       </c>
@@ -2442,9 +2449,9 @@
       <c r="I38" s="6"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
+    <row r="39" spans="2:10">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2455,9 +2462,9 @@
       <c r="I39" s="6"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="40"/>
-      <c r="C40" s="39" t="s">
+    <row r="40" spans="2:10">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -2470,9 +2477,9 @@
       <c r="I40" s="6"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+    <row r="41" spans="2:10">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="13" t="s">
         <v>66</v>
       </c>
@@ -2483,9 +2490,9 @@
       <c r="I41" s="6"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+    <row r="42" spans="2:10">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2496,11 +2503,11 @@
       <c r="I42" s="6"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="40" t="s">
+    <row r="43" spans="2:10">
+      <c r="B43" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2519,9 +2526,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
+    <row r="44" spans="2:10" ht="34.799999999999997">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="13" t="s">
         <v>66</v>
       </c>
@@ -2535,12 +2542,12 @@
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2557,9 +2564,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="40"/>
-      <c r="C46" s="39"/>
+    <row r="46" spans="2:10">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2576,9 +2583,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39" t="s">
+    <row r="47" spans="2:10">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -2595,9 +2602,9 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
+    <row r="48" spans="2:10">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="13" t="s">
         <v>66</v>
       </c>
@@ -2612,9 +2619,9 @@
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="40"/>
-      <c r="C49" s="39"/>
+    <row r="49" spans="2:10">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2629,9 +2636,9 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39" t="s">
+    <row r="50" spans="2:10">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2648,9 +2655,9 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
+    <row r="51" spans="2:10">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="5" t="s">
         <v>62</v>
       </c>
@@ -2667,9 +2674,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="40"/>
-      <c r="C52" s="39" t="s">
+    <row r="52" spans="2:10" ht="52.2">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2685,12 +2692,12 @@
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="34.799999999999997">
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="13" t="s">
         <v>28</v>
       </c>
@@ -2707,11 +2714,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="47" t="s">
+    <row r="54" spans="2:10" ht="70.2" customHeight="1">
+      <c r="B54" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2729,12 +2736,12 @@
         <v>37</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2751,9 +2758,9 @@
       </c>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+    <row r="56" spans="2:10">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2772,9 +2779,9 @@
       </c>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39" t="s">
+    <row r="57" spans="2:10" ht="139.19999999999999">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2792,12 +2799,12 @@
         <v>39</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2814,8 +2821,8 @@
       </c>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="39"/>
+    <row r="59" spans="2:10" ht="52.2">
+      <c r="B59" s="34"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2834,19 +2841,19 @@
         <v>42</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="46" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
@@ -2857,14 +2864,14 @@
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="49"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="38"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2873,14 +2880,14 @@
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="49"/>
+    <row r="62" spans="2:10" ht="52.2">
+      <c r="B62" s="38"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
@@ -2891,17 +2898,17 @@
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="49"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="38"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
@@ -2913,14 +2920,14 @@
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="49"/>
+    <row r="64" spans="2:10" ht="34.799999999999997">
+      <c r="B64" s="38"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="5" t="s">
@@ -2931,13 +2938,13 @@
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="49"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="38"/>
       <c r="C65" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="8"/>
@@ -2950,11 +2957,11 @@
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="5"/>
@@ -2971,11 +2978,11 @@
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="48"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="35"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29" t="s">
@@ -2995,12 +3002,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="48"/>
+    <row r="68" spans="2:10">
+      <c r="B68" s="35"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="5" t="s">
@@ -3016,12 +3023,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="48"/>
+    <row r="69" spans="2:10">
+      <c r="B69" s="35"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="5" t="s">
@@ -3031,18 +3038,18 @@
         <v>14</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="48"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="35"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="5" t="s">
@@ -3053,15 +3060,15 @@
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="48"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="35"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="5" t="s">
@@ -3071,14 +3078,14 @@
         <v>8</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="48"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="35"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="29" t="s">
@@ -3098,12 +3105,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B73" s="48"/>
+    <row r="73" spans="2:10">
+      <c r="B73" s="35"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="13" t="s">
-        <v>122</v>
+      <c r="E73" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="5" t="s">
@@ -3113,18 +3120,18 @@
         <v>14</v>
       </c>
       <c r="I73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J73" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="J73" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="48"/>
+    </row>
+    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1">
+      <c r="B74" s="35"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="5" t="s">
@@ -3134,14 +3141,14 @@
         <v>14</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="5"/>
@@ -3161,8 +3168,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="48"/>
+    <row r="76" spans="2:10">
+      <c r="B76" s="35"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="29" t="s">
@@ -3182,13 +3189,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="B66:B74"/>
     <mergeCell ref="C43:C46"/>
@@ -3200,22 +3216,13 @@
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H62 H64:H1048576">
@@ -3247,13 +3254,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3261,7 +3268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="20" t="s">
         <v>51</v>
       </c>
@@ -3269,15 +3276,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="21" t="s">
         <v>53</v>
       </c>
@@ -3285,7 +3292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="22" t="s">
         <v>55</v>
       </c>
@@ -3293,12 +3300,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="23" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75721F91-06BF-448A-A87F-DCB3BA475AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB39F83-D423-42F3-B608-C21F9051FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -817,123 +817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">접속 IP 조회
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>접속 정보 DB 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 업로드 테스트(테스트)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그리드를 이용한 목록 조회(페이지 네이션)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요청 로그 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,6 +858,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 요청한 URL 내역을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패한 로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접속 IP 조회
+</t>
+    </r>
     <r>
       <rPr>
         <strike/>
@@ -985,26 +884,15 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">요청 정보 DB 저장(인터셉터)
-</t>
+      <t>접속 정보 DB 저장</t>
     </r>
     <r>
       <rPr>
         <strike/>
         <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -1015,19 +903,21 @@
       <rPr>
         <strike/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>url 요청 내역 조회</t>
-    </r>
-    <r>
-      <rPr>
+      <t>엑셀 다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -1038,25 +928,137 @@
       <rPr>
         <strike/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>엑셀 업로드 테스트(테스트)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그리드를 이용한 목록 조회(페이지 네이션)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">요청 정보 DB 저장(인터셉터)
+url 요청 내역 조회
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색
+그리드를 이용한 목록 조회(페이지 네이션)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>엑셀 다운로드</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 요청한 URL 내역을 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 실패한 로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>테이블 다시 안 그리고 데이터 최신화</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +1066,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,6 +1185,22 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1412,55 +1430,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1821,13 +1839,13 @@
   <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="6" width="16.69921875" style="1" customWidth="1"/>
@@ -1836,28 +1854,28 @@
     <col min="10" max="10" width="70.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="44" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1">
+    <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
@@ -1873,13 +1891,13 @@
       <c r="F3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="41" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1899,9 +1917,9 @@
       </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="2:10" ht="104.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40" t="s">
+    <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B5" s="44"/>
+      <c r="C5" s="42" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1916,15 +1934,15 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="44"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="13" t="s">
         <v>76</v>
       </c>
@@ -1937,14 +1955,14 @@
         <v>8</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="2:10" ht="69.599999999999994">
-      <c r="B7" s="42"/>
-      <c r="C7" s="39" t="s">
-        <v>127</v>
+    <row r="7" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B7" s="44"/>
+      <c r="C7" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>15</v>
@@ -1958,16 +1976,16 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="42"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="44"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="5"/>
@@ -1979,12 +1997,12 @@
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="42"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="44"/>
       <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
@@ -1996,8 +2014,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="42"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="44"/>
       <c r="C10" s="5" t="s">
         <v>108</v>
       </c>
@@ -2009,9 +2027,9 @@
       <c r="I10" s="6"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="42"/>
-      <c r="C11" s="37" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="44"/>
+      <c r="C11" s="46" t="s">
         <v>110</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -2024,9 +2042,9 @@
       <c r="I11" s="6"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="43"/>
-      <c r="C12" s="36"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="45"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="13" t="s">
         <v>109</v>
       </c>
@@ -2037,11 +2055,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2060,9 +2078,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="5" t="s">
         <v>66</v>
       </c>
@@ -2079,9 +2097,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2098,9 +2116,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="40"/>
+      <c r="C16" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2119,9 +2137,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="5" t="s">
         <v>66</v>
       </c>
@@ -2138,9 +2156,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2157,9 +2175,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="40"/>
+      <c r="C19" s="39" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2176,9 +2194,9 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="5" t="s">
         <v>66</v>
       </c>
@@ -2193,9 +2211,9 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2210,11 +2228,11 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2227,9 +2245,9 @@
       <c r="I22" s="6"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="13" t="s">
         <v>66</v>
       </c>
@@ -2240,9 +2258,9 @@
       <c r="I23" s="6"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
@@ -2253,9 +2271,9 @@
       <c r="I24" s="6"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="40"/>
+      <c r="C25" s="39" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -2268,9 +2286,9 @@
       <c r="I25" s="6"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="13" t="s">
         <v>66</v>
       </c>
@@ -2281,9 +2299,9 @@
       <c r="I26" s="6"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -2294,11 +2312,11 @@
       <c r="I27" s="6"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="39" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2311,9 +2329,9 @@
       <c r="I28" s="6"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="13" t="s">
         <v>66</v>
       </c>
@@ -2324,9 +2342,9 @@
       <c r="I29" s="6"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="40"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
@@ -2337,9 +2355,9 @@
       <c r="I30" s="6"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="33"/>
-      <c r="C31" s="34" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="40"/>
+      <c r="C31" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -2352,9 +2370,9 @@
       <c r="I31" s="6"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="13" t="s">
         <v>66</v>
       </c>
@@ -2365,9 +2383,9 @@
       <c r="I32" s="6"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
@@ -2378,9 +2396,9 @@
       <c r="I33" s="6"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2393,9 +2411,9 @@
       <c r="I34" s="6"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="13" t="s">
         <v>66</v>
       </c>
@@ -2406,9 +2424,9 @@
       <c r="I35" s="6"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
@@ -2419,11 +2437,11 @@
       <c r="I36" s="6"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="33" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="39" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -2436,9 +2454,9 @@
       <c r="I37" s="6"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="13" t="s">
         <v>66</v>
       </c>
@@ -2449,9 +2467,9 @@
       <c r="I38" s="6"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="13" t="s">
         <v>16</v>
       </c>
@@ -2462,9 +2480,9 @@
       <c r="I39" s="6"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="33"/>
-      <c r="C40" s="34" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="40"/>
+      <c r="C40" s="39" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -2477,9 +2495,9 @@
       <c r="I40" s="6"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="13" t="s">
         <v>66</v>
       </c>
@@ -2490,9 +2508,9 @@
       <c r="I41" s="6"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2503,11 +2521,11 @@
       <c r="I42" s="6"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="33" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2526,9 +2544,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="34.799999999999997">
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
+    <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="13" t="s">
         <v>66</v>
       </c>
@@ -2545,9 +2563,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="13" t="s">
         <v>16</v>
       </c>
@@ -2564,9 +2582,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="40"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="13" t="s">
         <v>21</v>
       </c>
@@ -2583,9 +2601,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="33"/>
-      <c r="C47" s="34" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="40"/>
+      <c r="C47" s="39" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="13" t="s">
@@ -2602,9 +2620,9 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="13" t="s">
         <v>66</v>
       </c>
@@ -2619,9 +2637,9 @@
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B49" s="40"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="13" t="s">
         <v>16</v>
       </c>
@@ -2636,9 +2654,9 @@
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34" t="s">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B50" s="40"/>
+      <c r="C50" s="39" t="s">
         <v>61</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2655,9 +2673,9 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="5" t="s">
         <v>62</v>
       </c>
@@ -2674,9 +2692,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="52.2">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34" t="s">
+    <row r="52" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B52" s="40"/>
+      <c r="C52" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -2695,9 +2713,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="34.799999999999997">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
+    <row r="53" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="13" t="s">
         <v>28</v>
       </c>
@@ -2714,11 +2732,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="70.2" customHeight="1">
-      <c r="B54" s="36" t="s">
+    <row r="54" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="24"/>
@@ -2739,9 +2757,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
         <v>7</v>
@@ -2758,9 +2776,9 @@
       </c>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2779,9 +2797,9 @@
       </c>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="2:10" ht="139.19999999999999">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34" t="s">
+    <row r="57" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -2802,9 +2820,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
       <c r="D58" s="5" t="s">
         <v>10</v>
       </c>
@@ -2821,8 +2839,8 @@
       </c>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="2:10" ht="52.2">
-      <c r="B59" s="34"/>
+    <row r="59" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B59" s="39"/>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2844,8 +2862,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="37" t="s">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B60" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="5"/>
@@ -2867,8 +2885,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="38"/>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B61" s="49"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>94</v>
@@ -2880,8 +2898,8 @@
       <c r="I61" s="6"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="2:10" ht="52.2">
-      <c r="B62" s="38"/>
+    <row r="62" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B62" s="49"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5" t="s">
         <v>95</v>
@@ -2901,14 +2919,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="38"/>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B63" s="49"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
@@ -2920,8 +2938,8 @@
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="2:10" ht="34.799999999999997">
-      <c r="B64" s="38"/>
+    <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B64" s="49"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27" t="s">
         <v>91</v>
@@ -2941,8 +2959,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" s="38"/>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="49"/>
       <c r="C65" s="27" t="s">
         <v>116</v>
       </c>
@@ -2960,8 +2978,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" s="35" t="s">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="5"/>
@@ -2981,8 +2999,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
-      <c r="B67" s="35"/>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B67" s="48"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="29" t="s">
@@ -3002,8 +3020,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
-      <c r="B68" s="35"/>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B68" s="48"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="29" t="s">
@@ -3023,8 +3041,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
-      <c r="B69" s="35"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B69" s="48"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="29" t="s">
@@ -3044,8 +3062,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="35"/>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B70" s="48"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="29" t="s">
@@ -3063,8 +3081,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="35"/>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B71" s="48"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="13" t="s">
@@ -3084,8 +3102,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="35"/>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B72" s="48"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="29" t="s">
@@ -3105,8 +3123,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="35"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B73" s="48"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="29" t="s">
@@ -3126,8 +3144,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1">
-      <c r="B74" s="35"/>
+    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="48"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="13" t="s">
@@ -3144,11 +3162,11 @@
         <v>115</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B75" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="5"/>
@@ -3168,8 +3186,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="35"/>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B76" s="48"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="29" t="s">
@@ -3189,11 +3207,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B22:B27"/>
@@ -3205,24 +3236,11 @@
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H62 H64:H1048576">
@@ -3254,13 +3272,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3268,7 +3286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>51</v>
       </c>
@@ -3276,7 +3294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
         <v>101</v>
       </c>
@@ -3284,7 +3302,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>53</v>
       </c>
@@ -3292,7 +3310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
         <v>55</v>
       </c>
@@ -3300,7 +3318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>75</v>
       </c>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB39F83-D423-42F3-B608-C21F9051FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF35E9A-878D-4128-AF0E-3829870A6C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="명세서" sheetId="2" r:id="rId2"/>
+    <sheet name="참고" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="134">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,35 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>서버에 발생하는 요청에 대해 필요한 권한 검증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- String url, String[] 권한코드배열, inData 인수로 받아서 세션에 있는 사용자 권한과 필요 권한을 비교하는 메서드를 통해 권한 검증
-- 특수권한(03 이상)은 권한 범위가 큰 권함그룹에게 큰 수의 특수권한을 준다
-ex) 권한 05, 04, 03이 쓰기 권한을 가지는 페이지에서 05권한이 가장 범위에 쓰기 가능
-- 권한코드배열에 [02, 05]와 같이 입력하여 권한 검증(사용자 권한 조회 시 가장 높은 권한을 조회하기 때문에) </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자의 접속 내역을 관리자가 조회할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,127 +834,6 @@
   </si>
   <si>
     <t>사용자가 요청한 URL 내역을 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 실패한 로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">접속 IP 조회
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>접속 정보 DB 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 다운로드</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엑셀 업로드 테스트(테스트)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>그리드를 이용한 목록 조회(페이지 네이션)</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1036,8 +886,31 @@
       </rPr>
       <t>엑셀 다운로드</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">접속 IP 조회
+접속 정보 DB 저장
+엑셀 다운로드
+엑셀 업로드 테스트(테스트)
+</t>
+    </r>
     <r>
       <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>그리드를 이용한 목록 조회(페이지 네이션)</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
@@ -1050,14 +923,47 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="11"/>
-        <color theme="9"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>테이블 다시 안 그리고 데이터 최신화</t>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서버에 발생하는 요청에 대해 필요한 권한 검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- String url, String[] 권한코드배열, inData 인수로 받아서 세션에 있는 사용자 권한과 필요 권한을 비교하는 메서드를 통해 권한 검증
+- 특수권한(03 이상)은 권한 범위가 큰 권한그룹에게 큰 수의 특수권한을 준다
+ex) 권한 05, 04, 03이 쓰기 권한을 가지는 페이지에서 05권한이 가장 넓은 범위에 쓰기 가능
+- 필요권한에 [02, 05]와 같이 입력하여 권한 검증(사용자 권한 조회 시 가장 높은 권한을 조회하기 때문에) 
+ex) 메뉴에 대해 부여된 권한이 02, 03, 04일 때
+필요권한이 [02,03,04] =&gt; 권한이 02~04인 사용자 모두 요청 가능
+필요권한이 [02,04] =&gt; 권한이 03인 사용자는 요청 불가
+필요권한이 [04] =&gt; 권한이 04인 사용자만 요청 가능</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,7 +972,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,15 +1047,6 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1191,18 +1088,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1385,100 +1274,100 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:J76"/>
+  <dimension ref="B2:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1855,23 +1744,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="33" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1891,13 +1780,13 @@
       <c r="F3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1918,11 +1807,11 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="10"/>
@@ -1934,174 +1823,196 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="44"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="13" t="s">
-        <v>76</v>
+        <v>127</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="87" x14ac:dyDescent="0.4">
+      <c r="B6" s="39"/>
+      <c r="C6" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B7" s="44"/>
-      <c r="C7" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="39"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="39"/>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J8" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="44"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="44"/>
-      <c r="C10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="44"/>
-      <c r="C11" s="46" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>30</v>
-      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
+      <c r="J13" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2112,55 +2023,55 @@
         <v>9</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>19</v>
+      <c r="J15" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
-        <v>31</v>
-      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="7" t="s">
-        <v>17</v>
+      <c r="J16" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2168,25 +2079,21 @@
         <v>8</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="40"/>
-      <c r="C19" s="39" t="s">
-        <v>58</v>
-      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="5" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>8</v>
@@ -2195,15 +2102,15 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>8</v>
@@ -2212,31 +2119,27 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B21" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>65</v>
-      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2246,10 +2149,10 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -2259,10 +2162,12 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="D24" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2272,12 +2177,10 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="40"/>
-      <c r="C25" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -2287,10 +2190,10 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -2300,10 +2203,14 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>69</v>
+      </c>
       <c r="D27" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -2313,14 +2220,10 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>69</v>
-      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -2330,10 +2233,10 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="40"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2343,10 +2246,12 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="D30" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2356,12 +2261,10 @@
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="40"/>
-      <c r="C31" s="39" t="s">
-        <v>70</v>
-      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -2371,10 +2274,10 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2384,10 +2287,12 @@
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="D33" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -2397,12 +2302,10 @@
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="40"/>
-      <c r="C34" s="39" t="s">
-        <v>71</v>
-      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -2412,10 +2315,10 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -2425,10 +2328,14 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>73</v>
+      </c>
       <c r="D36" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -2438,14 +2345,10 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>73</v>
-      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -2455,10 +2358,10 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2468,10 +2371,12 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="D39" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -2481,12 +2386,10 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="40"/>
-      <c r="C40" s="39" t="s">
-        <v>74</v>
-      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -2496,10 +2399,10 @@
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -2509,65 +2412,71 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="D42" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="J42" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
+      <c r="J43" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="11" t="s">
-        <v>120</v>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -2579,40 +2488,38 @@
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="40"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="D46" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>9</v>
+      <c r="G46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I46" s="15"/>
-      <c r="J46" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39" t="s">
-        <v>60</v>
-      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>8</v>
@@ -2621,15 +2528,15 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="13" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>8</v>
@@ -2638,10 +2545,12 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="40"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="13" t="s">
-        <v>16</v>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -2649,18 +2558,16 @@
         <v>8</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -2671,37 +2578,39 @@
         <v>9</v>
       </c>
       <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="J50" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B51" s="32"/>
+      <c r="C51" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B52" s="40"/>
-      <c r="C52" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="5" t="s">
         <v>9</v>
       </c>
@@ -2709,145 +2618,151 @@
         <v>9</v>
       </c>
       <c r="I52" s="6"/>
-      <c r="J52" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="5" t="s">
+      <c r="J52" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="26" t="s">
-        <v>106</v>
-      </c>
+      <c r="H54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="E55" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+        <v>41</v>
+      </c>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B58" s="33"/>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D58" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B59" s="39"/>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B59" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
         <v>8</v>
@@ -2855,57 +2770,53 @@
       <c r="H59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>103</v>
+      <c r="I59" s="6"/>
+      <c r="J59" s="30" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="46" t="s">
-        <v>90</v>
-      </c>
+      <c r="B60" s="37"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="49"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B61" s="37"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="49"/>
+      <c r="J61" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B62" s="37"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>95</v>
+      <c r="D62" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
@@ -2915,201 +2826,201 @@
         <v>8</v>
       </c>
       <c r="I62" s="6"/>
-      <c r="J62" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="49"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="5"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B63" s="37"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="28"/>
       <c r="G63" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="49"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" s="29"/>
+      <c r="J63" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B64" s="37"/>
+      <c r="C64" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="49"/>
-      <c r="C65" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
+      <c r="B65" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="28"/>
       <c r="G65" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I65" s="6"/>
-      <c r="J65" s="17" t="s">
-        <v>117</v>
+      <c r="J65" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="B66" s="34"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="29"/>
+      <c r="E66" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="28"/>
       <c r="G66" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="19" t="s">
-        <v>113</v>
+        <v>8</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="48"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="29"/>
+      <c r="E67" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="28"/>
       <c r="G67" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="48"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="29"/>
+      <c r="E68" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="28"/>
       <c r="G68" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J68" s="30" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="48"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="29"/>
+      <c r="E69" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="28"/>
       <c r="G69" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>80</v>
+      <c r="I69" s="6"/>
+      <c r="J69" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="48"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F70" s="29"/>
+      <c r="E70" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="13"/>
       <c r="G70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="6"/>
-      <c r="J70" s="19" t="s">
-        <v>105</v>
+        <v>8</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="48"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" s="13"/>
+      <c r="E71" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="28"/>
       <c r="G71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="48"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="29"/>
+      <c r="E72" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="13"/>
       <c r="G72" s="5" t="s">
         <v>14</v>
       </c>
@@ -3117,64 +3028,62 @@
         <v>14</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B73" s="48"/>
+        <v>122</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="34"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="29" t="s">
-        <v>121</v>
+      <c r="E73" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J73" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B74" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="13"/>
+      <c r="E74" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="28"/>
       <c r="G74" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>127</v>
+      <c r="I74" s="6"/>
+      <c r="J74" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="48" t="s">
-        <v>34</v>
-      </c>
+      <c r="B75" s="34"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="29"/>
+      <c r="E75" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="28"/>
       <c r="G75" s="5" t="s">
         <v>8</v>
       </c>
@@ -3182,78 +3091,58 @@
         <v>14</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="48"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="29"/>
-      <c r="G76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="19" t="s">
+      <c r="J75" s="18" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="33">
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H62 H64:H1048576">
+  <conditionalFormatting sqref="H63:H1048576 H1:H9 H12:H61 G10:H11">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62:G63">
+  <conditionalFormatting sqref="G61:G62">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>
@@ -3287,7 +3176,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
@@ -3295,7 +3184,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>101</v>
       </c>
       <c r="B3" t="s">
@@ -3303,7 +3192,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
@@ -3311,7 +3200,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
@@ -3319,7 +3208,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF35E9A-878D-4128-AF0E-3829870A6C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AE85D-F100-4D59-A42E-F5978493F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,59 +1316,62 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,10 +1731,10 @@
   <dimension ref="B2:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1744,23 +1747,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="41" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1780,13 +1783,13 @@
       <c r="F3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="43" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1807,8 +1810,8 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -1830,8 +1833,8 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="42" t="s">
         <v>126</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -1853,8 +1856,8 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="28" t="s">
         <v>76</v>
       </c>
@@ -1872,7 +1875,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
@@ -1891,7 +1894,7 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="5" t="s">
         <v>108</v>
       </c>
@@ -1910,8 +1913,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="46" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1929,8 +1932,8 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="40"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="13" t="s">
         <v>109</v>
       </c>
@@ -1946,10 +1949,10 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1969,8 +1972,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
@@ -1988,8 +1991,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2007,8 +2010,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="40" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2028,8 +2031,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="5" t="s">
         <v>66</v>
       </c>
@@ -2047,8 +2050,8 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2066,8 +2069,8 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2085,8 +2088,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
@@ -2102,8 +2105,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
@@ -2119,10 +2122,10 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="40" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -2136,8 +2139,8 @@
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="13" t="s">
         <v>66</v>
       </c>
@@ -2149,8 +2152,8 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="13" t="s">
         <v>16</v>
       </c>
@@ -2162,8 +2165,8 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="40" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -2177,8 +2180,8 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="13" t="s">
         <v>66</v>
       </c>
@@ -2190,8 +2193,8 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
@@ -2203,10 +2206,10 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -2220,8 +2223,8 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="13" t="s">
         <v>66</v>
       </c>
@@ -2233,8 +2236,8 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
@@ -2246,8 +2249,8 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -2261,8 +2264,8 @@
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="13" t="s">
         <v>66</v>
       </c>
@@ -2274,8 +2277,8 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
@@ -2287,8 +2290,8 @@
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="40" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -2302,8 +2305,8 @@
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="13" t="s">
         <v>66</v>
       </c>
@@ -2315,8 +2318,8 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="13" t="s">
         <v>16</v>
       </c>
@@ -2328,10 +2331,10 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -2345,8 +2348,8 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="13" t="s">
         <v>66</v>
       </c>
@@ -2358,8 +2361,8 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="13" t="s">
         <v>16</v>
       </c>
@@ -2371,8 +2374,8 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="32"/>
-      <c r="C39" s="33" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="40" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -2386,8 +2389,8 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="13" t="s">
         <v>66</v>
       </c>
@@ -2399,8 +2402,8 @@
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="13" t="s">
         <v>16</v>
       </c>
@@ -2412,13 +2415,13 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="13"/>
@@ -2430,13 +2433,13 @@
         <v>9</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="13" t="s">
         <v>66</v>
       </c>
@@ -2454,8 +2457,8 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="13" t="s">
         <v>16</v>
       </c>
@@ -2473,8 +2476,8 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="13" t="s">
         <v>21</v>
       </c>
@@ -2492,8 +2495,8 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="40" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -2511,8 +2514,8 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="13" t="s">
         <v>66</v>
       </c>
@@ -2528,8 +2531,8 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="13" t="s">
         <v>16</v>
       </c>
@@ -2545,8 +2548,8 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="32"/>
-      <c r="C49" s="33" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="40" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2564,8 +2567,8 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="32"/>
-      <c r="C50" s="33"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="5" t="s">
         <v>62</v>
       </c>
@@ -2583,8 +2586,8 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B51" s="32"/>
-      <c r="C51" s="33" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -2604,8 +2607,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="13" t="s">
         <v>28</v>
       </c>
@@ -2623,10 +2626,10 @@
       </c>
     </row>
     <row r="53" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="23"/>
@@ -2648,8 +2651,8 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
         <v>7</v>
@@ -2667,8 +2670,8 @@
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
@@ -2688,8 +2691,8 @@
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -2711,8 +2714,8 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="5" t="s">
         <v>10</v>
       </c>
@@ -2730,7 +2733,7 @@
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B58" s="33"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="5" t="s">
         <v>12</v>
       </c>
@@ -2753,7 +2756,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="5"/>
@@ -2776,7 +2779,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="37"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
         <v>94</v>
@@ -2789,7 +2792,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="37"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>95</v>
@@ -2810,7 +2813,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="37"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="5"/>
       <c r="D62" s="1" t="s">
         <v>93</v>
@@ -2829,7 +2832,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="37"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26" t="s">
         <v>91</v>
@@ -2850,8 +2853,8 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="37"/>
-      <c r="C64" s="49" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="33" t="s">
         <v>116</v>
       </c>
       <c r="D64" s="26"/>
@@ -2869,7 +2872,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="5"/>
@@ -2890,7 +2893,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="34"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="28" t="s">
@@ -2911,7 +2914,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="34"/>
+      <c r="B67" s="48"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="28" t="s">
@@ -2932,7 +2935,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="34"/>
+      <c r="B68" s="48"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="28" t="s">
@@ -2953,7 +2956,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="34"/>
+      <c r="B69" s="48"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="28" t="s">
@@ -2972,7 +2975,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="34"/>
+      <c r="B70" s="48"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="13" t="s">
@@ -2993,7 +2996,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="34"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="28" t="s">
@@ -3014,7 +3017,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="34"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="28" t="s">
@@ -3035,7 +3038,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="34"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
@@ -3056,7 +3059,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C74" s="5"/>
@@ -3077,7 +3080,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="34"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="28" t="s">
@@ -3097,21 +3100,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B65:B73"/>
     <mergeCell ref="C42:C45"/>
@@ -3123,26 +3118,34 @@
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B64"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H63:H1048576 H1:H9 H12:H61 G10:H11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="G61:G62">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:G62">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H1:H9 G10:H11">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H12:H1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AE85D-F100-4D59-A42E-F5978493F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C1DE57-E976-4ABF-884F-31C7F3088731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,45 +661,6 @@
   </si>
   <si>
     <t>log4j2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에디터를 이용한 글 쓰기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>첨부파일</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -964,6 +925,84 @@
 필요권한이 [02,03,04] =&gt; 권한이 02~04인 사용자 모두 요청 가능
 필요권한이 [02,04] =&gt; 권한이 03인 사용자는 요청 불가
 필요권한이 [04] =&gt; 권한이 04인 사용자만 요청 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에디터를 이용한 글 쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">수정
+삭제
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>첨부파일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에디터 내용 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+조회수</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,56 +1361,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1731,10 +1770,10 @@
   <dimension ref="B2:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1747,23 +1786,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="34" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="45" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1781,15 +1820,15 @@
         <v>87</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+        <v>124</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1810,7 +1849,7 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="2:10" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="32" t="s">
         <v>24</v>
       </c>
@@ -1826,16 +1865,16 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="87" x14ac:dyDescent="0.4">
-      <c r="B6" s="44"/>
-      <c r="C6" s="42" t="s">
-        <v>126</v>
+      <c r="B6" s="43"/>
+      <c r="C6" s="41" t="s">
+        <v>125</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>15</v>
@@ -1849,15 +1888,15 @@
         <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="28" t="s">
         <v>76</v>
       </c>
@@ -1870,12 +1909,12 @@
         <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="44"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
@@ -1894,7 +1933,7 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="44"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="5" t="s">
         <v>108</v>
       </c>
@@ -1913,8 +1952,8 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="44"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -1932,8 +1971,8 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="13" t="s">
         <v>109</v>
       </c>
@@ -1949,10 +1988,10 @@
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1972,8 +2011,8 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="41"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
@@ -1991,8 +2030,8 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
@@ -2010,8 +2049,8 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2031,8 +2070,8 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="41"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="5" t="s">
         <v>66</v>
       </c>
@@ -2050,8 +2089,8 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2069,8 +2108,8 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="41"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2088,8 +2127,8 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="41"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
@@ -2105,8 +2144,8 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="41"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
@@ -2122,10 +2161,10 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="36" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -2139,8 +2178,8 @@
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="13" t="s">
         <v>66</v>
       </c>
@@ -2152,8 +2191,8 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="13" t="s">
         <v>16</v>
       </c>
@@ -2165,8 +2204,8 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -2180,8 +2219,8 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="41"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="13" t="s">
         <v>66</v>
       </c>
@@ -2193,8 +2232,8 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="41"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
@@ -2206,10 +2245,10 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -2223,8 +2262,8 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="13" t="s">
         <v>66</v>
       </c>
@@ -2236,8 +2275,8 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="41"/>
-      <c r="C29" s="40"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="13" t="s">
         <v>16</v>
       </c>
@@ -2249,8 +2288,8 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="41"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -2264,8 +2303,8 @@
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="41"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="13" t="s">
         <v>66</v>
       </c>
@@ -2277,8 +2316,8 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
@@ -2290,8 +2329,8 @@
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="41"/>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -2305,8 +2344,8 @@
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="41"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="13" t="s">
         <v>66</v>
       </c>
@@ -2318,8 +2357,8 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="41"/>
-      <c r="C35" s="40"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="13" t="s">
         <v>16</v>
       </c>
@@ -2331,10 +2370,10 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -2348,8 +2387,8 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="41"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="13" t="s">
         <v>66</v>
       </c>
@@ -2361,8 +2400,8 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="41"/>
-      <c r="C38" s="40"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="13" t="s">
         <v>16</v>
       </c>
@@ -2374,8 +2413,8 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="41"/>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="36" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -2389,8 +2428,8 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="41"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="13" t="s">
         <v>66</v>
       </c>
@@ -2402,8 +2441,8 @@
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="41"/>
-      <c r="C41" s="40"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="13" t="s">
         <v>16</v>
       </c>
@@ -2415,10 +2454,10 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="28" t="s">
@@ -2433,13 +2472,13 @@
         <v>9</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="50" t="s">
+      <c r="J42" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B43" s="41"/>
-      <c r="C43" s="40"/>
+    <row r="43" spans="2:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="13" t="s">
         <v>66</v>
       </c>
@@ -2452,13 +2491,13 @@
         <v>9</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="41"/>
-      <c r="C44" s="40"/>
+      <c r="J43" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="13" t="s">
         <v>16</v>
       </c>
@@ -2471,13 +2510,13 @@
         <v>9</v>
       </c>
       <c r="I44" s="15"/>
-      <c r="J44" s="15" t="s">
-        <v>19</v>
+      <c r="J44" s="34" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="41"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="13" t="s">
         <v>21</v>
       </c>
@@ -2495,8 +2534,8 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="41"/>
-      <c r="C46" s="40" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="36" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -2514,8 +2553,8 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="41"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="13" t="s">
         <v>66</v>
       </c>
@@ -2531,8 +2570,8 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="41"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="13" t="s">
         <v>16</v>
       </c>
@@ -2548,8 +2587,8 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="41"/>
-      <c r="C49" s="40" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="36" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2567,8 +2606,8 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="41"/>
-      <c r="C50" s="40"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="5" t="s">
         <v>62</v>
       </c>
@@ -2586,8 +2625,8 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B51" s="41"/>
-      <c r="C51" s="40" t="s">
+      <c r="B51" s="35"/>
+      <c r="C51" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -2607,8 +2646,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B52" s="41"/>
-      <c r="C52" s="40"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="13" t="s">
         <v>28</v>
       </c>
@@ -2626,10 +2665,10 @@
       </c>
     </row>
     <row r="53" spans="2:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="38" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="23"/>
@@ -2651,8 +2690,8 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
         <v>7</v>
@@ -2670,8 +2709,8 @@
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
@@ -2691,8 +2730,8 @@
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B56" s="40"/>
-      <c r="C56" s="40" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -2710,12 +2749,12 @@
         <v>39</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
       <c r="D57" s="5" t="s">
         <v>10</v>
       </c>
@@ -2733,7 +2772,7 @@
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B58" s="40"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="5" t="s">
         <v>12</v>
       </c>
@@ -2756,7 +2795,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="39" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="5"/>
@@ -2779,7 +2818,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="49"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
         <v>94</v>
@@ -2792,7 +2831,7 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="2:10" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B61" s="49"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
         <v>95</v>
@@ -2813,13 +2852,13 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="49"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="5"/>
       <c r="D62" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
@@ -2832,7 +2871,7 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="49"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26" t="s">
         <v>91</v>
@@ -2853,7 +2892,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="49"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="33" t="s">
         <v>116</v>
       </c>
@@ -2872,7 +2911,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="5"/>
@@ -2893,7 +2932,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="48"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="28" t="s">
@@ -2914,7 +2953,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="48"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="28" t="s">
@@ -2935,7 +2974,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="48"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="28" t="s">
@@ -2956,7 +2995,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="48"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="28" t="s">
@@ -2975,7 +3014,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="48"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="13" t="s">
@@ -2996,7 +3035,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="48"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="28" t="s">
@@ -3017,11 +3056,11 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="48"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="5" t="s">
@@ -3031,14 +3070,14 @@
         <v>14</v>
       </c>
       <c r="I72" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J72" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="J72" s="31" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="73" spans="2:10" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="48"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="13" t="s">
@@ -3055,11 +3094,11 @@
         <v>115</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C74" s="5"/>
@@ -3080,7 +3119,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="48"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="28" t="s">
@@ -3100,13 +3139,21 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B65:B73"/>
     <mergeCell ref="C42:C45"/>
@@ -3118,21 +3165,13 @@
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="B53:B58"/>
     <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G61:G62">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C5980D-A24B-4D7C-811A-284A2B366992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B367BEA0-4456-4C39-994B-C10A1394CC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="145">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,10 +586,6 @@
   </si>
   <si>
     <t>목록 조회 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -754,12 +750,20 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>표시순서 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고 내용 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,50 +1041,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,15 +1068,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,9 +1084,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,23 +1095,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,46 +1510,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I86"/>
+  <dimension ref="B2:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.59765625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="70.8984375" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.8984375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="23" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" s="2" customFormat="1">
       <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
@@ -1546,16 +1559,16 @@
       <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1574,169 +1587,169 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="32"/>
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="51"/>
+      <c r="C5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="51"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="32"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="49" t="s">
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="51"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="32"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="49" t="s">
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="51"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="32"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="49" t="s">
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="51"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="39"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="51"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="32"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="19" t="s">
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="51"/>
+      <c r="C11" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="32"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="19" t="s">
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="51"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="51"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="51"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="52"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="32"/>
-      <c r="C11" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="32"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="32"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="51"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="32"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1744,14 +1757,14 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="32"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="48"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="51"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1760,11 +1773,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="32"/>
-      <c r="C16" s="30"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="51"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="19" t="s">
         <v>76</v>
       </c>
@@ -1780,8 +1793,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="32"/>
+    <row r="17" spans="2:9">
+      <c r="B17" s="51"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
@@ -1798,8 +1811,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="32"/>
+    <row r="18" spans="2:9">
+      <c r="B18" s="51"/>
       <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
@@ -1816,12 +1829,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="32"/>
-      <c r="C19" s="34" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="51"/>
+      <c r="C19" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="30" t="s">
         <v>126</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1831,52 +1844,52 @@
         <v>8</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="32"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="39"/>
+      <c r="I19" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="51"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="32"/>
-      <c r="C21" s="34" t="s">
+      <c r="I20" s="61"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="51"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="51"/>
+      <c r="C22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="5" t="s">
@@ -1888,39 +1901,37 @@
       <c r="H22" s="6"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>136</v>
-      </c>
+    <row r="23" spans="2:9">
+      <c r="B23" s="52"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="29"/>
-      <c r="C24" s="28"/>
+    <row r="24" spans="2:9">
+      <c r="B24" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>9</v>
@@ -1928,17 +1939,17 @@
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>9</v>
@@ -1946,16 +1957,14 @@
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="29"/>
-      <c r="C26" s="28" t="s">
-        <v>31</v>
-      </c>
+    <row r="26" spans="2:9">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>136</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>8</v>
@@ -1966,17 +1975,19 @@
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="29"/>
-      <c r="C27" s="28"/>
+    <row r="27" spans="2:9">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>9</v>
@@ -1984,17 +1995,17 @@
       <c r="H27" s="6"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="29"/>
-      <c r="C28" s="28"/>
+    <row r="28" spans="2:9">
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>9</v>
@@ -2002,33 +2013,35 @@
       <c r="H28" s="6"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="29"/>
-      <c r="C29" s="28" t="s">
-        <v>58</v>
-      </c>
+    <row r="29" spans="2:9">
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="29"/>
-      <c r="C30" s="28"/>
+    <row r="30" spans="2:9">
+      <c r="B30" s="43"/>
+      <c r="C30" s="44" t="s">
+        <v>58</v>
+      </c>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>8</v>
@@ -2036,15 +2049,15 @@
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="29"/>
-      <c r="C31" s="28"/>
+    <row r="31" spans="2:9">
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
@@ -2052,27 +2065,31 @@
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="29" t="s">
+    <row r="32" spans="2:9">
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C33" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="29"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="5"/>
@@ -2080,11 +2097,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="29"/>
-      <c r="C34" s="28"/>
+    <row r="34" spans="2:9">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="5"/>
@@ -2092,13 +2109,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="29"/>
-      <c r="C35" s="28" t="s">
-        <v>67</v>
-      </c>
+    <row r="35" spans="2:9">
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
@@ -2106,11 +2121,13 @@
       <c r="H35" s="6"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="29"/>
-      <c r="C36" s="28"/>
+    <row r="36" spans="2:9">
+      <c r="B36" s="43"/>
+      <c r="C36" s="44" t="s">
+        <v>67</v>
+      </c>
       <c r="D36" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
@@ -2118,11 +2135,11 @@
       <c r="H36" s="6"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="29"/>
-      <c r="C37" s="28"/>
+    <row r="37" spans="2:9">
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="5"/>
@@ -2130,15 +2147,11 @@
       <c r="H37" s="6"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>69</v>
-      </c>
+    <row r="38" spans="2:9">
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="5"/>
@@ -2146,11 +2159,15 @@
       <c r="H38" s="6"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="29"/>
-      <c r="C39" s="28"/>
+    <row r="39" spans="2:9">
+      <c r="B39" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>69</v>
+      </c>
       <c r="D39" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="5"/>
@@ -2158,11 +2175,11 @@
       <c r="H39" s="6"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="29"/>
-      <c r="C40" s="28"/>
+    <row r="40" spans="2:9">
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
@@ -2170,13 +2187,11 @@
       <c r="H40" s="6"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="29"/>
-      <c r="C41" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="41" spans="2:9">
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="5"/>
@@ -2184,11 +2199,13 @@
       <c r="H41" s="6"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="29"/>
-      <c r="C42" s="28"/>
+    <row r="42" spans="2:9">
+      <c r="B42" s="43"/>
+      <c r="C42" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="D42" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
@@ -2196,11 +2213,11 @@
       <c r="H42" s="6"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="29"/>
-      <c r="C43" s="28"/>
+    <row r="43" spans="2:9">
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="5"/>
@@ -2208,13 +2225,11 @@
       <c r="H43" s="6"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="29"/>
-      <c r="C44" s="28" t="s">
-        <v>71</v>
-      </c>
+    <row r="44" spans="2:9">
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="5"/>
@@ -2222,11 +2237,13 @@
       <c r="H44" s="6"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="29"/>
-      <c r="C45" s="28"/>
+    <row r="45" spans="2:9">
+      <c r="B45" s="43"/>
+      <c r="C45" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="D45" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
@@ -2234,11 +2251,11 @@
       <c r="H45" s="6"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="29"/>
-      <c r="C46" s="28"/>
+    <row r="46" spans="2:9">
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="5"/>
@@ -2246,15 +2263,11 @@
       <c r="H46" s="6"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>73</v>
-      </c>
+    <row r="47" spans="2:9">
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
@@ -2262,11 +2275,15 @@
       <c r="H47" s="6"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="29"/>
-      <c r="C48" s="28"/>
+    <row r="48" spans="2:9">
+      <c r="B48" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>73</v>
+      </c>
       <c r="D48" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
@@ -2274,11 +2291,11 @@
       <c r="H48" s="6"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="29"/>
-      <c r="C49" s="28"/>
+    <row r="49" spans="2:9">
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
@@ -2286,13 +2303,11 @@
       <c r="H49" s="6"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="29"/>
-      <c r="C50" s="28" t="s">
-        <v>74</v>
-      </c>
+    <row r="50" spans="2:9">
+      <c r="B50" s="43"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
@@ -2300,11 +2315,13 @@
       <c r="H50" s="6"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="29"/>
-      <c r="C51" s="28"/>
+    <row r="51" spans="2:9">
+      <c r="B51" s="43"/>
+      <c r="C51" s="44" t="s">
+        <v>74</v>
+      </c>
       <c r="D51" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
@@ -2312,11 +2329,11 @@
       <c r="H51" s="6"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="29"/>
-      <c r="C52" s="28"/>
+    <row r="52" spans="2:9">
+      <c r="B52" s="43"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="5"/>
@@ -2324,69 +2341,63 @@
       <c r="H52" s="6"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="29" t="s">
+    <row r="53" spans="2:9">
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C54" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B54" s="29"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B55" s="29"/>
-      <c r="C55" s="28"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="69.599999999999994">
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="34.799999999999997">
+      <c r="B56" s="43"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="29"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
@@ -2396,37 +2407,39 @@
         <v>9</v>
       </c>
       <c r="H56" s="9"/>
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="29"/>
-      <c r="C57" s="28" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="43"/>
+      <c r="C58" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B58" s="29"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>8</v>
@@ -2434,15 +2447,15 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B59" s="29"/>
-      <c r="C59" s="28"/>
+    <row r="59" spans="2:9">
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>8</v>
@@ -2450,29 +2463,29 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="29"/>
-      <c r="C60" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>61</v>
+    <row r="60" spans="2:9">
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="29"/>
-      <c r="C61" s="28"/>
+    <row r="61" spans="2:9">
+      <c r="B61" s="43"/>
+      <c r="C61" s="44" t="s">
+        <v>61</v>
+      </c>
       <c r="D61" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="5" t="s">
@@ -2482,35 +2495,33 @@
         <v>9</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="29"/>
-      <c r="C62" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>15</v>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="29"/>
-      <c r="C63" s="28"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="52.2">
+      <c r="B63" s="43"/>
+      <c r="C63" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="D63" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
@@ -2521,329 +2532,327 @@
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="34.799999999999997">
+      <c r="B64" s="43"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="35" t="s">
+    <row r="65" spans="2:9" ht="70.2" customHeight="1">
+      <c r="B65" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C65" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="41" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="F65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H65" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="7" t="s">
+      <c r="I65" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="6" t="s">
+      <c r="F66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="5" t="s">
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="6" t="s">
+      <c r="F67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28" t="s">
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="2:9" ht="139.19999999999999">
+      <c r="B68" s="44"/>
+      <c r="C68" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D68" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B69" s="28"/>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="2:9" ht="52.2">
+      <c r="B70" s="44"/>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I69" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="34" t="s">
+      <c r="I70" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="37"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H71" s="6"/>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B72" s="37"/>
+      <c r="I71" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="48"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="2:9" ht="52.2">
+      <c r="B73" s="48"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="8" t="s">
+      <c r="F73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B73" s="37"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="1" t="s">
+    <row r="74" spans="2:9">
+      <c r="B74" s="48"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B74" s="37"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17" t="s">
+      <c r="F74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="2:9" ht="34.799999999999997">
+      <c r="B75" s="48"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E75" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="5" t="s">
+      <c r="F75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="37"/>
-      <c r="C75" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="48"/>
+      <c r="C76" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B76" s="36" t="s">
+    <row r="77" spans="2:9">
+      <c r="B77" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B77" s="36"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B78" s="36"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="45"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="19" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B79" s="36"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="45"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="36"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="45"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>14</v>
@@ -2851,57 +2860,57 @@
       <c r="G80" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="I80" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B81" s="36"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="45"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="7" t="s">
-        <v>81</v>
+      <c r="E81" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B82" s="36"/>
+        <v>14</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="45"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="19" t="s">
-        <v>43</v>
+      <c r="E82" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B83" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="45"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="19" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>14</v>
@@ -2910,58 +2919,60 @@
         <v>14</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="36"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="45"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="7" t="s">
-        <v>111</v>
+      <c r="E84" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B85" s="36" t="s">
-        <v>34</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="148.19999999999999" customHeight="1">
+      <c r="B85" s="45"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="19" t="s">
-        <v>35</v>
+      <c r="E85" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B86" s="36"/>
+      <c r="H85" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="45" t="s">
+        <v>34</v>
+      </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>8</v>
@@ -2970,66 +2981,84 @@
         <v>14</v>
       </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="20" t="s">
+      <c r="I86" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="45"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="20" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="I5:I10"/>
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B4:B22"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I19:I21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F72:F73">
+  <conditionalFormatting sqref="F73:F74">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:G22 G1:G20">
+  <conditionalFormatting sqref="F22:G23 G1:G18">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G1048576">
+  <conditionalFormatting sqref="G24:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>
@@ -3048,13 +3077,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3062,7 +3091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -3070,7 +3099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>100</v>
       </c>
@@ -3078,7 +3107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
         <v>53</v>
       </c>
@@ -3086,7 +3115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
         <v>55</v>
       </c>
@@ -3094,7 +3123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
         <v>75</v>
       </c>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B367BEA0-4456-4C39-994B-C10A1394CC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E46546-1F19-4D83-96BD-26992F68B8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="147">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,7 +755,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비고 내용 수정</t>
+    <t>해당 권한 그룹에 속한 사용자가 없을 때만 삭제 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 추가/수정/삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 사용자 추가/삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,7 +1070,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,64 +1160,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1510,13 +1518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I87"/>
+  <dimension ref="B2:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1530,22 +1538,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="54" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1562,13 +1570,13 @@
       <c r="E3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="53"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1588,11 +1596,11 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="51"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1605,14 +1613,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="56" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="51"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="26" t="s">
         <v>128</v>
       </c>
@@ -1623,12 +1631,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="39"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="51"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="26" t="s">
         <v>129</v>
       </c>
@@ -1639,12 +1647,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="51"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="26" t="s">
         <v>130</v>
       </c>
@@ -1655,12 +1663,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="39"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="51"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="19" t="s">
         <v>132</v>
       </c>
@@ -1671,12 +1679,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="39"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="51"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="19" t="s">
         <v>131</v>
       </c>
@@ -1687,14 +1695,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="40"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="51"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1707,14 +1715,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="51"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="26" t="s">
         <v>134</v>
       </c>
@@ -1725,12 +1733,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="57"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="51"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="19" t="s">
         <v>131</v>
       </c>
@@ -1741,12 +1749,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="39"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="51"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="19" t="s">
         <v>132</v>
       </c>
@@ -1757,12 +1765,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="39"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="51"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="19" t="s">
         <v>129</v>
       </c>
@@ -1773,11 +1781,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="40"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="51"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="19" t="s">
         <v>76</v>
       </c>
@@ -1794,7 +1802,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="51"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
@@ -1812,7 +1820,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="51"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
@@ -1830,14 +1838,14 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="51"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1847,65 +1855,67 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="51"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="60"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="41"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="61"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="51"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="42"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="51"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="61"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="41"/>
+      <c r="C23" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="52"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="5" t="s">
@@ -1918,38 +1928,36 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>135</v>
-      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>9</v>
@@ -1958,16 +1966,16 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>9</v>
@@ -1976,15 +1984,13 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
-        <v>31</v>
-      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>135</v>
+        <v>16</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>8</v>
@@ -1996,16 +2002,18 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>9</v>
@@ -2014,16 +2022,16 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>9</v>
@@ -2032,32 +2040,34 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="43"/>
-      <c r="C30" s="44" t="s">
-        <v>58</v>
-      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="D31" s="5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
@@ -2066,14 +2076,14 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>8</v>
@@ -2082,26 +2092,30 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C34" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="5"/>
@@ -2110,10 +2124,10 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
@@ -2122,12 +2136,10 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
@@ -2136,10 +2148,12 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="D37" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="5"/>
@@ -2148,10 +2162,10 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="5"/>
@@ -2160,14 +2174,10 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>69</v>
-      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="5"/>
@@ -2176,10 +2186,14 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
@@ -2188,10 +2202,10 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="5"/>
@@ -2200,12 +2214,10 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="43"/>
-      <c r="C42" s="44" t="s">
-        <v>70</v>
-      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
@@ -2214,10 +2226,12 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="D43" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="5"/>
@@ -2226,10 +2240,10 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="5"/>
@@ -2238,12 +2252,10 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="43"/>
-      <c r="C45" s="44" t="s">
-        <v>71</v>
-      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
@@ -2252,10 +2264,12 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="D46" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="5"/>
@@ -2264,10 +2278,10 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
@@ -2276,14 +2290,10 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>73</v>
-      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
@@ -2292,10 +2302,14 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
+      <c r="B49" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="D49" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
@@ -2304,10 +2318,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
@@ -2316,12 +2330,10 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="43"/>
-      <c r="C51" s="44" t="s">
-        <v>74</v>
-      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
@@ -2330,10 +2342,12 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="43"/>
-      <c r="C52" s="44"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="D52" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="5"/>
@@ -2342,10 +2356,10 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="5"/>
@@ -2354,68 +2368,62 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="38"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C55" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D55" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="69.599999999999994">
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="69.599999999999994">
+      <c r="B56" s="38"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="34.799999999999997">
-      <c r="B56" s="43"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="7" t="s">
+    <row r="57" spans="2:9" ht="34.799999999999997">
+      <c r="B57" s="38"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
@@ -2425,37 +2433,39 @@
         <v>9</v>
       </c>
       <c r="H57" s="9"/>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="38"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="43"/>
-      <c r="C58" s="44" t="s">
+    <row r="59" spans="2:9">
+      <c r="B59" s="38"/>
+      <c r="C59" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>8</v>
@@ -2464,14 +2474,14 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>8</v>
@@ -2480,28 +2490,28 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="43"/>
-      <c r="C61" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>61</v>
+      <c r="B61" s="38"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="D62" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="5" t="s">
@@ -2511,35 +2521,33 @@
         <v>9</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="52.2">
-      <c r="B63" s="43"/>
-      <c r="C63" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>15</v>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="38"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="34.799999999999997">
-      <c r="B64" s="43"/>
-      <c r="C64" s="44"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="52.2">
+      <c r="B64" s="38"/>
+      <c r="C64" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="D64" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="5" t="s">
@@ -2550,329 +2558,327 @@
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="34.799999999999997">
+      <c r="B65" s="38"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B65" s="46" t="s">
+    <row r="66" spans="2:9" ht="70.2" customHeight="1">
+      <c r="B66" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C66" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="23" t="s">
+      <c r="D66" s="15"/>
+      <c r="E66" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="15" t="s">
+      <c r="F66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H66" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I65" s="28" t="s">
+      <c r="I66" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="7" t="s">
+    <row r="67" spans="2:9">
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="6" t="s">
+      <c r="F67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="5" t="s">
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="6" t="s">
+      <c r="F68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9" ht="139.19999999999999">
-      <c r="B68" s="44"/>
-      <c r="C68" s="44" t="s">
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="2:9" ht="139.19999999999999">
+      <c r="B69" s="37"/>
+      <c r="C69" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" ht="52.2">
-      <c r="B70" s="44"/>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="2:9" ht="52.2">
+      <c r="B71" s="37"/>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I71" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="47" t="s">
+    <row r="72" spans="2:9">
+      <c r="B72" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="48"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H72" s="6"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="2:9" ht="52.2">
-      <c r="B73" s="48"/>
+      <c r="I72" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="45"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="2:9" ht="52.2">
+      <c r="B74" s="45"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="8" t="s">
+      <c r="F74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="48"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="1" t="s">
+    <row r="75" spans="2:9">
+      <c r="B75" s="45"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="2:9" ht="34.799999999999997">
-      <c r="B75" s="48"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17" t="s">
+      <c r="F75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="2:9" ht="34.799999999999997">
+      <c r="B76" s="45"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E76" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="F76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="48"/>
-      <c r="C76" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="45"/>
+      <c r="C77" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="45" t="s">
+    <row r="78" spans="2:9">
+      <c r="B78" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="45"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H78" s="6"/>
       <c r="I78" s="20" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="45"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="19" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="45"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="45"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>14</v>
@@ -2880,57 +2886,57 @@
       <c r="G81" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="6"/>
+      <c r="H81" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="I81" s="20" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="45"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="7" t="s">
-        <v>81</v>
+      <c r="E82" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="45"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="19" t="s">
-        <v>43</v>
+      <c r="E83" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>44</v>
+        <v>82</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="45"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="19" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>14</v>
@@ -2939,58 +2945,60 @@
         <v>14</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B85" s="45"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="46"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="7" t="s">
-        <v>111</v>
+      <c r="E85" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="45" t="s">
-        <v>34</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="148.19999999999999" customHeight="1">
+      <c r="B86" s="46"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="19" t="s">
-        <v>35</v>
+      <c r="E86" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="22" t="s">
-        <v>36</v>
+      <c r="H86" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="45"/>
+      <c r="B87" s="46" t="s">
+        <v>34</v>
+      </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>8</v>
@@ -2999,66 +3007,84 @@
         <v>14</v>
       </c>
       <c r="H87" s="6"/>
-      <c r="I87" s="20" t="s">
+      <c r="I87" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="46"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="20" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B55:B65"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B4:B24"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F73:F74">
+  <conditionalFormatting sqref="F74:F75">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G23 G1:G18">
+  <conditionalFormatting sqref="F23:G24 G1:G18">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G1048576">
+  <conditionalFormatting sqref="G25:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E46546-1F19-4D83-96BD-26992F68B8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE12AF2C-EE1E-4FBB-B4E9-B90C9EBD9A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="149">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,10 +582,6 @@
       <t xml:space="preserve">
 조회수</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록 조회 및 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,7 +759,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그룹 사용자 추가/삭제</t>
+    <t>그룹 사용자 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 사용자 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 선택 공통 모달 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래그 앤 드롭을 통해 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,54 +1081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,6 +1125,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I88"/>
+  <dimension ref="B2:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
@@ -1533,27 +1541,27 @@
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.3984375" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="64.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="70.8984375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="56" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1570,13 +1578,13 @@
       <c r="E3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1596,168 +1604,168 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="41"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="37" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="54"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="41"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="54"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="57"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="41"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="54"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="41"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="54"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="54"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="41"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="19" t="s">
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="54"/>
+      <c r="C11" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="41"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="19" t="s">
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="54"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="54"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="54"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="41"/>
-      <c r="C11" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1765,14 +1773,14 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="55"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1781,11 +1789,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="58"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="41"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="19" t="s">
         <v>76</v>
       </c>
@@ -1802,7 +1810,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="41"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
@@ -1820,7 +1828,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="41"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
@@ -1838,12 +1846,12 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="41"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>126</v>
+      <c r="D19" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>15</v>
@@ -1855,83 +1863,87 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="59" t="s">
-        <v>136</v>
+      <c r="I19" s="43" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="41"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="54"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="54"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="41"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="41"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="54"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="61"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="41"/>
-      <c r="C23" s="43" t="s">
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="54"/>
+      <c r="C24" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="42"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="5" t="s">
@@ -1944,38 +1956,36 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>135</v>
-      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="38"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>9</v>
@@ -1984,16 +1994,16 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>9</v>
@@ -2002,15 +2012,13 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="38"/>
-      <c r="C28" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>135</v>
+        <v>16</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>8</v>
@@ -2022,16 +2030,18 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="38"/>
-      <c r="C29" s="37"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>134</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>9</v>
@@ -2040,16 +2050,16 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="38"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>9</v>
@@ -2058,32 +2068,34 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="38"/>
-      <c r="C31" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="38"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="D32" s="5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>8</v>
@@ -2092,14 +2104,14 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="38"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>8</v>
@@ -2108,26 +2120,30 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C35" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="38"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
@@ -2136,10 +2152,10 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="38"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
@@ -2148,12 +2164,10 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="38"/>
-      <c r="C37" s="37" t="s">
-        <v>67</v>
-      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="5"/>
@@ -2162,10 +2176,12 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="38"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47" t="s">
+        <v>67</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="5"/>
@@ -2174,10 +2190,10 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="38"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="5"/>
@@ -2186,14 +2202,10 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
@@ -2202,10 +2214,14 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="38"/>
-      <c r="C41" s="37"/>
+      <c r="B41" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>69</v>
+      </c>
       <c r="D41" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="5"/>
@@ -2214,10 +2230,10 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="38"/>
-      <c r="C42" s="37"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
@@ -2226,12 +2242,10 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="38"/>
-      <c r="C43" s="37" t="s">
-        <v>70</v>
-      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="5"/>
@@ -2240,10 +2254,12 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="38"/>
-      <c r="C44" s="37"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="D44" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="5"/>
@@ -2252,10 +2268,10 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="38"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
@@ -2264,12 +2280,10 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="38"/>
-      <c r="C46" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="5"/>
@@ -2278,10 +2292,12 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="38"/>
-      <c r="C47" s="37"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="47" t="s">
+        <v>71</v>
+      </c>
       <c r="D47" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
@@ -2290,10 +2306,10 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="38"/>
-      <c r="C48" s="37"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
@@ -2302,14 +2318,10 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>73</v>
-      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
@@ -2318,10 +2330,14 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="38"/>
-      <c r="C50" s="37"/>
+      <c r="B50" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>73</v>
+      </c>
       <c r="D50" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
@@ -2330,10 +2346,10 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="38"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
@@ -2342,12 +2358,10 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="38"/>
-      <c r="C52" s="37" t="s">
-        <v>74</v>
-      </c>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="5"/>
@@ -2356,10 +2370,12 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="38"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="D53" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="5"/>
@@ -2368,10 +2384,10 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="5"/>
@@ -2380,68 +2396,62 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C56" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="69.599999999999994">
-      <c r="B56" s="38"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="34.799999999999997">
-      <c r="B57" s="38"/>
-      <c r="C57" s="37"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="69.599999999999994">
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="34.799999999999997">
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="38"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
@@ -2451,37 +2461,39 @@
         <v>9</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="9" t="s">
+      <c r="I58" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="38"/>
-      <c r="C59" s="37" t="s">
+    <row r="60" spans="2:9">
+      <c r="B60" s="46"/>
+      <c r="C60" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="38"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>8</v>
@@ -2490,14 +2502,14 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="38"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>8</v>
@@ -2506,28 +2518,28 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="38"/>
-      <c r="C62" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>61</v>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="38"/>
-      <c r="C63" s="37"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47" t="s">
+        <v>61</v>
+      </c>
       <c r="D63" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
@@ -2537,35 +2549,33 @@
         <v>9</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="52.2">
-      <c r="B64" s="38"/>
-      <c r="C64" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>15</v>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="34.799999999999997">
-      <c r="B65" s="38"/>
-      <c r="C65" s="37"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="52.2">
+      <c r="B65" s="46"/>
+      <c r="C65" s="47" t="s">
+        <v>27</v>
+      </c>
       <c r="D65" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="5" t="s">
@@ -2576,329 +2586,327 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="34.799999999999997">
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B66" s="44" t="s">
+    <row r="67" spans="2:9" ht="70.2" customHeight="1">
+      <c r="B67" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C67" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="23" t="s">
+      <c r="D67" s="15"/>
+      <c r="E67" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="15" t="s">
+      <c r="F67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H67" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I66" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="7" t="s">
+      <c r="I67" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="6" t="s">
+      <c r="F68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="5" t="s">
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="6" t="s">
+      <c r="F69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" ht="139.19999999999999">
-      <c r="B69" s="37"/>
-      <c r="C69" s="37" t="s">
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="2:9" ht="139.19999999999999">
+      <c r="B70" s="47"/>
+      <c r="C70" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D70" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" ht="52.2">
-      <c r="B71" s="37"/>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H71" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="2:9" ht="52.2">
+      <c r="B72" s="47"/>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="43" t="s">
+      <c r="I72" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="45"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H73" s="6"/>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="2:9" ht="52.2">
-      <c r="B74" s="45"/>
+      <c r="I73" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="51"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="2:9" ht="52.2">
+      <c r="B75" s="51"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="8" t="s">
+      <c r="F75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="45"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="1" t="s">
+    <row r="76" spans="2:9">
+      <c r="B76" s="51"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E76" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="2:9" ht="34.799999999999997">
-      <c r="B76" s="45"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17" t="s">
+      <c r="F76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="2:9" ht="34.799999999999997">
+      <c r="B77" s="51"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E77" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="5" t="s">
+      <c r="F77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="45"/>
-      <c r="C77" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="51"/>
+      <c r="C78" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="46" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="46"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H79" s="6"/>
       <c r="I79" s="20" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="46"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="46"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="46"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>14</v>
@@ -2906,57 +2914,57 @@
       <c r="G82" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="6"/>
+      <c r="H82" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="I82" s="20" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="46"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="7" t="s">
-        <v>81</v>
+      <c r="E83" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="46"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="19" t="s">
-        <v>43</v>
+      <c r="E84" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>44</v>
+        <v>82</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="46"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="19" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>14</v>
@@ -2965,58 +2973,60 @@
         <v>14</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B86" s="46"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="48"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="7" t="s">
-        <v>111</v>
+      <c r="E86" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="46" t="s">
-        <v>34</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="148.19999999999999" customHeight="1">
+      <c r="B87" s="48"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="19" t="s">
-        <v>35</v>
+      <c r="E87" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="22" t="s">
-        <v>36</v>
+      <c r="H87" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="46"/>
+      <c r="B88" s="48" t="s">
+        <v>34</v>
+      </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>8</v>
@@ -3025,66 +3035,84 @@
         <v>14</v>
       </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="20" t="s">
+      <c r="I88" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="48"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="20" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B4:B25"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D19:D23"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="D5:D10"/>
     <mergeCell ref="I5:I10"/>
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B78:B86"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B55:B65"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B4:B24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I19:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F74:F75">
+  <conditionalFormatting sqref="F75:F76">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:G24 G1:G18">
+  <conditionalFormatting sqref="F24:G25 G1:G18">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G1048576">
+  <conditionalFormatting sqref="G26:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE12AF2C-EE1E-4FBB-B4E9-B90C9EBD9A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EAFA08-3E07-4147-AD28-BB8EB32E53C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -557,31 +557,6 @@
   </si>
   <si>
     <t>사용자가 요청한 URL 내역을 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에디터 내용 조회</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-조회수</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -772,6 +747,11 @@
   </si>
   <si>
     <t>드래그 앤 드롭을 통해 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 내용 조회
+조회수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,6 +1061,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,54 +1153,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,10 +1509,10 @@
   <dimension ref="B2:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1546,22 +1526,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1578,13 +1558,13 @@
       <c r="E3" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="56"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1604,168 +1584,168 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="54"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="41"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="54"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="41"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="54"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="41"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="54"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="41"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="41"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="54"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="19" t="s">
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="58"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="41"/>
+      <c r="C11" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="54"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="19" t="s">
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="41"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="41"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="54"/>
-      <c r="C11" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="54"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="54"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="54"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1773,14 +1753,14 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="41"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="54"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1789,11 +1769,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="42"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="54"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="19" t="s">
         <v>76</v>
       </c>
@@ -1810,7 +1790,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="54"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="5" t="s">
         <v>57</v>
       </c>
@@ -1828,7 +1808,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="54"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
@@ -1846,11 +1826,11 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="54"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="47" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1863,83 +1843,83 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="43" t="s">
-        <v>135</v>
+      <c r="I19" s="59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="54"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="41"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="60"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="41"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="44"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="54"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="54"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="19" t="s">
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="60"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="41"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="54"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="54"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="43" t="s">
         <v>107</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1956,8 +1936,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="55"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="7" t="s">
         <v>106</v>
       </c>
@@ -1972,17 +1952,17 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>8</v>
@@ -1994,8 +1974,8 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="5" t="s">
         <v>66</v>
       </c>
@@ -2012,8 +1992,8 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
@@ -2030,15 +2010,15 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>8</v>
@@ -2050,8 +2030,8 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -2068,8 +2048,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2086,8 +2066,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2104,8 +2084,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="5" t="s">
         <v>66</v>
       </c>
@@ -2120,8 +2100,8 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2136,10 +2116,10 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="37" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2152,8 +2132,8 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7" t="s">
         <v>66</v>
       </c>
@@ -2164,8 +2144,8 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
@@ -2176,8 +2156,8 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2190,8 +2170,8 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="7" t="s">
         <v>66</v>
       </c>
@@ -2202,8 +2182,8 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
@@ -2214,10 +2194,10 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2230,8 +2210,8 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7" t="s">
         <v>66</v>
       </c>
@@ -2242,8 +2222,8 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
@@ -2254,8 +2234,8 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="46"/>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2268,8 +2248,8 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="7" t="s">
         <v>66</v>
       </c>
@@ -2280,8 +2260,8 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2292,8 +2272,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2306,8 +2286,8 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7" t="s">
         <v>66</v>
       </c>
@@ -2318,8 +2298,8 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2330,10 +2310,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2346,8 +2326,8 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="7" t="s">
         <v>66</v>
       </c>
@@ -2358,8 +2338,8 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2370,8 +2350,8 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="46"/>
-      <c r="C53" s="47" t="s">
+      <c r="B53" s="38"/>
+      <c r="C53" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2384,8 +2364,8 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="7" t="s">
         <v>66</v>
       </c>
@@ -2396,8 +2376,8 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2408,10 +2388,10 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2430,9 +2410,9 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="69.599999999999994">
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="7" t="s">
+      <c r="B57" s="38"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E57" s="7"/>
@@ -2444,13 +2424,13 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="34.799999999999997">
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="7" t="s">
+      <c r="B58" s="38"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="7"/>
@@ -2462,12 +2442,12 @@
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="22" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="7" t="s">
         <v>21</v>
       </c>
@@ -2484,8 +2464,8 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="46"/>
-      <c r="C60" s="47" t="s">
+      <c r="B60" s="38"/>
+      <c r="C60" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2502,8 +2482,8 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="7" t="s">
         <v>66</v>
       </c>
@@ -2518,8 +2498,8 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2534,8 +2514,8 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="46"/>
-      <c r="C63" s="47" t="s">
+      <c r="B63" s="38"/>
+      <c r="C63" s="37" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2552,8 +2532,8 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="5" t="s">
         <v>62</v>
       </c>
@@ -2570,8 +2550,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="52.2">
-      <c r="B65" s="46"/>
-      <c r="C65" s="47" t="s">
+      <c r="B65" s="38"/>
+      <c r="C65" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2586,12 +2566,12 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="34.799999999999997">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="7" t="s">
         <v>28</v>
       </c>
@@ -2608,10 +2588,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2628,12 +2608,12 @@
         <v>37</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2650,8 +2630,8 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2670,8 +2650,8 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" ht="139.19999999999999">
-      <c r="B70" s="47"/>
-      <c r="C70" s="47" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2688,12 +2668,12 @@
         <v>39</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2710,7 +2690,7 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9" ht="52.2">
-      <c r="B72" s="47"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2728,11 +2708,11 @@
         <v>42</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="43" t="s">
         <v>89</v>
       </c>
       <c r="C73" s="5"/>
@@ -2754,7 +2734,7 @@
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="51"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
         <v>93</v>
@@ -2766,7 +2746,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" ht="52.2">
-      <c r="B75" s="51"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
         <v>94</v>
@@ -2786,7 +2766,7 @@
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="51"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
         <v>92</v>
@@ -2804,7 +2784,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9" ht="34.799999999999997">
-      <c r="B77" s="51"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>90</v>
@@ -2824,7 +2804,7 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="51"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="21" t="s">
         <v>113</v>
       </c>
@@ -2842,7 +2822,7 @@
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="5"/>
@@ -2862,7 +2842,7 @@
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="48"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
@@ -2882,7 +2862,7 @@
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="48"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
@@ -2902,7 +2882,7 @@
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="48"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
@@ -2922,7 +2902,7 @@
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="48"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="19" t="s">
@@ -2940,7 +2920,7 @@
       </c>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="48"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7" t="s">
@@ -2960,7 +2940,7 @@
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="48"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="19" t="s">
@@ -2980,7 +2960,7 @@
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="48"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
@@ -3000,7 +2980,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B87" s="48"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7" t="s">
@@ -3016,11 +2996,11 @@
         <v>112</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C88" s="5"/>
@@ -3040,7 +3020,7 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="48"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="19" t="s">
@@ -3059,11 +3039,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B78"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="B35:B40"/>
@@ -3075,31 +3075,11 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">
@@ -3107,7 +3087,7 @@
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G25 G1:G18">
+  <conditionalFormatting sqref="G1:G18 F24:G25">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EAFA08-3E07-4147-AD28-BB8EB32E53C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA1E3C-E440-4B2E-AEC7-FDE327759E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>메인 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -754,12 +750,48 @@
 조회수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>팝업 띄우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>오늘 하루 표시 안 함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +883,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -967,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,54 +1102,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1153,6 +1146,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,13 +1553,13 @@
   <dimension ref="B2:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
@@ -1525,227 +1569,227 @@
     <col min="9" max="9" width="70.8984375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1">
+    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="40" t="s">
-        <v>23</v>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="53" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="41"/>
-      <c r="C5" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="54"/>
+      <c r="C5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="54"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="41"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="54"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="57"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="41"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="54"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="41"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="54"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="54"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="41"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="19" t="s">
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="54"/>
+      <c r="C11" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="41"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="19" t="s">
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="54"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="54"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="54"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="41"/>
-      <c r="C11" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="19" t="s">
-        <v>130</v>
-      </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1753,14 +1797,14 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="55"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>9</v>
@@ -1769,13 +1813,13 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="41"/>
-      <c r="C16" s="39"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="54"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
@@ -1786,13 +1830,13 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="41"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="54"/>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>15</v>
@@ -1807,10 +1851,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="41"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="54"/>
       <c r="C18" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -1825,12 +1869,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="41"/>
-      <c r="C19" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="47" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="54"/>
+      <c r="C19" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1843,87 +1887,87 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="41"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="48"/>
+      <c r="I19" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="54"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="54"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="41"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21" s="60"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="41"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="19" t="s">
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="54"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="60"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="41"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="61"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="41"/>
-      <c r="C24" s="43" t="s">
-        <v>107</v>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="54"/>
+      <c r="C24" s="50" t="s">
+        <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="5" t="s">
@@ -1935,11 +1979,11 @@
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="55"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="5" t="s">
@@ -1951,18 +1995,18 @@
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>30</v>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>8</v>
@@ -1973,11 +2017,11 @@
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -1991,9 +2035,9 @@
       <c r="H27" s="6"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
@@ -2009,16 +2053,16 @@
       <c r="H28" s="6"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="38"/>
-      <c r="C29" s="37" t="s">
-        <v>31</v>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="46"/>
+      <c r="C29" s="47" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>8</v>
@@ -2029,11 +2073,11 @@
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="38"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>18</v>
@@ -2047,9 +2091,9 @@
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="38"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2065,10 +2109,10 @@
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="38"/>
-      <c r="C32" s="37" t="s">
-        <v>58</v>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="46"/>
+      <c r="C32" s="47" t="s">
+        <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>15</v>
@@ -2083,11 +2127,11 @@
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="38"/>
-      <c r="C33" s="37"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
@@ -2099,9 +2143,9 @@
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="38"/>
-      <c r="C34" s="37"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2115,12 +2159,12 @@
       <c r="H34" s="6"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>65</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>15</v>
@@ -2131,11 +2175,11 @@
       <c r="H35" s="6"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="38"/>
-      <c r="C36" s="37"/>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
@@ -2143,9 +2187,9 @@
       <c r="H36" s="6"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="38"/>
-      <c r="C37" s="37"/>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
@@ -2155,10 +2199,10 @@
       <c r="H37" s="6"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="38"/>
-      <c r="C38" s="37" t="s">
-        <v>67</v>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="46"/>
+      <c r="C38" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>15</v>
@@ -2169,11 +2213,11 @@
       <c r="H38" s="6"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="38"/>
-      <c r="C39" s="37"/>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="5"/>
@@ -2181,9 +2225,9 @@
       <c r="H39" s="6"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="38"/>
-      <c r="C40" s="37"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
@@ -2193,12 +2237,12 @@
       <c r="H40" s="6"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="38" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="47" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>69</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>15</v>
@@ -2209,11 +2253,11 @@
       <c r="H41" s="6"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="38"/>
-      <c r="C42" s="37"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
@@ -2221,9 +2265,9 @@
       <c r="H42" s="6"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="38"/>
-      <c r="C43" s="37"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="46"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
@@ -2233,10 +2277,10 @@
       <c r="H43" s="6"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="38"/>
-      <c r="C44" s="37" t="s">
-        <v>70</v>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="46"/>
+      <c r="C44" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>15</v>
@@ -2247,11 +2291,11 @@
       <c r="H44" s="6"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="38"/>
-      <c r="C45" s="37"/>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="46"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
@@ -2259,9 +2303,9 @@
       <c r="H45" s="6"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="38"/>
-      <c r="C46" s="37"/>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2271,10 +2315,10 @@
       <c r="H46" s="6"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="38"/>
-      <c r="C47" s="37" t="s">
-        <v>71</v>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="46"/>
+      <c r="C47" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>15</v>
@@ -2285,11 +2329,11 @@
       <c r="H47" s="6"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="38"/>
-      <c r="C48" s="37"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="46"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
@@ -2297,9 +2341,9 @@
       <c r="H48" s="6"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="38"/>
-      <c r="C49" s="37"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="46"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2309,12 +2353,12 @@
       <c r="H49" s="6"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="38" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>73</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>15</v>
@@ -2325,11 +2369,11 @@
       <c r="H50" s="6"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="38"/>
-      <c r="C51" s="37"/>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
@@ -2337,9 +2381,9 @@
       <c r="H51" s="6"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="38"/>
-      <c r="C52" s="37"/>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2349,10 +2393,10 @@
       <c r="H52" s="6"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="38"/>
-      <c r="C53" s="37" t="s">
-        <v>74</v>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="46"/>
+      <c r="C53" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>15</v>
@@ -2363,11 +2407,11 @@
       <c r="H53" s="6"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="5"/>
@@ -2375,9 +2419,9 @@
       <c r="H54" s="6"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2387,11 +2431,11 @@
       <c r="H55" s="6"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="37" t="s">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="62" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2409,11 +2453,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="69.599999999999994">
-      <c r="B57" s="38"/>
-      <c r="C57" s="37"/>
+    <row r="57" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="5" t="s">
@@ -2424,12 +2468,12 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="34.799999999999997">
-      <c r="B58" s="38"/>
-      <c r="C58" s="37"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
@@ -2442,13 +2486,13 @@
       </c>
       <c r="H58" s="9"/>
       <c r="I58" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="38"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="7"/>
@@ -2459,14 +2503,14 @@
         <v>9</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="38"/>
-      <c r="C60" s="37" t="s">
-        <v>60</v>
+      <c r="I59" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="46"/>
+      <c r="C60" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>15</v>
@@ -2481,11 +2525,11 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="38"/>
-      <c r="C61" s="37"/>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="5" t="s">
@@ -2497,9 +2541,9 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="38"/>
-      <c r="C62" s="37"/>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2513,13 +2557,13 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="38"/>
-      <c r="C63" s="37" t="s">
-        <v>61</v>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="46"/>
+      <c r="C63" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
@@ -2531,11 +2575,11 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="38"/>
-      <c r="C64" s="37"/>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="5" t="s">
@@ -2546,13 +2590,13 @@
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="52.2">
-      <c r="B65" s="38"/>
-      <c r="C65" s="37" t="s">
-        <v>27</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B65" s="46"/>
+      <c r="C65" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>15</v>
@@ -2566,14 +2610,14 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="34.799999999999997">
-      <c r="B66" s="38"/>
-      <c r="C66" s="37"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="5" t="s">
@@ -2584,14 +2628,14 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B67" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2605,15 +2649,15 @@
         <v>14</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2625,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2645,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" ht="139.19999999999999">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37" t="s">
+    <row r="70" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B70" s="47"/>
+      <c r="C70" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2665,15 +2709,15 @@
         <v>14</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2685,12 +2729,12 @@
         <v>8</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" ht="52.2">
-      <c r="B72" s="37"/>
+    <row r="72" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B72" s="47"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2705,22 +2749,22 @@
         <v>8</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="43" t="s">
-        <v>89</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B73" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>8</v>
@@ -2730,14 +2774,14 @@
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="45"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B74" s="51"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="5"/>
@@ -2745,14 +2789,14 @@
       <c r="H74" s="6"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="2:9" ht="52.2">
-      <c r="B75" s="45"/>
+    <row r="75" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B75" s="51"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>8</v>
@@ -2762,17 +2806,17 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="45"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B76" s="51"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>8</v>
@@ -2783,14 +2827,14 @@
       <c r="H76" s="6"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="2:9" ht="34.799999999999997">
-      <c r="B77" s="45"/>
+    <row r="77" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B77" s="51"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>9</v>
@@ -2800,13 +2844,13 @@
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="45"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="51"/>
       <c r="C78" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="7"/>
@@ -2818,17 +2862,17 @@
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="46" t="s">
-        <v>25</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B79" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>9</v>
@@ -2838,35 +2882,35 @@
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="46"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B80" s="48"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="I80" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="46"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B81" s="48"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>9</v>
@@ -2875,18 +2919,18 @@
         <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I81" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="46"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B82" s="48"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>14</v>
@@ -2895,18 +2939,18 @@
         <v>14</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="46"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B83" s="48"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>14</v>
@@ -2916,15 +2960,15 @@
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="46"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B84" s="48"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>14</v>
@@ -2933,18 +2977,18 @@
         <v>8</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="46"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B85" s="48"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>14</v>
@@ -2953,18 +2997,18 @@
         <v>14</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="46"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B86" s="48"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>14</v>
@@ -2973,18 +3017,18 @@
         <v>14</v>
       </c>
       <c r="H86" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I86" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="I86" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B87" s="46"/>
+    </row>
+    <row r="87" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="48"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>9</v>
@@ -2993,20 +3037,20 @@
         <v>14</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="46" t="s">
-        <v>34</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B88" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>8</v>
@@ -3016,15 +3060,15 @@
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="46"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B89" s="48"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>8</v>
@@ -3034,25 +3078,27 @@
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B4:B25"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B79:B87"/>
     <mergeCell ref="C56:C59"/>
@@ -3064,22 +3110,20 @@
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B4:B25"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">
@@ -3111,58 +3155,58 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA1E3C-E440-4B2E-AEC7-FDE327759E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94C9BA-EF73-436A-ABFB-1711B7C7072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -1102,6 +1102,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,57 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,10 +1553,10 @@
   <dimension ref="B2:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1570,22 +1570,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1602,13 +1602,13 @@
       <c r="E3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="56"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1628,11 +1628,11 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="54"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="54" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1645,14 +1645,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="57" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="54"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="26" t="s">
         <v>125</v>
       </c>
@@ -1663,12 +1663,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="41"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="54"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="26" t="s">
         <v>126</v>
       </c>
@@ -1679,12 +1679,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="41"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="54"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
@@ -1695,12 +1695,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="41"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="54"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="19" t="s">
         <v>129</v>
       </c>
@@ -1711,12 +1711,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="41"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="54"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="19" t="s">
         <v>128</v>
       </c>
@@ -1727,14 +1727,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="54"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="54" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1747,14 +1747,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="57" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="54"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="26" t="s">
         <v>131</v>
       </c>
@@ -1765,12 +1765,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="41"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="54"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="19" t="s">
         <v>128</v>
       </c>
@@ -1781,12 +1781,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="41"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="54"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="38"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="19" t="s">
         <v>129</v>
       </c>
@@ -1797,12 +1797,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="41"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="54"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="19" t="s">
         <v>126</v>
       </c>
@@ -1813,11 +1813,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="42"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="54"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="54"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="54"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
@@ -1870,11 +1870,11 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="54"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="48" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1887,14 +1887,14 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="60" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="54"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="7" t="s">
         <v>142</v>
       </c>
@@ -1907,12 +1907,12 @@
       <c r="H20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="61"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="54"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
@@ -1925,12 +1925,12 @@
       <c r="H21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="44"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="54"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="19" t="s">
         <v>143</v>
       </c>
@@ -1941,12 +1941,12 @@
         <v>8</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="44"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="54"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
@@ -1959,11 +1959,11 @@
       <c r="H23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="54"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="43" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1980,8 +1980,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="55"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
@@ -1996,10 +1996,10 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2018,8 +2018,8 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="5" t="s">
         <v>65</v>
       </c>
@@ -2036,8 +2036,8 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
@@ -2054,8 +2054,8 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2074,8 +2074,8 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
@@ -2092,8 +2092,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2110,8 +2110,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="46"/>
-      <c r="C32" s="47" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="37" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2128,8 +2128,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
@@ -2144,8 +2144,8 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2160,10 +2160,10 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="37" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2176,8 +2176,8 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
@@ -2188,20 +2188,19 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="37" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2211,11 +2210,11 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
@@ -2226,8 +2225,8 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
@@ -2238,10 +2237,10 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2254,8 +2253,8 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
@@ -2266,8 +2265,8 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
@@ -2278,8 +2277,8 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="46"/>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2292,8 +2291,8 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -2304,8 +2303,8 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2316,8 +2315,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2330,8 +2329,8 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
@@ -2342,8 +2341,8 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2354,10 +2353,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="37" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2370,8 +2369,8 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="7" t="s">
         <v>65</v>
       </c>
@@ -2382,8 +2381,8 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2394,8 +2393,8 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="46"/>
-      <c r="C53" s="47" t="s">
+      <c r="B53" s="38"/>
+      <c r="C53" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2408,8 +2407,8 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
@@ -2420,8 +2419,8 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2432,10 +2431,10 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="47" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2454,8 +2453,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
@@ -2472,8 +2471,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
@@ -2490,8 +2489,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="19" t="s">
         <v>21</v>
       </c>
@@ -2508,8 +2507,8 @@
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="46"/>
-      <c r="C60" s="47" t="s">
+      <c r="B60" s="38"/>
+      <c r="C60" s="37" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2526,8 +2525,8 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2542,8 +2541,8 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2558,8 +2557,8 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="46"/>
-      <c r="C63" s="47" t="s">
+      <c r="B63" s="38"/>
+      <c r="C63" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2576,8 +2575,8 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
@@ -2594,8 +2593,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B65" s="46"/>
-      <c r="C65" s="47" t="s">
+      <c r="B65" s="38"/>
+      <c r="C65" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2614,8 +2613,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="7" t="s">
         <v>27</v>
       </c>
@@ -2632,10 +2631,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2656,8 +2655,8 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2674,8 +2673,8 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2694,8 +2693,8 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B70" s="47"/>
-      <c r="C70" s="47" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2716,8 +2715,8 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2734,7 +2733,7 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B72" s="47"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2756,7 +2755,7 @@
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="43" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="5"/>
@@ -2778,7 +2777,7 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="51"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
         <v>92</v>
@@ -2790,7 +2789,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B75" s="51"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
         <v>93</v>
@@ -2810,7 +2809,7 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B76" s="51"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
         <v>91</v>
@@ -2828,7 +2827,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B77" s="51"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>89</v>
@@ -2848,7 +2847,7 @@
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B78" s="51"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="21" t="s">
         <v>112</v>
       </c>
@@ -2866,7 +2865,7 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="5"/>
@@ -2886,7 +2885,7 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="48"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
@@ -2906,7 +2905,7 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B81" s="48"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
@@ -2926,7 +2925,7 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B82" s="48"/>
+      <c r="B82" s="46"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
@@ -2946,7 +2945,7 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B83" s="48"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="19" t="s">
@@ -2964,7 +2963,7 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B84" s="48"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7" t="s">
@@ -2984,7 +2983,7 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B85" s="48"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="19" t="s">
@@ -3004,7 +3003,7 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B86" s="48"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
@@ -3024,7 +3023,7 @@
       </c>
     </row>
     <row r="87" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="48"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7" t="s">
@@ -3044,7 +3043,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C88" s="5"/>
@@ -3064,7 +3063,7 @@
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B89" s="48"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="19" t="s">
@@ -3083,11 +3082,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B78"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="B35:B40"/>
@@ -3099,31 +3118,11 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94C9BA-EF73-436A-ABFB-1711B7C7072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E1B6AC-5630-46E9-9EB7-3809D204DDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="156">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,12 +786,50 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>목록 표시 정보
+- 썸네일, 소개, 활동명, 댓글 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 내용
+- 썸네일, 소개, 활동명, 상세내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 표시 정보
+- 썸네일, 소개, 제품명, 가격, 리뷰 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 내용
+- 썸네일, 소개, 제품명, 가격, 상세내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 내용
+- 활동명, 상세내용, 댓글
+입력 내용
+- 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 내용
+- 썸네일, 소개, 제품명, 가격, 상세내용
+기타
+- 장바구니, 구매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalExceptionHandler에서 오류 내용 DB에 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,54 +1140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1197,6 +1187,72 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,16 +1606,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I89"/>
+  <dimension ref="B2:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
@@ -1569,27 +1625,27 @@
     <col min="9" max="9" width="70.8984375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" s="2" customFormat="1">
       <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
@@ -1602,13 +1658,13 @@
       <c r="E3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="40" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="55" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1627,12 +1683,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="51" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="56"/>
+      <c r="C5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1645,14 +1701,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="41"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="55"/>
+    <row r="6" spans="2:9">
+      <c r="B6" s="56"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="26" t="s">
         <v>125</v>
       </c>
@@ -1663,12 +1719,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="58"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="55"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="56"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="26" t="s">
         <v>126</v>
       </c>
@@ -1679,12 +1735,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="55"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="56"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
@@ -1695,12 +1751,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="55"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="56"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="19" t="s">
         <v>129</v>
       </c>
@@ -1711,12 +1767,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="41"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="56"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="56"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="19" t="s">
         <v>128</v>
       </c>
@@ -1727,14 +1783,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="59"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="39" t="s">
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="56"/>
+      <c r="C11" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1747,14 +1803,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="55"/>
+    <row r="12" spans="2:9">
+      <c r="B12" s="56"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="26" t="s">
         <v>131</v>
       </c>
@@ -1765,12 +1821,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="55"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="19" t="s">
         <v>128</v>
       </c>
@@ -1781,12 +1837,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="55"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="56"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="19" t="s">
         <v>129</v>
       </c>
@@ -1797,12 +1853,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="56"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="56"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="19" t="s">
         <v>126</v>
       </c>
@@ -1813,11 +1869,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="59"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="41"/>
-      <c r="C16" s="39"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="56"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
@@ -1833,8 +1889,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="41"/>
+    <row r="17" spans="2:9">
+      <c r="B17" s="56"/>
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1851,8 +1907,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="41"/>
+    <row r="18" spans="2:9">
+      <c r="B18" s="56"/>
       <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
@@ -1869,12 +1925,12 @@
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="41"/>
-      <c r="C19" s="43" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" s="56"/>
+      <c r="C19" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="32" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1887,14 +1943,14 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="44" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="41"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="49"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="56"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>142</v>
       </c>
@@ -1907,12 +1963,12 @@
       <c r="H20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="61"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="41"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="49"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="56"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
@@ -1925,12 +1981,12 @@
       <c r="H21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="61"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="49"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="56"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="19" t="s">
         <v>143</v>
       </c>
@@ -1941,12 +1997,12 @@
         <v>8</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="61"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="41"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="50"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="56"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
@@ -1959,11 +2015,11 @@
       <c r="H23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="62"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="41"/>
-      <c r="C24" s="43" t="s">
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="56"/>
+      <c r="C24" s="52" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -1979,9 +2035,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="57"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
@@ -1995,17 +2051,17 @@
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="2:9">
+      <c r="B26" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="64" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2017,13 +2073,13 @@
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="5" t="s">
+    <row r="27" spans="2:9">
+      <c r="B27" s="47"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="65" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2035,13 +2091,13 @@
       <c r="H27" s="6"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="5" t="s">
+    <row r="28" spans="2:9">
+      <c r="B28" s="47"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="65" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2053,9 +2109,9 @@
       <c r="H28" s="6"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="38"/>
-      <c r="C29" s="37" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="47"/>
+      <c r="C29" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2073,9 +2129,9 @@
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="38"/>
-      <c r="C30" s="37"/>
+    <row r="30" spans="2:9">
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
@@ -2091,9 +2147,9 @@
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="38"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="2:9">
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2109,15 +2165,17 @@
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="38"/>
-      <c r="C32" s="37" t="s">
+    <row r="32" spans="2:9">
+      <c r="B32" s="47"/>
+      <c r="C32" s="48" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="29" t="s">
+        <v>132</v>
+      </c>
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
@@ -2127,13 +2185,15 @@
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="38"/>
-      <c r="C33" s="37"/>
+    <row r="33" spans="2:9">
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F33" s="5" t="s">
         <v>9</v>
       </c>
@@ -2143,13 +2203,15 @@
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="38"/>
-      <c r="C34" s="37"/>
+    <row r="34" spans="2:9">
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F34" s="5" t="s">
         <v>8</v>
       </c>
@@ -2159,11 +2221,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="2:9">
+      <c r="B35" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="48" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2172,12 +2234,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="38"/>
-      <c r="C36" s="37"/>
+    <row r="36" spans="2:9">
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
@@ -2187,20 +2248,21 @@
       <c r="H36" s="6"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="38"/>
-      <c r="C37" s="37"/>
+    <row r="37" spans="2:9">
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="38"/>
-      <c r="C38" s="37" t="s">
+    <row r="38" spans="2:9" ht="34.799999999999997">
+      <c r="B38" s="47"/>
+      <c r="C38" s="48" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2209,38 +2271,44 @@
       <c r="E38" s="7"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="38"/>
-      <c r="C39" s="37"/>
+    <row r="39" spans="2:9" ht="34.799999999999997">
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B40" s="38"/>
-      <c r="C40" s="37"/>
+    <row r="40" spans="2:9" ht="69.599999999999994">
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="30" t="s">
+        <v>154</v>
+      </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B41" s="38" t="s">
+    <row r="41" spans="2:9" ht="34.799999999999997">
+      <c r="B41" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="48" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2249,36 +2317,42 @@
       <c r="E41" s="7"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="30" t="s">
+        <v>149</v>
+      </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="38"/>
-      <c r="C42" s="37"/>
+    <row r="42" spans="2:9" ht="34.799999999999997">
+      <c r="B42" s="47"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="30" t="s">
+        <v>150</v>
+      </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B43" s="38"/>
-      <c r="C43" s="37"/>
+    <row r="43" spans="2:9" ht="69.599999999999994">
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="38"/>
-      <c r="C44" s="37" t="s">
+    <row r="44" spans="2:9">
+      <c r="B44" s="47"/>
+      <c r="C44" s="48" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2290,9 +2364,9 @@
       <c r="H44" s="6"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="38"/>
-      <c r="C45" s="37"/>
+    <row r="45" spans="2:9">
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -2302,9 +2376,9 @@
       <c r="H45" s="6"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="38"/>
-      <c r="C46" s="37"/>
+    <row r="46" spans="2:9">
+      <c r="B46" s="47"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2314,9 +2388,9 @@
       <c r="H46" s="6"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="38"/>
-      <c r="C47" s="37" t="s">
+    <row r="47" spans="2:9">
+      <c r="B47" s="47"/>
+      <c r="C47" s="48" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2328,9 +2402,9 @@
       <c r="H47" s="6"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="38"/>
-      <c r="C48" s="37"/>
+    <row r="48" spans="2:9">
+      <c r="B48" s="47"/>
+      <c r="C48" s="48"/>
       <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
@@ -2340,9 +2414,9 @@
       <c r="H48" s="6"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="38"/>
-      <c r="C49" s="37"/>
+    <row r="49" spans="2:9">
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2352,11 +2426,11 @@
       <c r="H49" s="6"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="38" t="s">
+    <row r="50" spans="2:9">
+      <c r="B50" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2368,9 +2442,9 @@
       <c r="H50" s="6"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="38"/>
-      <c r="C51" s="37"/>
+    <row r="51" spans="2:9">
+      <c r="B51" s="68"/>
+      <c r="C51" s="48"/>
       <c r="D51" s="7" t="s">
         <v>65</v>
       </c>
@@ -2380,9 +2454,9 @@
       <c r="H51" s="6"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="38"/>
-      <c r="C52" s="37"/>
+    <row r="52" spans="2:9">
+      <c r="B52" s="68"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2392,9 +2466,9 @@
       <c r="H52" s="6"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="38"/>
-      <c r="C53" s="37" t="s">
+    <row r="53" spans="2:9">
+      <c r="B53" s="68"/>
+      <c r="C53" s="48" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2406,9 +2480,9 @@
       <c r="H53" s="6"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
+    <row r="54" spans="2:9">
+      <c r="B54" s="68"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
@@ -2418,9 +2492,9 @@
       <c r="H54" s="6"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
+    <row r="55" spans="2:9">
+      <c r="B55" s="68"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2430,11 +2504,11 @@
       <c r="H55" s="6"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="2:9">
+      <c r="B56" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="50" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2452,9 +2526,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B57" s="38"/>
-      <c r="C57" s="37"/>
+    <row r="57" spans="2:9" ht="69.599999999999994">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
@@ -2470,9 +2544,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B58" s="38"/>
-      <c r="C58" s="37"/>
+    <row r="58" spans="2:9" ht="34.799999999999997">
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
@@ -2488,9 +2562,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="38"/>
-      <c r="C59" s="37"/>
+    <row r="59" spans="2:9" ht="34.799999999999997">
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="19" t="s">
         <v>21</v>
       </c>
@@ -2506,9 +2580,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="38"/>
-      <c r="C60" s="37" t="s">
+    <row r="60" spans="2:9">
+      <c r="B60" s="47"/>
+      <c r="C60" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2524,9 +2598,9 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="38"/>
-      <c r="C61" s="37"/>
+    <row r="61" spans="2:9">
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2540,9 +2614,9 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="38"/>
-      <c r="C62" s="37"/>
+    <row r="62" spans="2:9">
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2556,9 +2630,9 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="38"/>
-      <c r="C63" s="37" t="s">
+    <row r="63" spans="2:9">
+      <c r="B63" s="47"/>
+      <c r="C63" s="48" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2574,9 +2648,9 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="38"/>
-      <c r="C64" s="37"/>
+    <row r="64" spans="2:9">
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
@@ -2592,9 +2666,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B65" s="38"/>
-      <c r="C65" s="37" t="s">
+    <row r="65" spans="2:9" ht="52.2">
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2612,9 +2686,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B66" s="38"/>
-      <c r="C66" s="37"/>
+    <row r="66" spans="2:9" ht="34.799999999999997">
+      <c r="B66" s="47"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="7" t="s">
         <v>27</v>
       </c>
@@ -2630,11 +2704,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="44" t="s">
+    <row r="67" spans="2:9" ht="70.2" customHeight="1">
+      <c r="B67" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2654,9 +2728,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
+    <row r="68" spans="2:9">
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2672,9 +2746,9 @@
       </c>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
+    <row r="69" spans="2:9">
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2692,9 +2766,9 @@
       </c>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37" t="s">
+    <row r="70" spans="2:9" ht="139.19999999999999">
+      <c r="B70" s="48"/>
+      <c r="C70" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2714,9 +2788,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
+    <row r="71" spans="2:9">
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2732,8 +2806,8 @@
       </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B72" s="37"/>
+    <row r="72" spans="2:9" ht="52.2">
+      <c r="B72" s="48"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2754,8 +2828,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B73" s="43" t="s">
+    <row r="73" spans="2:9">
+      <c r="B73" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="5"/>
@@ -2776,8 +2850,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="45"/>
+    <row r="74" spans="2:9">
+      <c r="B74" s="53"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
         <v>92</v>
@@ -2788,8 +2862,8 @@
       <c r="H74" s="6"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B75" s="45"/>
+    <row r="75" spans="2:9" ht="52.2">
+      <c r="B75" s="53"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
         <v>93</v>
@@ -2808,8 +2882,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B76" s="45"/>
+    <row r="76" spans="2:9">
+      <c r="B76" s="53"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
         <v>91</v>
@@ -2826,8 +2900,8 @@
       <c r="H76" s="6"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B77" s="45"/>
+    <row r="77" spans="2:9" ht="34.799999999999997">
+      <c r="B77" s="53"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>89</v>
@@ -2846,8 +2920,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B78" s="45"/>
+    <row r="78" spans="2:9">
+      <c r="B78" s="53"/>
       <c r="C78" s="21" t="s">
         <v>112</v>
       </c>
@@ -2864,8 +2938,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B79" s="46" t="s">
+    <row r="79" spans="2:9">
+      <c r="B79" s="49" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="5"/>
@@ -2884,8 +2958,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="46"/>
+    <row r="80" spans="2:9">
+      <c r="B80" s="49"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
@@ -2904,8 +2978,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B81" s="46"/>
+    <row r="81" spans="2:9">
+      <c r="B81" s="49"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
@@ -2924,8 +2998,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B82" s="46"/>
+    <row r="82" spans="2:9">
+      <c r="B82" s="49"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
@@ -2944,12 +3018,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B83" s="46"/>
+    <row r="83" spans="2:9">
+      <c r="B83" s="49"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="19" t="s">
-        <v>101</v>
+      <c r="E83" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>14</v>
@@ -2957,57 +3031,55 @@
       <c r="G83" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B84" s="46"/>
+      <c r="H83" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="49"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="7" t="s">
-        <v>80</v>
+      <c r="E84" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B85" s="46"/>
+        <v>14</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="49"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="19" t="s">
-        <v>42</v>
+      <c r="E85" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B86" s="46"/>
+        <v>81</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="49"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>14</v>
@@ -3016,58 +3088,60 @@
         <v>14</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="46"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="49"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="7" t="s">
-        <v>110</v>
+      <c r="E87" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B88" s="46" t="s">
-        <v>33</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="148.19999999999999" customHeight="1">
+      <c r="B88" s="49"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="19" t="s">
-        <v>34</v>
+      <c r="E88" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B89" s="46"/>
+      <c r="H88" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="49" t="s">
+        <v>33</v>
+      </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>8</v>
@@ -3076,37 +3150,35 @@
         <v>14</v>
       </c>
       <c r="H89" s="6"/>
-      <c r="I89" s="20" t="s">
+      <c r="I89" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="49"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="20" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="B35:B40"/>
@@ -3118,11 +3190,31 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C19:C23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">
@@ -3154,13 +3246,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -3168,7 +3260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
@@ -3176,7 +3268,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
         <v>99</v>
       </c>
@@ -3184,7 +3276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
@@ -3192,7 +3284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
         <v>54</v>
       </c>
@@ -3200,7 +3292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="14" t="s">
         <v>74</v>
       </c>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E1B6AC-5630-46E9-9EB7-3809D204DDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6839B7BD-493B-4DEC-B774-61C3D2EE2632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -787,11 +787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목록 표시 정보
-- 썸네일, 소개, 활동명, 댓글 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력 내용
 - 썸네일, 소개, 활동명, 상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -804,13 +799,6 @@
   <si>
     <t>입력 내용
 - 썸네일, 소개, 제품명, 가격, 상세내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회 내용
-- 활동명, 상세내용, 댓글
-입력 내용
-- 댓글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,6 +810,22 @@
   </si>
   <si>
     <t>GlobalExceptionHandler에서 오류 내용 DB에 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 내용
+- 활동명, 상세내용, 댓글, 좋아요
+입력 내용
+- 댓글, 좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 표시 정보
+- 썸네일, 소개, 활동명, 댓글 개수, 좋아요 개수
+검색 조건
+- 활동명, 
+정렬 조건
+- 등록일 내림차순, 좋아요 내림차순, 활동명 오름차순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,6 +1147,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,72 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,10 +1613,10 @@
   <dimension ref="B2:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1626,22 +1630,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="59" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1658,13 +1662,13 @@
       <c r="E3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1684,11 +1688,11 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="56"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="60" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1701,14 +1705,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="63" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="56"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="26" t="s">
         <v>125</v>
       </c>
@@ -1719,12 +1723,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="42"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="56"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="26" t="s">
         <v>126</v>
       </c>
@@ -1735,12 +1739,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="42"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="56"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
@@ -1751,12 +1755,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="56"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="19" t="s">
         <v>129</v>
       </c>
@@ -1767,12 +1771,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="42"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="56"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="19" t="s">
         <v>128</v>
       </c>
@@ -1783,14 +1787,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="43"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="56"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="60" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1803,14 +1807,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="63" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="56"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="26" t="s">
         <v>131</v>
       </c>
@@ -1821,12 +1825,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="42"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="56"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="19" t="s">
         <v>128</v>
       </c>
@@ -1837,12 +1841,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="42"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="56"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="19" t="s">
         <v>129</v>
       </c>
@@ -1853,12 +1857,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="42"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="56"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="19" t="s">
         <v>126</v>
       </c>
@@ -1869,11 +1873,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="43"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="56"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
@@ -1890,7 +1894,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="56"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1908,7 +1912,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="56"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
@@ -1926,11 +1930,11 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="56"/>
-      <c r="C19" s="52" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="54" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1943,14 +1947,14 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="56"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="7" t="s">
         <v>142</v>
       </c>
@@ -1963,12 +1967,12 @@
       <c r="H20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="56"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
@@ -1981,12 +1985,12 @@
       <c r="H21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="45"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="56"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="33"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="19" t="s">
         <v>143</v>
       </c>
@@ -1997,12 +2001,12 @@
         <v>8</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="45"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="56"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
@@ -2015,11 +2019,11 @@
       <c r="H23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="46"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="56"/>
-      <c r="C24" s="52" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="48" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2036,8 +2040,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="57"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
@@ -2052,16 +2056,16 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="32" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2074,12 +2078,12 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="47"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -2092,12 +2096,12 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="47"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="33" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2110,8 +2114,8 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2130,8 +2134,8 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
@@ -2148,8 +2152,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2166,8 +2170,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="40" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2186,8 +2190,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
@@ -2204,8 +2208,8 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2222,10 +2226,10 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="40" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2237,8 +2241,8 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
@@ -2249,8 +2253,8 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
@@ -2261,8 +2265,8 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" ht="34.799999999999997">
-      <c r="B38" s="47"/>
-      <c r="C38" s="48" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2272,13 +2276,13 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" ht="34.799999999999997">
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
@@ -2286,13 +2290,13 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="69.599999999999994">
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
@@ -2300,15 +2304,15 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" ht="34.799999999999997">
-      <c r="B41" s="47" t="s">
+    <row r="41" spans="2:9" ht="104.4">
+      <c r="B41" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="40" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2318,13 +2322,13 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="30" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="2:9" ht="34.799999999999997">
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
@@ -2332,13 +2336,13 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9" ht="69.599999999999994">
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
@@ -2346,13 +2350,13 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2365,8 +2369,8 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -2377,8 +2381,8 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2389,8 +2393,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="47"/>
-      <c r="C47" s="48" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2403,8 +2407,8 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
@@ -2415,8 +2419,8 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2427,10 +2431,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2443,8 +2447,8 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="68"/>
-      <c r="C51" s="48"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="7" t="s">
         <v>65</v>
       </c>
@@ -2455,8 +2459,8 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="68"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2467,8 +2471,8 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="68"/>
-      <c r="C53" s="48" t="s">
+      <c r="B53" s="53"/>
+      <c r="C53" s="40" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2481,8 +2485,8 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="68"/>
-      <c r="C54" s="48"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
@@ -2493,8 +2497,8 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="68"/>
-      <c r="C55" s="48"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2505,10 +2509,10 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="47" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2527,8 +2531,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="69.599999999999994">
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
@@ -2545,8 +2549,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="34.799999999999997">
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
@@ -2563,8 +2567,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="34.799999999999997">
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="40"/>
       <c r="D59" s="19" t="s">
         <v>21</v>
       </c>
@@ -2581,8 +2585,8 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48" t="s">
+      <c r="B60" s="41"/>
+      <c r="C60" s="40" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2599,8 +2603,8 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2615,8 +2619,8 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2631,8 +2635,8 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="47"/>
-      <c r="C63" s="48" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="40" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2649,8 +2653,8 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="40"/>
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
@@ -2667,8 +2671,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="52.2">
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2687,8 +2691,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="34.799999999999997">
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="40"/>
       <c r="D66" s="7" t="s">
         <v>27</v>
       </c>
@@ -2705,10 +2709,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2729,8 +2733,8 @@
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2747,8 +2751,8 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2767,8 +2771,8 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" ht="139.19999999999999">
-      <c r="B70" s="48"/>
-      <c r="C70" s="48" t="s">
+      <c r="B70" s="40"/>
+      <c r="C70" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2789,8 +2793,8 @@
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2807,7 +2811,7 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9" ht="52.2">
-      <c r="B72" s="48"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2829,7 +2833,7 @@
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="5"/>
@@ -2851,7 +2855,7 @@
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="53"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
         <v>92</v>
@@ -2863,7 +2867,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" ht="52.2">
-      <c r="B75" s="53"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
         <v>93</v>
@@ -2883,7 +2887,7 @@
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="53"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
         <v>91</v>
@@ -2901,7 +2905,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9" ht="34.799999999999997">
-      <c r="B77" s="53"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>89</v>
@@ -2921,7 +2925,7 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="53"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="21" t="s">
         <v>112</v>
       </c>
@@ -2939,7 +2943,7 @@
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="5"/>
@@ -2959,7 +2963,7 @@
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="49"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
@@ -2979,7 +2983,7 @@
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="49"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
@@ -2999,7 +3003,7 @@
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="49"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
@@ -3019,7 +3023,7 @@
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="49"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7" t="s">
@@ -3032,12 +3036,12 @@
         <v>14</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="49"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="19" t="s">
@@ -3055,7 +3059,7 @@
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="49"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7" t="s">
@@ -3075,7 +3079,7 @@
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="49"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
@@ -3095,7 +3099,7 @@
       </c>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="49"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="19" t="s">
@@ -3115,7 +3119,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B88" s="49"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7" t="s">
@@ -3135,7 +3139,7 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C89" s="5"/>
@@ -3155,7 +3159,7 @@
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="49"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="19" t="s">
@@ -3174,11 +3178,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B78"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="B35:B40"/>
@@ -3190,31 +3214,11 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6839B7BD-493B-4DEC-B774-61C3D2EE2632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678FC8F-C636-4DB0-9ACE-C19E8D12B0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,12 +828,18 @@
 - 등록일 내림차순, 좋아요 내림차순, 활동명 오름차순</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>목록 표시
+페이지네이션
+좋아요(버튼, 횟수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +938,14 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1050,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,66 +1167,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,6 +1211,69 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,7 +1630,7 @@
   <dimension ref="B2:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
@@ -1630,22 +1647,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1662,13 +1679,13 @@
       <c r="E3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="59" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1688,11 +1705,11 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="44"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1705,14 +1722,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="44"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="26" t="s">
         <v>125</v>
       </c>
@@ -1723,12 +1740,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="64"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="44"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="26" t="s">
         <v>126</v>
       </c>
@@ -1739,12 +1756,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="44"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
@@ -1755,12 +1772,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="64"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="44"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="19" t="s">
         <v>129</v>
       </c>
@@ -1771,12 +1788,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="64"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="44"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="19" t="s">
         <v>128</v>
       </c>
@@ -1787,14 +1804,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="65"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="44"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="40" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1807,14 +1824,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="26" t="s">
         <v>131</v>
       </c>
@@ -1825,12 +1842,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="64"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="61"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="19" t="s">
         <v>128</v>
       </c>
@@ -1841,12 +1858,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="64"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="19" t="s">
         <v>129</v>
       </c>
@@ -1857,12 +1874,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="64"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="62"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="19" t="s">
         <v>126</v>
       </c>
@@ -1873,11 +1890,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="65"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
@@ -1894,7 +1911,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="44"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1912,7 +1929,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="44"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
@@ -1930,11 +1947,11 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="44"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1947,14 +1964,14 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="46" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="44"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="55"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="7" t="s">
         <v>142</v>
       </c>
@@ -1967,12 +1984,12 @@
       <c r="H20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="67"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="44"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
@@ -1985,12 +2002,12 @@
       <c r="H21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="44"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="55"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="19" t="s">
         <v>143</v>
       </c>
@@ -2001,12 +2018,12 @@
         <v>8</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="44"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="56"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
@@ -2019,11 +2036,11 @@
       <c r="H23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="44"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="56" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2040,8 +2057,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="45"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
@@ -2056,10 +2073,10 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="62" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2078,8 +2095,8 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="41"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="31" t="s">
         <v>65</v>
       </c>
@@ -2096,8 +2113,8 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="41"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="31" t="s">
         <v>16</v>
       </c>
@@ -2114,8 +2131,8 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="41"/>
-      <c r="C29" s="40" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2134,8 +2151,8 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="41"/>
-      <c r="C30" s="40"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
@@ -2152,8 +2169,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="41"/>
-      <c r="C31" s="40"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2170,8 +2187,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="41"/>
-      <c r="C32" s="40" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="52" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2190,8 +2207,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
@@ -2208,8 +2225,8 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="41"/>
-      <c r="C34" s="40"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2226,10 +2243,10 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="52" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2241,8 +2258,8 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="41"/>
-      <c r="C36" s="40"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
@@ -2253,8 +2270,8 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="41"/>
-      <c r="C37" s="40"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
@@ -2265,8 +2282,8 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" ht="34.799999999999997">
-      <c r="B38" s="41"/>
-      <c r="C38" s="40" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2278,11 +2295,11 @@
       <c r="H38" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="I38" s="6"/>
+      <c r="I38" s="69"/>
     </row>
     <row r="39" spans="2:9" ht="34.799999999999997">
-      <c r="B39" s="41"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
@@ -2295,8 +2312,8 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="69.599999999999994">
-      <c r="B40" s="41"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
@@ -2309,10 +2326,10 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9" ht="104.4">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="52" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2324,11 +2341,13 @@
       <c r="H41" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="42" spans="2:9" ht="34.799999999999997">
-      <c r="B42" s="41"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
@@ -2341,8 +2360,8 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9" ht="69.599999999999994">
-      <c r="B43" s="41"/>
-      <c r="C43" s="40"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
@@ -2355,8 +2374,8 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="41"/>
-      <c r="C44" s="40" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="52" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2369,8 +2388,8 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="41"/>
-      <c r="C45" s="40"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -2381,8 +2400,8 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="41"/>
-      <c r="C46" s="40"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2393,8 +2412,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="41"/>
-      <c r="C47" s="40" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="52" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2407,8 +2426,8 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="41"/>
-      <c r="C48" s="40"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
@@ -2419,8 +2438,8 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="41"/>
-      <c r="C49" s="40"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2431,10 +2450,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="52" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2447,8 +2466,8 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="53"/>
-      <c r="C51" s="40"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="7" t="s">
         <v>65</v>
       </c>
@@ -2459,8 +2478,8 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="53"/>
-      <c r="C52" s="40"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2471,8 +2490,8 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="53"/>
-      <c r="C53" s="40" t="s">
+      <c r="B53" s="51"/>
+      <c r="C53" s="52" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2485,8 +2504,8 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="53"/>
-      <c r="C54" s="40"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
@@ -2497,8 +2516,8 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="53"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2509,10 +2528,10 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="54" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2531,8 +2550,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="69.599999999999994">
-      <c r="B57" s="41"/>
-      <c r="C57" s="40"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
@@ -2549,8 +2568,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="34.799999999999997">
-      <c r="B58" s="41"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
@@ -2567,8 +2586,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="34.799999999999997">
-      <c r="B59" s="41"/>
-      <c r="C59" s="40"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="19" t="s">
         <v>21</v>
       </c>
@@ -2585,8 +2604,8 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="41"/>
-      <c r="C60" s="40" t="s">
+      <c r="B60" s="49"/>
+      <c r="C60" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2603,8 +2622,8 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="41"/>
-      <c r="C61" s="40"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2638,8 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="41"/>
-      <c r="C62" s="40"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2635,8 +2654,8 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="41"/>
-      <c r="C63" s="40" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="52" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2653,8 +2672,8 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="41"/>
-      <c r="C64" s="40"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
@@ -2671,8 +2690,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="52.2">
-      <c r="B65" s="41"/>
-      <c r="C65" s="40" t="s">
+      <c r="B65" s="49"/>
+      <c r="C65" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2691,8 +2710,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="34.799999999999997">
-      <c r="B66" s="41"/>
-      <c r="C66" s="40"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="7" t="s">
         <v>27</v>
       </c>
@@ -2709,10 +2728,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2733,8 +2752,8 @@
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2751,8 +2770,8 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2771,8 +2790,8 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" ht="139.19999999999999">
-      <c r="B70" s="40"/>
-      <c r="C70" s="40" t="s">
+      <c r="B70" s="52"/>
+      <c r="C70" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2793,8 +2812,8 @@
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2811,7 +2830,7 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9" ht="52.2">
-      <c r="B72" s="40"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2833,7 +2852,7 @@
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="56" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="5"/>
@@ -2855,7 +2874,7 @@
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="50"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
         <v>92</v>
@@ -2867,7 +2886,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" ht="52.2">
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
         <v>93</v>
@@ -2887,7 +2906,7 @@
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="50"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
         <v>91</v>
@@ -2905,7 +2924,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9" ht="34.799999999999997">
-      <c r="B77" s="50"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>89</v>
@@ -2925,7 +2944,7 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="50"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="21" t="s">
         <v>112</v>
       </c>
@@ -2943,7 +2962,7 @@
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="53" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="5"/>
@@ -2963,7 +2982,7 @@
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="51"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
@@ -2983,7 +3002,7 @@
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="51"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
@@ -3003,7 +3022,7 @@
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="51"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
@@ -3023,7 +3042,7 @@
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="51"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7" t="s">
@@ -3041,7 +3060,7 @@
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="51"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="19" t="s">
@@ -3059,7 +3078,7 @@
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="51"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7" t="s">
@@ -3079,7 +3098,7 @@
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="51"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
@@ -3099,7 +3118,7 @@
       </c>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="51"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="19" t="s">
@@ -3119,7 +3138,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B88" s="51"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7" t="s">
@@ -3139,7 +3158,7 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="53" t="s">
         <v>33</v>
       </c>
       <c r="C89" s="5"/>
@@ -3159,7 +3178,7 @@
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="51"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="19" t="s">
@@ -3178,20 +3197,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B4:B25"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="B79:B88"/>
     <mergeCell ref="C56:C59"/>
@@ -3203,22 +3224,20 @@
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B4:B25"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678FC8F-C636-4DB0-9ACE-C19E8D12B0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2E11E-65BE-4E59-B14B-6E6313E40382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -792,23 +792,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목록 표시 정보
-- 썸네일, 소개, 제품명, 가격, 리뷰 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력 내용
-- 썸네일, 소개, 제품명, 가격, 상세내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회 내용
-- 썸네일, 소개, 제품명, 가격, 상세내용
-기타
-- 장바구니, 구매하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GlobalExceptionHandler에서 오류 내용 DB에 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -829,9 +812,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목록 표시
+    <t>조회 내용
+- 썸네일, 제품명, 가격, 상세내용
+기타
+- 장바구니, 구매하기, 별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목록 표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 페이지네이션
 좋아요(버튼, 횟수)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 내용
+- 썸네일, 제품명, 분류, 가격, 상세내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 표시 정보
+- 썸네일, 제품명, 가격, 별점, 리뷰 개수
+검색 필터
+- 분류, 가격
+정렬 기준
+- 제품명, 가격, 등록일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,6 +1191,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,69 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,10 +1654,10 @@
   <dimension ref="B2:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1647,22 +1671,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="64" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1679,13 +1703,13 @@
       <c r="E3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="63"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1705,11 +1729,11 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="60"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="61" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1722,14 +1746,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="64" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="60"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="26" t="s">
         <v>125</v>
       </c>
@@ -1740,12 +1764,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="60"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="26" t="s">
         <v>126</v>
       </c>
@@ -1756,12 +1780,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="44"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="60"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
@@ -1772,12 +1796,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="44"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="60"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="19" t="s">
         <v>129</v>
       </c>
@@ -1788,12 +1812,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="44"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="60"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="19" t="s">
         <v>128</v>
       </c>
@@ -1804,14 +1828,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="45"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="60"/>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="61" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1824,14 +1848,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="64" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="60"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="26" t="s">
         <v>131</v>
       </c>
@@ -1842,12 +1866,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="44"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="60"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="19" t="s">
         <v>128</v>
       </c>
@@ -1858,12 +1882,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="44"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="60"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="19" t="s">
         <v>129</v>
       </c>
@@ -1874,12 +1898,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="44"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="60"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="19" t="s">
         <v>126</v>
       </c>
@@ -1890,11 +1914,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="45"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="60"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
@@ -1911,7 +1935,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="60"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1929,7 +1953,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="60"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
@@ -1947,11 +1971,11 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="60"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="55" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1964,14 +1988,14 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="67" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="35"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="7" t="s">
         <v>142</v>
       </c>
@@ -1984,12 +2008,12 @@
       <c r="H20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="47"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="60"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
@@ -2002,12 +2026,12 @@
       <c r="H21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="60"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="35"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="19" t="s">
         <v>143</v>
       </c>
@@ -2018,12 +2042,12 @@
         <v>8</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="47"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="60"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="36"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
@@ -2036,11 +2060,11 @@
       <c r="H23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="48"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="60"/>
-      <c r="C24" s="56" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="49" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2057,8 +2081,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="61"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
@@ -2073,10 +2097,10 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="47" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2095,8 +2119,8 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="49"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="31" t="s">
         <v>65</v>
       </c>
@@ -2113,8 +2137,8 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="49"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="31" t="s">
         <v>16</v>
       </c>
@@ -2131,8 +2155,8 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="49"/>
-      <c r="C29" s="52" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2151,8 +2175,8 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="49"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
@@ -2169,8 +2193,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="49"/>
-      <c r="C31" s="52"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2187,8 +2211,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="49"/>
-      <c r="C32" s="52" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="41" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2207,8 +2231,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="49"/>
-      <c r="C33" s="52"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
@@ -2225,8 +2249,8 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="49"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2243,10 +2267,10 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2258,8 +2282,8 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="49"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
@@ -2270,8 +2294,8 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="49"/>
-      <c r="C37" s="52"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
@@ -2281,9 +2305,9 @@
       <c r="H37" s="6"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" ht="34.799999999999997">
-      <c r="B38" s="49"/>
-      <c r="C38" s="52" t="s">
+    <row r="38" spans="2:9" ht="139.19999999999999">
+      <c r="B38" s="42"/>
+      <c r="C38" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2293,13 +2317,13 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" s="69"/>
+        <v>156</v>
+      </c>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="2:9" ht="34.799999999999997">
-      <c r="B39" s="49"/>
-      <c r="C39" s="52"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
@@ -2307,13 +2331,13 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="30" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="69.599999999999994">
-      <c r="B40" s="49"/>
-      <c r="C40" s="52"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
@@ -2321,15 +2345,15 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9" ht="104.4">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="41" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2339,15 +2363,15 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="34.799999999999997">
-      <c r="B42" s="49"/>
-      <c r="C42" s="52"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
@@ -2360,8 +2384,8 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9" ht="69.599999999999994">
-      <c r="B43" s="49"/>
-      <c r="C43" s="52"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
@@ -2369,13 +2393,13 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="49"/>
-      <c r="C44" s="52" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="41" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2388,8 +2412,8 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="49"/>
-      <c r="C45" s="52"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -2400,8 +2424,8 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="49"/>
-      <c r="C46" s="52"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2412,8 +2436,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="49"/>
-      <c r="C47" s="52" t="s">
+      <c r="B47" s="42"/>
+      <c r="C47" s="41" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2426,8 +2450,8 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="49"/>
-      <c r="C48" s="52"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2462,8 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="49"/>
-      <c r="C49" s="52"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2450,10 +2474,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="41" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2466,8 +2490,8 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="7" t="s">
         <v>65</v>
       </c>
@@ -2478,8 +2502,8 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="51"/>
-      <c r="C52" s="52"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2490,8 +2514,8 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="51"/>
-      <c r="C53" s="52" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="41" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2504,8 +2528,8 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
@@ -2516,8 +2540,8 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2528,10 +2552,10 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2550,8 +2574,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="69.599999999999994">
-      <c r="B57" s="49"/>
-      <c r="C57" s="52"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
@@ -2568,8 +2592,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="34.799999999999997">
-      <c r="B58" s="49"/>
-      <c r="C58" s="52"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
@@ -2586,8 +2610,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="34.799999999999997">
-      <c r="B59" s="49"/>
-      <c r="C59" s="52"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="19" t="s">
         <v>21</v>
       </c>
@@ -2604,8 +2628,8 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="49"/>
-      <c r="C60" s="52" t="s">
+      <c r="B60" s="42"/>
+      <c r="C60" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2622,8 +2646,8 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="49"/>
-      <c r="C61" s="52"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2638,8 +2662,8 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="49"/>
-      <c r="C62" s="52"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2654,8 +2678,8 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="49"/>
-      <c r="C63" s="52" t="s">
+      <c r="B63" s="42"/>
+      <c r="C63" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2672,8 +2696,8 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="49"/>
-      <c r="C64" s="52"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +2714,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="52.2">
-      <c r="B65" s="49"/>
-      <c r="C65" s="52" t="s">
+      <c r="B65" s="42"/>
+      <c r="C65" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2710,8 +2734,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="34.799999999999997">
-      <c r="B66" s="49"/>
-      <c r="C66" s="52"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="7" t="s">
         <v>27</v>
       </c>
@@ -2728,10 +2752,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2752,8 +2776,8 @@
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2770,8 +2794,8 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2790,8 +2814,8 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" ht="139.19999999999999">
-      <c r="B70" s="52"/>
-      <c r="C70" s="52" t="s">
+      <c r="B70" s="41"/>
+      <c r="C70" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2812,8 +2836,8 @@
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2830,7 +2854,7 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9" ht="52.2">
-      <c r="B72" s="52"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2852,7 +2876,7 @@
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="5"/>
@@ -2874,7 +2898,7 @@
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="57"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
         <v>92</v>
@@ -2886,7 +2910,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" ht="52.2">
-      <c r="B75" s="57"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
         <v>93</v>
@@ -2906,7 +2930,7 @@
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="57"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
         <v>91</v>
@@ -2924,7 +2948,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9" ht="34.799999999999997">
-      <c r="B77" s="57"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>89</v>
@@ -2944,7 +2968,7 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="57"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="21" t="s">
         <v>112</v>
       </c>
@@ -2962,7 +2986,7 @@
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="52" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="5"/>
@@ -2982,7 +3006,7 @@
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="53"/>
+      <c r="B80" s="52"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
@@ -3002,7 +3026,7 @@
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="53"/>
+      <c r="B81" s="52"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
@@ -3022,7 +3046,7 @@
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="53"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
@@ -3042,7 +3066,7 @@
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="53"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7" t="s">
@@ -3055,12 +3079,12 @@
         <v>14</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="53"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="19" t="s">
@@ -3078,7 +3102,7 @@
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="53"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7" t="s">
@@ -3098,7 +3122,7 @@
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="53"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
@@ -3118,7 +3142,7 @@
       </c>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="53"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="19" t="s">
@@ -3138,7 +3162,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B88" s="53"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7" t="s">
@@ -3158,7 +3182,7 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C89" s="5"/>
@@ -3178,7 +3202,7 @@
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="53"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="19" t="s">
@@ -3197,11 +3221,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B78"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="B35:B40"/>
@@ -3213,31 +3257,11 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2E11E-65BE-4E59-B14B-6E6313E40382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0473F-7C28-40A3-A6FE-0CA4F2DC3666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -853,7 +853,7 @@
     <t>목록 표시 정보
 - 썸네일, 제품명, 가격, 별점, 리뷰 개수
 검색 필터
-- 분류, 가격
+- 제품명, 분류, 가격
 정렬 기준
 - 제품명, 가격, 등록일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1194,66 +1194,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,6 +1238,66 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,7 +1654,7 @@
   <dimension ref="B2:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
@@ -1671,22 +1671,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="36" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="64" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1703,13 +1703,13 @@
       <c r="E3" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="60" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1729,11 +1729,11 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="45"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -1746,14 +1746,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="44" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="45"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="62"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="26" t="s">
         <v>125</v>
       </c>
@@ -1764,12 +1764,12 @@
         <v>9</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="65"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="45"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="26" t="s">
         <v>126</v>
       </c>
@@ -1780,12 +1780,12 @@
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="65"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="45"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="26" t="s">
         <v>127</v>
       </c>
@@ -1796,12 +1796,12 @@
         <v>9</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="65"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="45"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="19" t="s">
         <v>129</v>
       </c>
@@ -1812,12 +1812,12 @@
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="65"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="45"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="19" t="s">
         <v>128</v>
       </c>
@@ -1828,14 +1828,14 @@
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="66"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="45"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -1848,14 +1848,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="44" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="45"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="26" t="s">
         <v>131</v>
       </c>
@@ -1866,12 +1866,12 @@
         <v>9</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="65"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="45"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="62"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="19" t="s">
         <v>128</v>
       </c>
@@ -1882,12 +1882,12 @@
         <v>9</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="65"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="45"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="62"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="19" t="s">
         <v>129</v>
       </c>
@@ -1898,12 +1898,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="65"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="45"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="19" t="s">
         <v>126</v>
       </c>
@@ -1914,11 +1914,11 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="66"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="45"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="19" t="s">
         <v>75</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="45"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="45"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="5" t="s">
         <v>104</v>
       </c>
@@ -1971,11 +1971,11 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="45"/>
-      <c r="C19" s="49" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -1988,14 +1988,14 @@
         <v>8</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="45"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="56"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="7" t="s">
         <v>142</v>
       </c>
@@ -2008,12 +2008,12 @@
       <c r="H20" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="45"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="56"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="7" t="s">
         <v>140</v>
       </c>
@@ -2026,12 +2026,12 @@
       <c r="H21" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="68"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="45"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="56"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="19" t="s">
         <v>143</v>
       </c>
@@ -2042,12 +2042,12 @@
         <v>8</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="68"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="45"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
@@ -2060,11 +2060,11 @@
       <c r="H23" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="45"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="57" t="s">
         <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2081,8 +2081,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="46"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
@@ -2097,10 +2097,10 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2119,8 +2119,8 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="42"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="31" t="s">
         <v>65</v>
       </c>
@@ -2137,8 +2137,8 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="42"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="31" t="s">
         <v>16</v>
       </c>
@@ -2155,8 +2155,8 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="42"/>
-      <c r="C29" s="41" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2175,8 +2175,8 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="42"/>
-      <c r="C30" s="41"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="5" t="s">
         <v>65</v>
       </c>
@@ -2193,8 +2193,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="42"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="5" t="s">
         <v>16</v>
       </c>
@@ -2211,8 +2211,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="42"/>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="53" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2231,8 +2231,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="42"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
@@ -2249,8 +2249,8 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="42"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="5" t="s">
         <v>16</v>
       </c>
@@ -2267,10 +2267,10 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="53" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -2282,8 +2282,8 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="42"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
@@ -2294,8 +2294,8 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="42"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
@@ -2306,8 +2306,8 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" ht="139.19999999999999">
-      <c r="B38" s="42"/>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="53" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -2322,8 +2322,8 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="2:9" ht="34.799999999999997">
-      <c r="B39" s="42"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
@@ -2336,8 +2336,8 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="69.599999999999994">
-      <c r="B40" s="42"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="7" t="s">
         <v>16</v>
       </c>
@@ -2350,10 +2350,10 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="2:9" ht="104.4">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="53" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2370,8 +2370,8 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="34.799999999999997">
-      <c r="B42" s="42"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="7" t="s">
         <v>65</v>
       </c>
@@ -2384,8 +2384,8 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="2:9" ht="69.599999999999994">
-      <c r="B43" s="42"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="7" t="s">
         <v>16</v>
       </c>
@@ -2398,8 +2398,8 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="42"/>
-      <c r="C44" s="41" t="s">
+      <c r="B44" s="50"/>
+      <c r="C44" s="53" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -2412,8 +2412,8 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="42"/>
-      <c r="C45" s="41"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
@@ -2424,8 +2424,8 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="42"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="7" t="s">
         <v>16</v>
       </c>
@@ -2436,8 +2436,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="42"/>
-      <c r="C47" s="41" t="s">
+      <c r="B47" s="50"/>
+      <c r="C47" s="53" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2450,8 +2450,8 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="42"/>
-      <c r="C48" s="41"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
@@ -2462,8 +2462,8 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="42"/>
-      <c r="C49" s="41"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="7" t="s">
         <v>16</v>
       </c>
@@ -2474,10 +2474,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="53" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2490,8 +2490,8 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="54"/>
-      <c r="C51" s="41"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="7" t="s">
         <v>65</v>
       </c>
@@ -2502,8 +2502,8 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="54"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2514,8 +2514,8 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="54"/>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="52"/>
+      <c r="C53" s="53" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2528,8 +2528,8 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="54"/>
-      <c r="C54" s="41"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
@@ -2540,8 +2540,8 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="54"/>
-      <c r="C55" s="41"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2552,10 +2552,10 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2574,8 +2574,8 @@
       </c>
     </row>
     <row r="57" spans="2:9" ht="69.599999999999994">
-      <c r="B57" s="42"/>
-      <c r="C57" s="41"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="19" t="s">
         <v>65</v>
       </c>
@@ -2592,8 +2592,8 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="34.799999999999997">
-      <c r="B58" s="42"/>
-      <c r="C58" s="41"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="19" t="s">
         <v>16</v>
       </c>
@@ -2610,8 +2610,8 @@
       </c>
     </row>
     <row r="59" spans="2:9" ht="34.799999999999997">
-      <c r="B59" s="42"/>
-      <c r="C59" s="41"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="19" t="s">
         <v>21</v>
       </c>
@@ -2628,8 +2628,8 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="42"/>
-      <c r="C60" s="41" t="s">
+      <c r="B60" s="50"/>
+      <c r="C60" s="53" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2646,8 +2646,8 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="42"/>
-      <c r="C61" s="41"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="7" t="s">
         <v>65</v>
       </c>
@@ -2662,8 +2662,8 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="42"/>
-      <c r="C62" s="41"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2678,8 +2678,8 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="42"/>
-      <c r="C63" s="41" t="s">
+      <c r="B63" s="50"/>
+      <c r="C63" s="53" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -2696,8 +2696,8 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="42"/>
-      <c r="C64" s="41"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="5" t="s">
         <v>61</v>
       </c>
@@ -2714,8 +2714,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" ht="52.2">
-      <c r="B65" s="42"/>
-      <c r="C65" s="41" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -2734,8 +2734,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="34.799999999999997">
-      <c r="B66" s="42"/>
-      <c r="C66" s="41"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="7" t="s">
         <v>27</v>
       </c>
@@ -2752,10 +2752,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" ht="70.2" customHeight="1">
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C67" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="15"/>
@@ -2776,8 +2776,8 @@
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7" t="s">
         <v>7</v>
@@ -2794,8 +2794,8 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
@@ -2814,8 +2814,8 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" ht="139.19999999999999">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41" t="s">
+      <c r="B70" s="53"/>
+      <c r="C70" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -2836,8 +2836,8 @@
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="2:9" ht="52.2">
-      <c r="B72" s="41"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="5" t="s">
         <v>12</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="57" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="5"/>
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="74" spans="2:9">
-      <c r="B74" s="51"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
         <v>92</v>
@@ -2910,7 +2910,7 @@
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="2:9" ht="52.2">
-      <c r="B75" s="51"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
         <v>93</v>
@@ -2930,7 +2930,7 @@
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="5"/>
       <c r="D76" s="1" t="s">
         <v>91</v>
@@ -2948,7 +2948,7 @@
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9" ht="34.799999999999997">
-      <c r="B77" s="51"/>
+      <c r="B77" s="58"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17" t="s">
         <v>89</v>
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="51"/>
+      <c r="B78" s="58"/>
       <c r="C78" s="21" t="s">
         <v>112</v>
       </c>
@@ -2986,7 +2986,7 @@
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="52" t="s">
+      <c r="B79" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="5"/>
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="52"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
@@ -3026,7 +3026,7 @@
       </c>
     </row>
     <row r="81" spans="2:9">
-      <c r="B81" s="52"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
@@ -3046,7 +3046,7 @@
       </c>
     </row>
     <row r="82" spans="2:9">
-      <c r="B82" s="52"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
@@ -3066,7 +3066,7 @@
       </c>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="52"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7" t="s">
@@ -3084,7 +3084,7 @@
       <c r="I83" s="9"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="52"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="19" t="s">
@@ -3102,7 +3102,7 @@
       </c>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="52"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7" t="s">
@@ -3122,7 +3122,7 @@
       </c>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="52"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="19" t="s">
@@ -3142,7 +3142,7 @@
       </c>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="52"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="19" t="s">
@@ -3162,7 +3162,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="148.19999999999999" customHeight="1">
-      <c r="B88" s="52"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7" t="s">
@@ -3182,7 +3182,7 @@
       </c>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="54" t="s">
         <v>33</v>
       </c>
       <c r="C89" s="5"/>
@@ -3202,7 +3202,7 @@
       </c>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="52"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="19" t="s">
@@ -3221,20 +3221,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="B4:B25"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="B79:B88"/>
     <mergeCell ref="C56:C59"/>
@@ -3246,22 +3248,20 @@
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="B67:B72"/>
     <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B4:B25"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="I5:I10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="I19:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F75:F76">

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0473F-7C28-40A3-A6FE-0CA4F2DC3666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F91F1-436B-472F-9C65-74F907FD177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="160">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -853,9 +853,37 @@
     <t>목록 표시 정보
 - 썸네일, 제품명, 가격, 별점, 리뷰 개수
 검색 필터
-- 제품명, 분류, 가격
+- 제품명, 분류
 정렬 기준
-- 제품명, 가격, 등록일</t>
+- 등록일, 가격, 별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 관련 로그 기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">로그안
+로그아웃
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>존재하지 않는 아이디
+비밀번호 오입력
+비밀번호 오입력 횟수 초과</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +891,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1651,16 +1679,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I90"/>
+  <dimension ref="B2:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
@@ -1670,7 +1698,7 @@
     <col min="9" max="9" width="70.8984375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="68" t="s">
         <v>86</v>
       </c>
@@ -1690,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1">
+    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
@@ -1708,7 +1736,7 @@
       <c r="H3" s="65"/>
       <c r="I3" s="64"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="60" t="s">
         <v>22</v>
       </c>
@@ -1728,7 +1756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="61"/>
       <c r="C5" s="38" t="s">
         <v>23</v>
@@ -1750,7 +1778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="61"/>
       <c r="C6" s="39"/>
       <c r="D6" s="42"/>
@@ -1766,7 +1794,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="61"/>
       <c r="C7" s="39"/>
       <c r="D7" s="42"/>
@@ -1782,7 +1810,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="61"/>
       <c r="C8" s="39"/>
       <c r="D8" s="42"/>
@@ -1798,7 +1826,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="61"/>
       <c r="C9" s="39"/>
       <c r="D9" s="42"/>
@@ -1814,7 +1842,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="61"/>
       <c r="C10" s="40"/>
       <c r="D10" s="43"/>
@@ -1830,7 +1858,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="61"/>
       <c r="C11" s="59" t="s">
         <v>119</v>
@@ -1852,7 +1880,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="61"/>
       <c r="C12" s="59"/>
       <c r="D12" s="42"/>
@@ -1868,7 +1896,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="61"/>
       <c r="C13" s="59"/>
       <c r="D13" s="42"/>
@@ -1884,7 +1912,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="45"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="61"/>
       <c r="C14" s="59"/>
       <c r="D14" s="42"/>
@@ -1900,7 +1928,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="61"/>
       <c r="C15" s="59"/>
       <c r="D15" s="43"/>
@@ -1916,7 +1944,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="61"/>
       <c r="C16" s="59"/>
       <c r="D16" s="19" t="s">
@@ -1934,7 +1962,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="61"/>
       <c r="C17" s="5" t="s">
         <v>56</v>
@@ -1952,7 +1980,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="61"/>
       <c r="C18" s="5" t="s">
         <v>104</v>
@@ -1970,7 +1998,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="61"/>
       <c r="C19" s="57" t="s">
         <v>105</v>
@@ -1992,7 +2020,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="61"/>
       <c r="C20" s="58"/>
       <c r="D20" s="36"/>
@@ -2010,7 +2038,7 @@
       </c>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="61"/>
       <c r="C21" s="58"/>
       <c r="D21" s="36"/>
@@ -2028,7 +2056,7 @@
       </c>
       <c r="I21" s="48"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="61"/>
       <c r="C22" s="58"/>
       <c r="D22" s="36"/>
@@ -2044,7 +2072,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="48"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="61"/>
       <c r="C23" s="56"/>
       <c r="D23" s="37"/>
@@ -2062,7 +2090,7 @@
       </c>
       <c r="I23" s="49"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="61"/>
       <c r="C24" s="57" t="s">
         <v>106</v>
@@ -2080,7 +2108,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="62"/>
       <c r="C25" s="56"/>
       <c r="D25" s="7" t="s">
@@ -2096,7 +2124,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="50" t="s">
         <v>103</v>
       </c>
@@ -2118,7 +2146,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="50"/>
       <c r="C27" s="55"/>
       <c r="D27" s="31" t="s">
@@ -2136,7 +2164,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="50"/>
       <c r="C28" s="55"/>
       <c r="D28" s="31" t="s">
@@ -2154,7 +2182,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="50"/>
       <c r="C29" s="53" t="s">
         <v>30</v>
@@ -2174,7 +2202,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="50"/>
       <c r="C30" s="53"/>
       <c r="D30" s="5" t="s">
@@ -2192,7 +2220,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="50"/>
       <c r="C31" s="53"/>
       <c r="D31" s="5" t="s">
@@ -2210,7 +2238,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="50"/>
       <c r="C32" s="53" t="s">
         <v>57</v>
@@ -2230,7 +2258,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="50"/>
       <c r="C33" s="53"/>
       <c r="D33" s="5" t="s">
@@ -2248,7 +2276,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="50"/>
       <c r="C34" s="53"/>
       <c r="D34" s="5" t="s">
@@ -2266,7 +2294,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="50" t="s">
         <v>63</v>
       </c>
@@ -2281,7 +2309,7 @@
       <c r="G35" s="5"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="50"/>
       <c r="C36" s="53"/>
       <c r="D36" s="7" t="s">
@@ -2293,7 +2321,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="50"/>
       <c r="C37" s="53"/>
       <c r="D37" s="7" t="s">
@@ -2305,7 +2333,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" ht="139.19999999999999">
+    <row r="38" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B38" s="50"/>
       <c r="C38" s="53" t="s">
         <v>66</v>
@@ -2321,7 +2349,7 @@
       </c>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="2:9" ht="34.799999999999997">
+    <row r="39" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B39" s="50"/>
       <c r="C39" s="53"/>
       <c r="D39" s="7" t="s">
@@ -2335,7 +2363,7 @@
       </c>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" ht="69.599999999999994">
+    <row r="40" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B40" s="50"/>
       <c r="C40" s="53"/>
       <c r="D40" s="7" t="s">
@@ -2349,7 +2377,7 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" ht="104.4">
+    <row r="41" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B41" s="50" t="s">
         <v>67</v>
       </c>
@@ -2369,7 +2397,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="34.799999999999997">
+    <row r="42" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B42" s="50"/>
       <c r="C42" s="53"/>
       <c r="D42" s="7" t="s">
@@ -2383,7 +2411,7 @@
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9" ht="69.599999999999994">
+    <row r="43" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B43" s="50"/>
       <c r="C43" s="53"/>
       <c r="D43" s="7" t="s">
@@ -2397,7 +2425,7 @@
       </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="50"/>
       <c r="C44" s="53" t="s">
         <v>69</v>
@@ -2411,7 +2439,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="50"/>
       <c r="C45" s="53"/>
       <c r="D45" s="7" t="s">
@@ -2423,7 +2451,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="50"/>
       <c r="C46" s="53"/>
       <c r="D46" s="7" t="s">
@@ -2435,7 +2463,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="50"/>
       <c r="C47" s="53" t="s">
         <v>70</v>
@@ -2449,7 +2477,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="50"/>
       <c r="C48" s="53"/>
       <c r="D48" s="7" t="s">
@@ -2461,7 +2489,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="50"/>
       <c r="C49" s="53"/>
       <c r="D49" s="7" t="s">
@@ -2473,7 +2501,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="51" t="s">
         <v>71</v>
       </c>
@@ -2489,7 +2517,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="52"/>
       <c r="C51" s="53"/>
       <c r="D51" s="7" t="s">
@@ -2501,7 +2529,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="52"/>
       <c r="C52" s="53"/>
       <c r="D52" s="7" t="s">
@@ -2513,7 +2541,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="52"/>
       <c r="C53" s="53" t="s">
         <v>73</v>
@@ -2527,7 +2555,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="52"/>
       <c r="C54" s="53"/>
       <c r="D54" s="7" t="s">
@@ -2539,7 +2567,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="52"/>
       <c r="C55" s="53"/>
       <c r="D55" s="7" t="s">
@@ -2551,7 +2579,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="50" t="s">
         <v>58</v>
       </c>
@@ -2573,7 +2601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="69.599999999999994">
+    <row r="57" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B57" s="50"/>
       <c r="C57" s="53"/>
       <c r="D57" s="19" t="s">
@@ -2591,7 +2619,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="34.799999999999997">
+    <row r="58" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B58" s="50"/>
       <c r="C58" s="53"/>
       <c r="D58" s="19" t="s">
@@ -2609,7 +2637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="34.799999999999997">
+    <row r="59" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B59" s="50"/>
       <c r="C59" s="53"/>
       <c r="D59" s="19" t="s">
@@ -2627,7 +2655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60" s="50"/>
       <c r="C60" s="53" t="s">
         <v>59</v>
@@ -2645,7 +2673,7 @@
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="50"/>
       <c r="C61" s="53"/>
       <c r="D61" s="7" t="s">
@@ -2661,7 +2689,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="50"/>
       <c r="C62" s="53"/>
       <c r="D62" s="7" t="s">
@@ -2677,7 +2705,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="50"/>
       <c r="C63" s="53" t="s">
         <v>60</v>
@@ -2695,7 +2723,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="50"/>
       <c r="C64" s="53"/>
       <c r="D64" s="5" t="s">
@@ -2713,7 +2741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="52.2">
+    <row r="65" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B65" s="50"/>
       <c r="C65" s="53" t="s">
         <v>26</v>
@@ -2733,7 +2761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="34.799999999999997">
+    <row r="66" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B66" s="50"/>
       <c r="C66" s="53"/>
       <c r="D66" s="7" t="s">
@@ -2751,7 +2779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="70.2" customHeight="1">
+    <row r="67" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="56" t="s">
         <v>2</v>
       </c>
@@ -2775,301 +2803,301 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9">
+    <row r="68" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69" s="53"/>
       <c r="C69" s="53"/>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="6" t="s">
+      <c r="F70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" ht="139.19999999999999">
-      <c r="B70" s="53"/>
-      <c r="C70" s="53" t="s">
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B71" s="53"/>
+      <c r="C71" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="2:9" ht="52.2">
+        <v>38</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B72" s="53"/>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C72" s="53"/>
       <c r="D72" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H72" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B73" s="53"/>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="57" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B74" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="58"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="2:9" ht="52.2">
+      <c r="I74" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B75" s="58"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B76" s="58"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B77" s="58"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="2:9" ht="34.799999999999997">
-      <c r="B77" s="58"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17" t="s">
+      <c r="F77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B78" s="58"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E78" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="F78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="58"/>
-      <c r="C78" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B79" s="58"/>
+      <c r="C79" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="54" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B80" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="54"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H80" s="6"/>
       <c r="I80" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="54"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="54"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="54"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -3079,16 +3107,18 @@
         <v>14</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9">
+        <v>79</v>
+      </c>
+      <c r="I83" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="54"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="19" t="s">
-        <v>101</v>
+      <c r="E84" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>14</v>
@@ -3096,57 +3126,55 @@
       <c r="G84" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
+      <c r="H84" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="54"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="7" t="s">
-        <v>80</v>
+      <c r="E85" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
+        <v>14</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B86" s="54"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="19" t="s">
-        <v>42</v>
+      <c r="E86" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
+        <v>81</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="54"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="19" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>14</v>
@@ -3155,58 +3183,60 @@
         <v>14</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="148.19999999999999" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" s="54"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="7" t="s">
-        <v>110</v>
+      <c r="E88" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="54" t="s">
-        <v>33</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="54"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="19" t="s">
-        <v>34</v>
+      <c r="E89" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="54"/>
+      <c r="H89" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B90" s="54" t="s">
+        <v>33</v>
+      </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>8</v>
@@ -3215,7 +3245,25 @@
         <v>14</v>
       </c>
       <c r="H90" s="6"/>
-      <c r="I90" s="20" t="s">
+      <c r="I90" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B91" s="54"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3237,17 +3285,17 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B80:B89"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="B56:B66"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B74:B79"/>
     <mergeCell ref="B41:B49"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="C50:C52"/>
@@ -3264,7 +3312,7 @@
     <mergeCell ref="I19:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F75:F76">
+  <conditionalFormatting sqref="F76:F77">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
@@ -3293,13 +3341,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -3307,7 +3355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
@@ -3315,7 +3363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>99</v>
       </c>
@@ -3323,7 +3371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
@@ -3331,7 +3379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>54</v>
       </c>
@@ -3339,7 +3387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>74</v>
       </c>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F91F1-436B-472F-9C65-74F907FD177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CDD6AF-67B5-404C-B333-C695D855548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="162">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,14 +358,6 @@
   </si>
   <si>
     <t>상세조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 현황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현황 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,10 +436,6 @@
     <t>페이지 이동(맨 위로, 맨 아래로, 자동 스크롤)
 페이지 툴팁(켜기/끄기) -&gt; 화면 구성요소에 마우스 올리면 툴팁 표시
 페이지 개요 보이기 -&gt; 페이지 작성 의도 및 사용 방법 등을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속자 수 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -884,6 +872,27 @@
 비밀번호 오입력
 비밀번호 오입력 횟수 초과</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자홈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속자 수 추이 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요 요청 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해킹 의심 요청 목록 조회
+오류가 발생한 요청 목록 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,6 +1231,66 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,66 +1335,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1679,13 +1688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I91"/>
+  <dimension ref="B2:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1699,226 +1708,224 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="64"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>77</v>
+      <c r="C4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>158</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="45"/>
+      <c r="C6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E6" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="45"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="65"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="45"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="45"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="44" t="s">
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="45"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="45"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="66"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="45"/>
+      <c r="C12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="64" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="61"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="26" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="61"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="61"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="61"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="61"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="61"/>
-      <c r="C11" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="45"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
@@ -1926,12 +1933,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="45"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="19" t="s">
         <v>126</v>
       </c>
@@ -1942,48 +1949,46 @@
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="46"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="45"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="61"/>
-      <c r="C17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="61"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="5" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -1993,126 +1998,128 @@
         <v>8</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="61"/>
-      <c r="C19" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="45"/>
+      <c r="C20" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="61"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="45"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="68"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="45"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="68"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="45"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="68"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="45"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="48"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="61"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="61"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="48"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="61"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="61"/>
-      <c r="C24" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="62"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="49" t="s">
+        <v>103</v>
+      </c>
       <c r="D25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="5" t="s">
@@ -2125,38 +2132,36 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>132</v>
-      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="50"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>18</v>
+      <c r="B27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>129</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>9</v>
@@ -2165,16 +2170,16 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="50"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="31" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>9</v>
@@ -2183,15 +2188,13 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="50"/>
-      <c r="C29" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>132</v>
+      <c r="B29" s="42"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>8</v>
@@ -2203,16 +2206,18 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="50"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>9</v>
@@ -2221,16 +2226,16 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="50"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>9</v>
@@ -2239,36 +2244,36 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="50"/>
-      <c r="C32" s="53" t="s">
-        <v>57</v>
-      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="50"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>8</v>
@@ -2277,16 +2282,16 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="50"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>8</v>
@@ -2295,37 +2300,43 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="42"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C36" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="50"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="50"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="5"/>
@@ -2333,75 +2344,71 @@
       <c r="H37" s="6"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B38" s="50"/>
-      <c r="C38" s="53" t="s">
-        <v>66</v>
-      </c>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="42"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B39" s="50"/>
-      <c r="C39" s="53"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B39" s="42"/>
+      <c r="C39" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="D39" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B40" s="50"/>
-      <c r="C40" s="53"/>
+        <v>153</v>
+      </c>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B40" s="42"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B41" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>68</v>
-      </c>
+    <row r="41" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B41" s="42"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B42" s="50"/>
-      <c r="C42" s="53"/>
+        <v>150</v>
+      </c>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B42" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>68</v>
+      </c>
       <c r="D42" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
@@ -2409,41 +2416,45 @@
       <c r="H42" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B43" s="50"/>
-      <c r="C43" s="53"/>
+      <c r="I42" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B43" s="42"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="50"/>
-      <c r="C44" s="53" t="s">
-        <v>69</v>
-      </c>
+    <row r="44" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B44" s="42"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="30" t="s">
+        <v>148</v>
+      </c>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="50"/>
-      <c r="C45" s="53"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="D45" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
@@ -2452,10 +2463,10 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="50"/>
-      <c r="C46" s="53"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="5"/>
@@ -2464,12 +2475,10 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="50"/>
-      <c r="C47" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
@@ -2478,10 +2487,12 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="50"/>
-      <c r="C48" s="53"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="D48" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
@@ -2490,10 +2501,10 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="50"/>
-      <c r="C49" s="53"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
@@ -2502,14 +2513,10 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>72</v>
-      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
@@ -2518,10 +2525,14 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
+      <c r="B51" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>72</v>
+      </c>
       <c r="D51" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
@@ -2530,10 +2541,10 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="5"/>
@@ -2542,12 +2553,10 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="52"/>
-      <c r="C53" s="53" t="s">
-        <v>73</v>
-      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="5"/>
@@ -2556,10 +2565,12 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="41" t="s">
+        <v>73</v>
+      </c>
       <c r="D54" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="5"/>
@@ -2568,10 +2579,10 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="5"/>
@@ -2580,68 +2591,62 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="54"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C57" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B57" s="50"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="19" t="s">
-        <v>65</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B58" s="50"/>
-      <c r="C58" s="53"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B58" s="42"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B59" s="42"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="50"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
@@ -2651,37 +2656,39 @@
         <v>9</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="50"/>
-      <c r="C60" s="53" t="s">
+      <c r="I59" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B60" s="42"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="42"/>
+      <c r="C61" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="50"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>8</v>
@@ -2690,14 +2697,14 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="50"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="7" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>8</v>
@@ -2706,28 +2713,28 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="50"/>
-      <c r="C63" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>60</v>
+      <c r="B63" s="42"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="50"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="41" t="s">
+        <v>60</v>
+      </c>
       <c r="D64" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="5" t="s">
@@ -2737,35 +2744,33 @@
         <v>9</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B65" s="50"/>
-      <c r="C65" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>15</v>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="42"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B66" s="50"/>
-      <c r="C66" s="53"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B66" s="42"/>
+      <c r="C66" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="D66" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="5" t="s">
@@ -2776,216 +2781,214 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B67" s="42"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="56" t="s">
+    <row r="68" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C68" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
       <c r="D68" s="15"/>
       <c r="E68" s="23" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="6" t="s">
+      <c r="F70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="5" t="s">
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="6" t="s">
+      <c r="F71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B71" s="53"/>
-      <c r="C71" s="53" t="s">
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B72" s="41"/>
+      <c r="C72" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B73" s="53"/>
-      <c r="C73" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H73" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B74" s="41"/>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B74" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="22" t="s">
-        <v>108</v>
+      <c r="I74" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="58"/>
+      <c r="B75" s="49" t="s">
+        <v>86</v>
+      </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H75" s="6"/>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B76" s="58"/>
+      <c r="I75" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B76" s="51"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B77" s="51"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B77" s="58"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="F77" s="5" t="s">
         <v>8</v>
       </c>
@@ -2993,132 +2996,132 @@
         <v>8</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="8"/>
-    </row>
-    <row r="78" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B78" s="58"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
+      <c r="I77" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="51"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E78" s="19" t="s">
-        <v>94</v>
+      <c r="E78" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B79" s="51"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B79" s="58"/>
-      <c r="C79" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="51"/>
+      <c r="C80" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B81" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B81" s="54"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H81" s="6"/>
       <c r="I81" s="20" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B82" s="54"/>
+      <c r="B82" s="52"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="19" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B83" s="54"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="19" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B84" s="54"/>
+      <c r="B84" s="52"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="7" t="s">
-        <v>78</v>
+      <c r="E84" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>14</v>
@@ -3127,16 +3130,18 @@
         <v>14</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I84" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B85" s="54"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="19" t="s">
-        <v>101</v>
+      <c r="E85" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>14</v>
@@ -3144,57 +3149,55 @@
       <c r="G85" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="H85" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I85" s="9"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B86" s="54"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="7" t="s">
-        <v>80</v>
+      <c r="E86" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B87" s="54"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="19" t="s">
-        <v>42</v>
+      <c r="E87" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>43</v>
+        <v>79</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B88" s="54"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="19" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>14</v>
@@ -3203,58 +3206,60 @@
         <v>14</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="54"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B89" s="52"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="7" t="s">
-        <v>110</v>
+      <c r="E89" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B90" s="54" t="s">
-        <v>33</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="52"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="19" t="s">
-        <v>34</v>
+      <c r="E90" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="22" t="s">
-        <v>35</v>
+      <c r="H90" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B91" s="54"/>
+      <c r="B91" s="52" t="s">
+        <v>33</v>
+      </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="19" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>8</v>
@@ -3263,66 +3268,86 @@
         <v>14</v>
       </c>
       <c r="H91" s="6"/>
-      <c r="I91" s="20" t="s">
+      <c r="I91" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B92" s="52"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="20" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B4:B26"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="B4:B25"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B80:B89"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="I5:I10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="I19:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F76:F77">
+  <conditionalFormatting sqref="F77:F78">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G18 F24:G25">
+  <conditionalFormatting sqref="F25:G26 G1:G19">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G1048576">
+  <conditionalFormatting sqref="G27:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>
@@ -3365,10 +3390,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -3392,7 +3417,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CDD6AF-67B5-404C-B333-C695D855548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCB1F2F-6E99-4B86-97E9-1881FBBF04E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -37,10 +37,21 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={240930AC-0A69-4953-9D83-9F1D6C66B29E}</author>
     <author>tc={268D8250-1342-44A7-BAAC-E75199A4C36C}</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{240930AC-0A69-4953-9D83-9F1D6C66B29E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    상: 새로운 로직 구현 필요
+중: 기존 로직 사용 + 3일 이내 작업 X
+하: 기존 로직 사용 + 3일 이내 작업 O</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -55,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="188">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +157,6 @@
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속 로그 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,26 +531,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요청 로그 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 접속 내역을 관리자가 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 요청한 URL 내역을 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접속 IP 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +568,6 @@
   </si>
   <si>
     <t>목록 조회(페이지 네이션, 필터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 그룹 목록을 조회하고 상세 정보를 수정할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -891,8 +878,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해킹 의심 요청 목록 조회
-오류가 발생한 요청 목록 조회</t>
+    <t>권한 그룹 목록을 조회하고 상세 정보를 수정할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그에 대한 상세 내용을 팝업으로 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 내용 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 기록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 기록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 요청한 URL 내역을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 접속 내역을 관리자가 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해킹 의심 요청 목록을 조회할 수 있다.
+오류가 발생한 요청 목록을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 목록을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 상세정보를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달로 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>트리 형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 메뉴 목록을 조회한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴에 대한 상세내용을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴에 대한 상세내용을 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 사용자 정보를 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시정보: ID, 이름, 권한그룹, 상태, 가입일
+검색정보: ID, 이름, 권한그룹, 상태
+정렬기준: ID 오름차순, 이름 오름차순, 가입일 내림차순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모달에서 등록
+입력정보: ID, 권한그룹, 비고
+초기 비밀번호: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보를 변경한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경대상: 이름, 상태, 권한그룹, 비고
+상태: 활동중, 정지, 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 비밀번호를 초기화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화 비밀번호: 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +1041,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1150,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1125,7 +1280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,109 +1386,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1541,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="김 상민" id="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" userId="cfdb37a1b0aada02" providerId="Windows Live"/>
+  <person displayName="상민 김" id="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" userId="cfdb37a1b0aada02" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -1678,6 +1842,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F2" dT="2024-01-15T05:01:19.06" personId="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" id="{240930AC-0A69-4953-9D83-9F1D6C66B29E}">
+    <text>상: 새로운 로직 구현 필요
+중: 기존 로직 사용 + 3일 이내 작업 X
+하: 기존 로직 사용 + 3일 이내 작업 O</text>
+  </threadedComment>
   <threadedComment ref="G2" dT="2023-01-12T02:15:01.80" personId="{D1E556E2-6F8B-459B-B61C-D9DDB8A46A6A}" id="{268D8250-1342-44A7-BAAC-E75199A4C36C}">
     <text>상: 필수 + 타기능 상호작용O
 중: 필수 + 타기능 상호작용X
@@ -1688,13 +1857,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I92"/>
+  <dimension ref="B2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1702,1652 +1871,1797 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="4" width="16.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="64.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="73.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="70.8984375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="55"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="55"/>
+      <c r="C6" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="66"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="55"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="66"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="55"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="66"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="55"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="66"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="55"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="66"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="55"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="55"/>
+      <c r="C12" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="66"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="55"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="55"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="64"/>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="55"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="66"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="55"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="55"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="45"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="45"/>
-      <c r="C6" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="61" t="s">
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B18" s="55"/>
+      <c r="C18" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="55"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B20" s="55"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="55"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B22" s="55"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="55"/>
+      <c r="C23" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="65"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="65"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="45"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="65"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="45"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="65"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="66"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
-      <c r="C12" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="61" t="s">
+      <c r="E23" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="55"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="55"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="55"/>
+      <c r="C26" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="45"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="65"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="45"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="65"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="45"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="65"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
-      <c r="C18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="E26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="55"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="55"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="55"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="55"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="65"/>
+      <c r="I30" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="55"/>
+      <c r="C31" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
-      <c r="C19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="45"/>
-      <c r="C20" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="67" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="45"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I21" s="68"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="45"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="68"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="45"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="68"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="45"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="69"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B25" s="45"/>
-      <c r="C25" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" s="46"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" s="42"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="42"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B30" s="42"/>
-      <c r="C30" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" s="42"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B32" s="42"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="42"/>
-      <c r="C33" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>129</v>
+      <c r="E33" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>8</v>
+      <c r="G33" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B34" s="42"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>8</v>
+      <c r="G34" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B35" s="42"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="5" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="33" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>8</v>
+      <c r="G35" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="44"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="44"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="44"/>
+      <c r="C39" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="44"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="44"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="47" t="s">
         <v>63</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="42"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B38" s="42"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B39" s="42"/>
-      <c r="C39" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B40" s="42"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B41" s="42"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B42" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B43" s="42"/>
-      <c r="C43" s="41"/>
+      <c r="G42" s="7"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="44"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="30" t="s">
-        <v>146</v>
-      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B44" s="42"/>
-      <c r="C44" s="41"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="44"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="30" t="s">
-        <v>148</v>
-      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B45" s="42"/>
-      <c r="C45" s="41" t="s">
-        <v>69</v>
+    <row r="45" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B45" s="44"/>
+      <c r="C45" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B46" s="42"/>
-      <c r="C46" s="41"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B46" s="44"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="30" t="s">
+        <v>146</v>
+      </c>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B47" s="42"/>
-      <c r="C47" s="41"/>
+    <row r="47" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B47" s="44"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="30" t="s">
+        <v>144</v>
+      </c>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B48" s="42"/>
-      <c r="C48" s="41" t="s">
-        <v>70</v>
+    <row r="48" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B48" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>67</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="42"/>
-      <c r="C49" s="41"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B49" s="44"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="30" t="s">
+        <v>140</v>
+      </c>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B50" s="42"/>
-      <c r="C50" s="41"/>
+    <row r="50" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B50" s="44"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="30" t="s">
+        <v>142</v>
+      </c>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B51" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>72</v>
+      <c r="B51" s="44"/>
+      <c r="C51" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="6"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="54"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="6"/>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="54"/>
-      <c r="C53" s="41"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="6"/>
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="54"/>
-      <c r="C54" s="41" t="s">
-        <v>73</v>
+      <c r="B54" s="44"/>
+      <c r="C54" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="6"/>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="54"/>
-      <c r="C55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="6"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="54"/>
-      <c r="C56" s="41"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="6"/>
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="48" t="s">
+      <c r="B57" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="46"/>
+      <c r="C60" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D63" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="B58" s="42"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B59" s="42"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B60" s="42"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="42"/>
-      <c r="C61" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="42"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="42"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B64" s="42"/>
-      <c r="C64" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>60</v>
+      <c r="G63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B64" s="44"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B65" s="42"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="5" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B65" s="44"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="F65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B66" s="42"/>
-      <c r="C66" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="7" t="s">
+      <c r="I65" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B66" s="44"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="9"/>
+      <c r="I66" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="44"/>
+      <c r="C67" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B67" s="42"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>156</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="44"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="44"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B70" s="44"/>
+      <c r="C70" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="7"/>
       <c r="F70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E71" s="7"/>
       <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="B72" s="41"/>
-      <c r="C72" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>4</v>
+      <c r="G71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B72" s="44"/>
+      <c r="C72" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="6"/>
       <c r="I72" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="5" t="s">
-        <v>10</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B73" s="44"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B74" s="41"/>
-      <c r="C74" s="5" t="s">
+      <c r="G73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B78" s="47"/>
+      <c r="C78" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B80" s="47"/>
+      <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B76" s="51"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B77" s="51"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B78" s="51"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="8"/>
-    </row>
-    <row r="79" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B79" s="51"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B80" s="51"/>
-      <c r="C80" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="17"/>
       <c r="E80" s="7"/>
       <c r="F80" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="22" t="s">
-        <v>110</v>
+      <c r="G80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B81" s="52" t="s">
-        <v>24</v>
+      <c r="B81" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="19" t="s">
-        <v>25</v>
+      <c r="D81" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="20" t="s">
-        <v>106</v>
+      <c r="I81" s="22" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="52"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D82" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B83" s="52"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="19" t="s">
-        <v>112</v>
+      <c r="D83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="52"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="19" t="s">
-        <v>76</v>
+      <c r="D84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B85" s="52"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B85" s="52"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I85" s="9"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B86" s="52"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="19" t="s">
-        <v>98</v>
-      </c>
+      <c r="C86" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="20" t="s">
-        <v>99</v>
+      <c r="I86" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B87" s="52"/>
+      <c r="B87" s="48" t="s">
+        <v>23</v>
+      </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="7" t="s">
-        <v>78</v>
+      <c r="E87" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>78</v>
+      <c r="H87" s="6"/>
+      <c r="I87" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B88" s="52"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B89" s="52"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="52"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B90" s="48"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="7" t="s">
-        <v>107</v>
+      <c r="E90" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="G90" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="H90" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>136</v>
+        <v>76</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B91" s="52" t="s">
-        <v>33</v>
-      </c>
+      <c r="B91" s="48"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="19" t="s">
-        <v>34</v>
+      <c r="E91" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="G91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B92" s="52"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="19" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="20" t="s">
-        <v>47</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B93" s="48"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B94" s="48"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B95" s="48"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="48"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B97" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B98" s="48"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B81:B90"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B4:B26"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C4:C5"/>
+  <mergeCells count="47">
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="B4:B32"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="B63:B73"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D19:D21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F77:F78">
+  <conditionalFormatting sqref="G1:G18 G20:G1048576">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G26 G1:G19">
+  <conditionalFormatting sqref="F31:G32">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G1048576">
+  <conditionalFormatting sqref="G33:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"상"</formula>
     </cfRule>
@@ -3374,50 +3688,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
